--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anania.c\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A469FD14-29EB-4787-85D5-87FBFA9E17AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31A99A-A312-4A6B-8686-D1E937A72479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -37,12 +37,57 @@
   </si>
   <si>
     <t>percent_deadsensor_threshold</t>
+  </si>
+  <si>
+    <t>num_minutes_past</t>
+  </si>
+  <si>
+    <t>allow_num_exceedences_control_initial</t>
+  </si>
+  <si>
+    <t>allow_num_exceedences_guard_initial</t>
+  </si>
+  <si>
+    <t>alm_hot_abs_temp_initial</t>
+  </si>
+  <si>
+    <t>guard_hot_abs_temp_intial</t>
+  </si>
+  <si>
+    <t>allow_num_exceedences_control_default</t>
+  </si>
+  <si>
+    <t>allow_num_exceedences_guard_default</t>
+  </si>
+  <si>
+    <t>alm_hot_abs_temp_default</t>
+  </si>
+  <si>
+    <t>guard_hot_abs_temp_default</t>
+  </si>
+  <si>
+    <t>percent_deadsensor_threshold_default</t>
+  </si>
+  <si>
+    <t>sensor_point_cooling_temp</t>
+  </si>
+  <si>
+    <t>sensor_point_hot_temp</t>
+  </si>
+  <si>
+    <t>expected_ahu_to_be_on</t>
+  </si>
+  <si>
+    <t>values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -52,15 +97,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +119,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,47 +433,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D31A99A-A312-4A6B-8686-D1E937A72479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2082C4C-0350-4C9F-9748-1870AD1613CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -86,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,7 +149,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -433,10 +435,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,141 +641,232 @@
     <col min="3" max="3" width="2.90625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>4</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2082C4C-0350-4C9F-9748-1870AD1613CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F47ACDD-CC3E-4768-A4B6-FA8EEDFBC05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -81,6 +81,141 @@
   </si>
   <si>
     <t>values</t>
+  </si>
+  <si>
+    <t>ds_num_guard_units_value</t>
+  </si>
+  <si>
+    <t>deadSensorGuardInputs</t>
+  </si>
+  <si>
+    <t>hotGuardTestInputs</t>
+  </si>
+  <si>
+    <t>guard_on</t>
+  </si>
+  <si>
+    <t>guard_off</t>
+  </si>
+  <si>
+    <t>group_hot_alarm_on</t>
+  </si>
+  <si>
+    <t>group_hot_alarm_off</t>
+  </si>
+  <si>
+    <t>ds_num_minutes_guard_timer_value</t>
+  </si>
+  <si>
+    <t>ds_percent_dead_sensor_threshold_default_value</t>
+  </si>
+  <si>
+    <t>ds_num_minutes_past_value</t>
+  </si>
+  <si>
+    <t>dead_sensor_test_temp</t>
+  </si>
+  <si>
+    <t>alarm_dead_sensor_hysteresis_cleanup_value</t>
+  </si>
+  <si>
+    <t>alarm_dead_sensor_threshold_cleanup_value</t>
+  </si>
+  <si>
+    <t>control_dead_sensor_threshold_cleanup_value</t>
+  </si>
+  <si>
+    <t>dead_sensor_alarm_count</t>
+  </si>
+  <si>
+    <t>group_dead_sensor_alarm_on</t>
+  </si>
+  <si>
+    <t>group_dead_sensor_alarm_off</t>
+  </si>
+  <si>
+    <t>control_dead_sensor_threshold_property_name</t>
+  </si>
+  <si>
+    <t>grp_dead_sensor_hysteresis_value_default_value</t>
+  </si>
+  <si>
+    <t>config_allow_num_exceedences_guard_initial</t>
+  </si>
+  <si>
+    <t>config_allow_num_exceedences_guard_value2</t>
+  </si>
+  <si>
+    <t>group_allow_num_exceedences_guard_value0</t>
+  </si>
+  <si>
+    <t>group_allow_num_exceedences_guard_value1</t>
+  </si>
+  <si>
+    <t>group_allow_num_exceedences_guard_value2</t>
+  </si>
+  <si>
+    <t>config_CAT_guard_band_range_initial</t>
+  </si>
+  <si>
+    <t>config_CAT_guard_band_range_value5</t>
+  </si>
+  <si>
+    <t>config_num_guard_units_value1</t>
+  </si>
+  <si>
+    <t>config_num_guard_units_value2</t>
+  </si>
+  <si>
+    <t>config_num_minutes_guard_timer_value2</t>
+  </si>
+  <si>
+    <t>config_num_minutes_guard_timer_value4</t>
+  </si>
+  <si>
+    <t>config_guard_hysteresis_band_value1</t>
+  </si>
+  <si>
+    <t>config_guard_hysteresis_band_value2</t>
+  </si>
+  <si>
+    <t>high_set_point_limit</t>
+  </si>
+  <si>
+    <t>high_set_point_limit_cleanup</t>
+  </si>
+  <si>
+    <t>low_set_point_limit</t>
+  </si>
+  <si>
+    <t>low_set_point_limit_cleanup</t>
+  </si>
+  <si>
+    <t>allow_num_exceedences_guard_cleanup_value</t>
+  </si>
+  <si>
+    <t>guard_hot_abs_temp_cleanup_value</t>
+  </si>
+  <si>
+    <t>alm_hot_abs_temp_cleanup_value</t>
+  </si>
+  <si>
+    <t>hot_guard_intial_temp_all_racks</t>
+  </si>
+  <si>
+    <t>GUARD_ON</t>
+  </si>
+  <si>
+    <t>GUARD_OFF</t>
+  </si>
+  <si>
+    <t>ALARM_ON</t>
+  </si>
+  <si>
+    <t>ALARM_OFF</t>
+  </si>
+  <si>
+    <t>ControlDeadSensorThreshold</t>
   </si>
 </sst>
 </file>
@@ -435,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,171 +581,334 @@
     <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.1796875" customWidth="1"/>
     <col min="3" max="3" width="2.90625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="4" max="4" width="50.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>200</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>90</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>90</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>90</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4">
         <v>65</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>100</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -619,6 +917,84 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F47ACDD-CC3E-4768-A4B6-FA8EEDFBC05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A305AF-D27E-4FC6-AC3F-684871130AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -284,12 +284,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,119 +589,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="43.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="11">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="7">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="11">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -692,19 +709,19 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="11">
         <v>66</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="11">
         <v>2</v>
       </c>
     </row>
@@ -712,59 +729,59 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="11">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="11">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="11">
         <v>1</v>
       </c>
     </row>
@@ -772,19 +789,19 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="7">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="11">
         <v>2</v>
       </c>
     </row>
@@ -792,59 +809,59 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="11">
         <v>1</v>
       </c>
     </row>
@@ -852,59 +869,59 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="11">
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="7">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="11">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="11">
         <v>88</v>
       </c>
     </row>
@@ -912,87 +929,85 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="7">
         <v>4</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="11">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G18" t="s">
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="11">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G19" t="s">
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G21" t="s">
+    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G22" t="s">
+    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G23" t="s">
+    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G24" t="s">
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G25" t="s">
+    <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="G26" t="s">
+    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="11">
         <v>66</v>
       </c>
     </row>
@@ -1014,14 +1029,14 @@
   <cols>
     <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
@@ -1137,16 +1152,16 @@
   <cols>
     <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
     <col min="4" max="4" width="26.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\PycharmProjects\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A305AF-D27E-4FC6-AC3F-684871130AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AADC1E-2CA4-4A58-A408-B5F6761D98A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -216,6 +216,54 @@
   </si>
   <si>
     <t>ControlDeadSensorThreshold</t>
+  </si>
+  <si>
+    <t>guardOrderMIXInputs</t>
+  </si>
+  <si>
+    <t>allow_num_exceedences_ctrl_value</t>
+  </si>
+  <si>
+    <t>rack_temp</t>
+  </si>
+  <si>
+    <t>config_num_guard_units_value</t>
+  </si>
+  <si>
+    <t>config_num_minutes_guard_timer_value</t>
+  </si>
+  <si>
+    <t>config_system_num_minutes_past</t>
+  </si>
+  <si>
+    <t>first_ahus_predicted_into_guard</t>
+  </si>
+  <si>
+    <t>CAC_16,CAC_17,CAC_10</t>
+  </si>
+  <si>
+    <t>CAC_10</t>
+  </si>
+  <si>
+    <t>CAC_11</t>
+  </si>
+  <si>
+    <t>CAC_12</t>
+  </si>
+  <si>
+    <t>CAC_13</t>
+  </si>
+  <si>
+    <t>CAC_14</t>
+  </si>
+  <si>
+    <t>CAC_15</t>
+  </si>
+  <si>
+    <t>CAC_16</t>
+  </si>
+  <si>
+    <t>CAC_17</t>
   </si>
 </sst>
 </file>
@@ -225,10 +273,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -587,25 +641,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -624,8 +681,14 @@
       <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -644,8 +707,14 @@
       <c r="H2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -664,8 +733,14 @@
       <c r="H3" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -684,8 +759,14 @@
       <c r="H4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -704,8 +785,14 @@
       <c r="H5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="11">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -724,8 +811,14 @@
       <c r="H6" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -744,8 +837,14 @@
       <c r="H7" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="11">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -764,8 +863,14 @@
       <c r="H8" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -784,8 +889,14 @@
       <c r="H9" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -804,8 +915,14 @@
       <c r="H10" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -824,8 +941,14 @@
       <c r="H11" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -844,8 +967,14 @@
       <c r="H12" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -864,8 +993,14 @@
       <c r="H13" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -884,8 +1019,14 @@
       <c r="H14" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -904,8 +1045,14 @@
       <c r="H15" s="11">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -924,8 +1071,14 @@
       <c r="H16" s="11">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -938,72 +1091,106 @@
       <c r="H17" s="11">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
       <c r="H18" s="11">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J21" s="2"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J22" s="2"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H23" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J23" s="2"/>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="11">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J24" s="2"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="11">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="J25" s="2"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1012,6 +1199,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1025,110 +1213,110 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="2"/>
@@ -1148,112 +1336,112 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="2"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AADC1E-2CA4-4A58-A408-B5F6761D98A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57CDB39-ED62-4A23-B0FC-EE1DAF22721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -239,9 +239,6 @@
     <t>first_ahus_predicted_into_guard</t>
   </si>
   <si>
-    <t>CAC_16,CAC_17,CAC_10</t>
-  </si>
-  <si>
     <t>CAC_10</t>
   </si>
   <si>
@@ -264,6 +261,39 @@
   </si>
   <si>
     <t>CAC_17</t>
+  </si>
+  <si>
+    <t>CRAC_3A-01</t>
+  </si>
+  <si>
+    <t>CRAC_3A-02</t>
+  </si>
+  <si>
+    <t>CRAC_3A-03</t>
+  </si>
+  <si>
+    <t>CRAC_3A-04</t>
+  </si>
+  <si>
+    <t>AHU-5</t>
+  </si>
+  <si>
+    <t>AHU-6</t>
+  </si>
+  <si>
+    <t>AHU-7</t>
+  </si>
+  <si>
+    <t>AHU-8</t>
+  </si>
+  <si>
+    <t>AHU-9</t>
+  </si>
+  <si>
+    <t>AHU-10</t>
+  </si>
+  <si>
+    <t>CAC_16,CAC_17,CAC_10,CRAC_3A-01</t>
   </si>
 </sst>
 </file>
@@ -641,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,7 +1001,7 @@
         <v>69</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -994,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="11">
         <v>70</v>
@@ -1020,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="11">
         <v>100</v>
@@ -1046,7 +1076,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K15" s="11">
         <v>90</v>
@@ -1072,7 +1102,7 @@
         <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K16" s="11">
         <v>80</v>
@@ -1092,7 +1122,7 @@
         <v>64.400000000000006</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="11">
         <v>66</v>
@@ -1106,7 +1136,7 @@
         <v>60</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K18" s="11">
         <v>60</v>
@@ -1120,7 +1150,7 @@
         <v>58</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="11">
         <v>50</v>
@@ -1134,7 +1164,7 @@
         <v>59</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K20" s="11">
         <v>75</v>
@@ -1147,8 +1177,12 @@
       <c r="H21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="11"/>
+      <c r="J21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="11">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G22" s="2" t="s">
@@ -1157,8 +1191,12 @@
       <c r="H22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="11"/>
+      <c r="J22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="11">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G23" s="2" t="s">
@@ -1167,8 +1205,12 @@
       <c r="H23" s="11">
         <v>9</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="11"/>
+      <c r="J23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="11">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G24" s="2" t="s">
@@ -1177,8 +1219,12 @@
       <c r="H24" s="11">
         <v>99</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
+      <c r="J24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="11">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G25" s="2" t="s">
@@ -1187,8 +1233,12 @@
       <c r="H25" s="11">
         <v>99</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
+      <c r="J25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="11">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G26" s="2" t="s">
@@ -1196,6 +1246,44 @@
       </c>
       <c r="H26" s="11">
         <v>66</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="11">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57CDB39-ED62-4A23-B0FC-EE1DAF22721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736EA30E-87F2-4B95-B40F-F84141E272CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -221,9 +221,6 @@
     <t>guardOrderMIXInputs</t>
   </si>
   <si>
-    <t>allow_num_exceedences_ctrl_value</t>
-  </si>
-  <si>
     <t>rack_temp</t>
   </si>
   <si>
@@ -293,7 +290,7 @@
     <t>AHU-10</t>
   </si>
   <si>
-    <t>CAC_16,CAC_17,CAC_10,CRAC_3A-01</t>
+    <t>CAC_16,CAC_13</t>
   </si>
 </sst>
 </file>
@@ -671,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="K2" s="11">
-        <v>10</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -764,10 +761,10 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="K3" s="11">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -790,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K4" s="11">
-        <v>66</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -816,10 +813,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" s="11">
-        <v>80.599999999999994</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -842,10 +839,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="11">
-        <v>88</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -868,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" s="11">
-        <v>64.400000000000006</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -894,10 +891,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K8" s="11">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -949,7 +946,7 @@
         <v>67</v>
       </c>
       <c r="K10" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -974,8 +971,8 @@
       <c r="J11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="11">
-        <v>20</v>
+      <c r="K11" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1000,8 +997,8 @@
       <c r="J12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>88</v>
+      <c r="K12" s="11">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1027,7 +1024,7 @@
         <v>70</v>
       </c>
       <c r="K13" s="11">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1053,7 +1050,7 @@
         <v>71</v>
       </c>
       <c r="K14" s="11">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1079,7 +1076,7 @@
         <v>72</v>
       </c>
       <c r="K15" s="11">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1105,7 +1102,7 @@
         <v>73</v>
       </c>
       <c r="K16" s="11">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1125,7 +1122,7 @@
         <v>74</v>
       </c>
       <c r="K17" s="11">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1139,7 +1136,7 @@
         <v>75</v>
       </c>
       <c r="K18" s="11">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1153,7 +1150,7 @@
         <v>76</v>
       </c>
       <c r="K19" s="11">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1167,7 +1164,7 @@
         <v>77</v>
       </c>
       <c r="K20" s="11">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1181,7 +1178,7 @@
         <v>78</v>
       </c>
       <c r="K21" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1195,7 +1192,7 @@
         <v>79</v>
       </c>
       <c r="K22" s="11">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1209,7 +1206,7 @@
         <v>80</v>
       </c>
       <c r="K23" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1237,7 +1234,7 @@
         <v>82</v>
       </c>
       <c r="K25" s="11">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1251,7 +1248,7 @@
         <v>83</v>
       </c>
       <c r="K26" s="11">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1259,7 +1256,7 @@
         <v>84</v>
       </c>
       <c r="K27" s="11">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1267,7 +1264,7 @@
         <v>85</v>
       </c>
       <c r="K28" s="11">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1275,14 +1272,6 @@
         <v>86</v>
       </c>
       <c r="K29" s="11">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K30" s="11">
         <v>60</v>
       </c>
     </row>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736EA30E-87F2-4B95-B40F-F84141E272CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4201FA-BD0C-48DC-9668-AC193C1BEF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -272,25 +272,7 @@
     <t>CRAC_3A-04</t>
   </si>
   <si>
-    <t>AHU-5</t>
-  </si>
-  <si>
-    <t>AHU-6</t>
-  </si>
-  <si>
-    <t>AHU-7</t>
-  </si>
-  <si>
-    <t>AHU-8</t>
-  </si>
-  <si>
-    <t>AHU-9</t>
-  </si>
-  <si>
-    <t>AHU-10</t>
-  </si>
-  <si>
-    <t>CAC_16,CAC_13</t>
+    <t>CAC_16,CAC_13,CRAC_3A-01</t>
   </si>
 </sst>
 </file>
@@ -671,7 +653,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="J2:K2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +954,7 @@
         <v>68</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1216,12 +1198,8 @@
       <c r="H24" s="11">
         <v>99</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K24" s="11">
-        <v>70</v>
-      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G25" s="2" t="s">
@@ -1230,12 +1208,8 @@
       <c r="H25" s="11">
         <v>99</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K25" s="11">
-        <v>100</v>
-      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G26" s="2" t="s">
@@ -1244,36 +1218,20 @@
       <c r="H26" s="11">
         <v>66</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K26" s="11">
-        <v>90</v>
-      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K27" s="11">
-        <v>80</v>
-      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="11">
-        <v>66</v>
-      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="11">
-        <v>60</v>
-      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4201FA-BD0C-48DC-9668-AC193C1BEF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C364A47-DB72-431E-AFBB-09479D01BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
     <t>CRAC_3A-04</t>
   </si>
   <si>
-    <t>CAC_16,CAC_13,CRAC_3A-01</t>
+    <t>CAC_16,CAC_13,CRAC_3A-02</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C364A47-DB72-431E-AFBB-09479D01BA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DE63F9-5789-414C-B43C-392D9535AD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>CAC_16,CAC_13,CRAC_3A-02</t>
+  </si>
+  <si>
+    <t>allow_num_exceedences_control_cleanup_value</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,11 +719,11 @@
       <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="11">
-        <v>99</v>
+      <c r="J2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -742,11 +745,11 @@
       <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="11">
-        <v>66</v>
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="8">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -768,11 +771,11 @@
       <c r="H4" s="11">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="11">
-        <v>80.599999999999994</v>
+      <c r="J4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="8">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -795,10 +798,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="K5" s="11">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -821,10 +824,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K6" s="11">
-        <v>64.400000000000006</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -847,10 +850,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K7" s="11">
-        <v>60</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -873,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K8" s="11">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -899,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K9" s="11">
-        <v>1</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -925,10 +928,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K10" s="11">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -951,10 +954,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>81</v>
+        <v>65</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -977,10 +980,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K12" s="11">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1003,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K13" s="11">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1029,10 +1032,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="11">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1055,10 +1058,10 @@
         <v>80.599999999999994</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K15" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1081,10 +1084,10 @@
         <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K16" s="11">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1101,10 +1104,10 @@
         <v>64.400000000000006</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K17" s="11">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1115,10 +1118,10 @@
         <v>60</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K18" s="11">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1129,10 +1132,10 @@
         <v>58</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K19" s="11">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1143,10 +1146,10 @@
         <v>59</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K20" s="11">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1157,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K21" s="11">
         <v>50</v>
@@ -1171,10 +1174,10 @@
         <v>61</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K22" s="11">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1185,10 +1188,10 @@
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K23" s="11">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1198,8 +1201,12 @@
       <c r="H24" s="11">
         <v>99</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="11"/>
+      <c r="J24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="11">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G25" s="2" t="s">
@@ -1208,8 +1215,12 @@
       <c r="H25" s="11">
         <v>99</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="11"/>
+      <c r="J25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="11">
+        <v>80</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="G26" s="2" t="s">
@@ -1218,8 +1229,12 @@
       <c r="H26" s="11">
         <v>66</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="11"/>
+      <c r="J26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="11">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J27" s="2"/>
@@ -1232,6 +1247,18 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
       <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="2"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31" s="2"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J32" s="2"/>
+      <c r="K32" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DE63F9-5789-414C-B43C-392D9535AD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE276CF-54AC-45D6-BA4C-F86E4C4B3BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -372,6 +378,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +668,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,10 +731,10 @@
       <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="14">
         <v>9</v>
       </c>
     </row>
@@ -745,10 +757,10 @@
       <c r="H3" s="11">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="14">
         <v>95</v>
       </c>
     </row>
@@ -771,10 +783,10 @@
       <c r="H4" s="11">
         <v>0</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="14">
         <v>9</v>
       </c>
     </row>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE276CF-54AC-45D6-BA4C-F86E4C4B3BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C7B28-CC8F-486C-90EF-881EAA842BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="execution" sheetId="2" r:id="rId2"/>
     <sheet name="sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -276,6 +285,176 @@
   </si>
   <si>
     <t>allow_num_exceedences_control_cleanup_value</t>
+  </si>
+  <si>
+    <t>testcase</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>reporttitle</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports </t>
+  </si>
+  <si>
+    <t>basichotGuard.xml</t>
+  </si>
+  <si>
+    <t>Reports/executionLog.txt 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>|| echo $(date +%F_%H:%M:%S)- BasicHotAbsoluteGuard/staleStatePrevention  execution failed &gt;&gt; Reports/executionLog.txt 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>t23</t>
+  </si>
+  <si>
+    <t>t25</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t28</t>
+  </si>
+  <si>
+    <t>t29</t>
+  </si>
+  <si>
+    <t>t30</t>
+  </si>
+  <si>
+    <t>t31</t>
+  </si>
+  <si>
+    <t>t32</t>
+  </si>
+  <si>
+    <t>t33</t>
+  </si>
+  <si>
+    <t>t34</t>
+  </si>
+  <si>
+    <t>Guard1</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>cleanReports</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --removekeywords passed</t>
+  </si>
+  <si>
+    <t>output dir</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --name "Guard2_RSP-test_$(date +%F_%H:%M:%S)"</t>
+  </si>
+  <si>
+    <t>Guard1_RSP-test</t>
+  </si>
+  <si>
+    <t>BasicHotAbsoluteGuard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF067D17"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">--reporttitle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF067D17"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"BasicHotAbsoluteGuard"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  --outputdir Reports </t>
+  </si>
+  <si>
+    <t>Reports/cleanReports</t>
+  </si>
+  <si>
+    <t>cleanReports.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --output basichotGuard.xml </t>
+  </si>
+  <si>
+    <t>groupname</t>
+  </si>
+  <si>
+    <t>config146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config37 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --variable environment:config146 </t>
+  </si>
+  <si>
+    <t>RSP-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -v groupname:RSP-test </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -T $gt_path/basicHotAbsoluteGuardTest.robot $tc_path/staleStatePrevention.robot &gt;&gt; Reports/executionLog.txt 2&gt;&amp;1 || echo $(date +%F_%H:%M:%S)- BasicHotAbsoluteGuard/staleStatePrevention  execution failed &gt;&gt; Reports/executionLog.txt 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>testname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basicHotAbsoluteGuardTest.robot/staleStatePrevention.robot </t>
+  </si>
+  <si>
+    <t>cleanReports.robot</t>
+  </si>
+  <si>
+    <t>failurelog</t>
+  </si>
+  <si>
+    <t>override</t>
+  </si>
+  <si>
+    <t>executionLog.txt 2&gt;&amp;1</t>
   </si>
 </sst>
 </file>
@@ -285,7 +464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +478,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF0073BF"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF080808"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF067D17"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -385,6 +588,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,26 +884,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.08984375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -712,7 +929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="29">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -738,7 +955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="29">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -764,7 +981,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="43.5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -790,7 +1007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="29">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -816,7 +1033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="29">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -842,7 +1059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="29">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -868,7 +1085,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="29">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -894,7 +1111,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="29">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -920,7 +1137,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="29">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -946,7 +1163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="29">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -972,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="29">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -998,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="57.65" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1024,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="29">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="43.5">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1076,7 +1293,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="29">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1102,7 +1319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1122,7 +1339,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="29">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1136,7 +1353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="29">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="29">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="29">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1178,7 +1395,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="29">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1192,7 +1409,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="29">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1206,7 +1423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="29">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1220,7 +1437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="29">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1234,7 +1451,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="29">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1248,27 +1465,27 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="J27" s="2"/>
       <c r="K27" s="11"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="J28" s="2"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="J29" s="2"/>
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="J30" s="2"/>
       <c r="K30" s="11"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="J31" s="2"/>
       <c r="K31" s="11"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="J32" s="2"/>
       <c r="K32" s="11"/>
     </row>
@@ -1281,122 +1498,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="66" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="101.5">
+      <c r="A3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="101.5">
+      <c r="A4" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1410,112 +1697,112 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="D17" s="2"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE276CF-54AC-45D6-BA4C-F86E4C4B3BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA8DEB1-8A37-4513-BE73-6DF2C0FF36EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>allow_num_exceedences_control_cleanup_value</t>
+  </si>
+  <si>
+    <t>fan_ctlr_min_value</t>
+  </si>
+  <si>
+    <t>fan_ctrl_max_value</t>
   </si>
 </sst>
 </file>
@@ -665,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="K2" s="14">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -758,10 +764,10 @@
         <v>2</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="K3" s="14">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="K4" s="14">
         <v>9</v>
@@ -809,11 +815,11 @@
       <c r="H5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="11">
-        <v>99</v>
+      <c r="J5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="14">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -835,11 +841,11 @@
       <c r="H6" s="11">
         <v>2</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="11">
-        <v>66</v>
+      <c r="J6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="14">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -862,10 +868,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="K7" s="11">
-        <v>80.599999999999994</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -888,10 +894,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K8" s="11">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -914,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="11">
-        <v>64.400000000000006</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -940,10 +946,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="11">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -966,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K11" s="11">
-        <v>1</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -992,10 +998,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K12" s="11">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1018,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1044,10 +1050,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1070,10 +1076,10 @@
         <v>80.599999999999994</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="11">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1096,10 +1102,10 @@
         <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="11">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1116,10 +1122,10 @@
         <v>64.400000000000006</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K17" s="11">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1130,10 +1136,10 @@
         <v>60</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K18" s="11">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1144,10 +1150,10 @@
         <v>58</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="11">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1158,10 +1164,10 @@
         <v>59</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K20" s="11">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1172,10 +1178,10 @@
         <v>60</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K21" s="11">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1186,10 +1192,10 @@
         <v>61</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K22" s="11">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1200,10 +1206,10 @@
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K23" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1214,10 +1220,10 @@
         <v>99</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K24" s="11">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1228,10 +1234,10 @@
         <v>99</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K25" s="11">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -1242,19 +1248,27 @@
         <v>66</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="11">
         <v>80</v>
       </c>
-      <c r="K26" s="11">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="11">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J29" s="2"/>
@@ -1271,6 +1285,14 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J32" s="2"/>
       <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J33" s="2"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J34" s="2"/>
+      <c r="K34" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C7B28-CC8F-486C-90EF-881EAA842BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20069DA-9997-4748-AAE6-ED18D6676A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -299,57 +299,12 @@
     <t>output</t>
   </si>
   <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>pabot --pabotlib --processes 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reports </t>
   </si>
   <si>
     <t>basichotGuard.xml</t>
   </si>
   <si>
-    <t>Reports/executionLog.txt 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>|| echo $(date +%F_%H:%M:%S)- BasicHotAbsoluteGuard/staleStatePrevention  execution failed &gt;&gt; Reports/executionLog.txt 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t25</t>
-  </si>
-  <si>
-    <t>t26</t>
-  </si>
-  <si>
-    <t>t27</t>
-  </si>
-  <si>
-    <t>t28</t>
-  </si>
-  <si>
-    <t>t29</t>
-  </si>
-  <si>
-    <t>t30</t>
-  </si>
-  <si>
-    <t>t31</t>
-  </si>
-  <si>
-    <t>t32</t>
-  </si>
-  <si>
-    <t>t33</t>
-  </si>
-  <si>
-    <t>t34</t>
-  </si>
-  <si>
     <t>Guard1</t>
   </si>
   <si>
@@ -368,77 +323,27 @@
     <t>environment</t>
   </si>
   <si>
-    <t xml:space="preserve"> --name "Guard2_RSP-test_$(date +%F_%H:%M:%S)"</t>
-  </si>
-  <si>
     <t>Guard1_RSP-test</t>
   </si>
   <si>
     <t>BasicHotAbsoluteGuard</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF067D17"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF080808"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">--reporttitle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF067D17"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>"BasicHotAbsoluteGuard"</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">  --outputdir Reports </t>
-  </si>
-  <si>
     <t>Reports/cleanReports</t>
   </si>
   <si>
     <t>cleanReports.xml</t>
   </si>
   <si>
-    <t xml:space="preserve"> --output basichotGuard.xml </t>
-  </si>
-  <si>
     <t>groupname</t>
   </si>
   <si>
     <t>config146</t>
   </si>
   <si>
-    <t xml:space="preserve">config37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> --variable environment:config146 </t>
-  </si>
-  <si>
     <t>RSP-test</t>
   </si>
   <si>
-    <t xml:space="preserve">  -v groupname:RSP-test </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -T $gt_path/basicHotAbsoluteGuardTest.robot $tc_path/staleStatePrevention.robot &gt;&gt; Reports/executionLog.txt 2&gt;&amp;1 || echo $(date +%F_%H:%M:%S)- BasicHotAbsoluteGuard/staleStatePrevention  execution failed &gt;&gt; Reports/executionLog.txt 2&gt;&amp;1</t>
-  </si>
-  <si>
     <t>testname</t>
   </si>
   <si>
@@ -448,13 +353,88 @@
     <t>cleanReports.robot</t>
   </si>
   <si>
-    <t>failurelog</t>
-  </si>
-  <si>
-    <t>override</t>
-  </si>
-  <si>
-    <t>executionLog.txt 2&gt;&amp;1</t>
+    <t xml:space="preserve">config146 </t>
+  </si>
+  <si>
+    <t>Guard2</t>
+  </si>
+  <si>
+    <t>Guard2_Imputes-test</t>
+  </si>
+  <si>
+    <t>DeadSensorGuard</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>deadSensorGuard.xml</t>
+  </si>
+  <si>
+    <t>Imputes-test</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 2 --removekeywords passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadSensorGuardTest.robot/staleStatePrevention.robot </t>
+  </si>
+  <si>
+    <t>Guard3</t>
+  </si>
+  <si>
+    <t>Guard4</t>
+  </si>
+  <si>
+    <t>Guard3_General-test</t>
+  </si>
+  <si>
+    <t>Guard4_General-test</t>
+  </si>
+  <si>
+    <t>HotGuard</t>
+  </si>
+  <si>
+    <t>GuardOrderMIX</t>
+  </si>
+  <si>
+    <t>guardOrderMIX.xml</t>
+  </si>
+  <si>
+    <t>hotGuard.xml</t>
+  </si>
+  <si>
+    <t>General-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotGuardTest.robot/staleStatePrevention.robot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">guardOrderMIXTest.robot/staleStatePrevention.robot </t>
+  </si>
+  <si>
+    <t>combinereport</t>
+  </si>
+  <si>
+    <t>GuardTest</t>
+  </si>
+  <si>
+    <t>Test performed on environment 146</t>
+  </si>
+  <si>
+    <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml</t>
+  </si>
+  <si>
+    <t>moveReports</t>
+  </si>
+  <si>
+    <t>rebot  --removekeywords passed</t>
+  </si>
+  <si>
+    <t>moveReports.xml</t>
+  </si>
+  <si>
+    <t>moveReports.robot</t>
   </si>
 </sst>
 </file>
@@ -464,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,18 +461,6 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF0073BF"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF080808"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF067D17"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -550,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -596,9 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -884,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -1498,32 +1463,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="27.453125" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="13.453125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>84</v>
@@ -1532,154 +1496,203 @@
         <v>85</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="66" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="66" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.5">
+      <c r="A3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.5">
+      <c r="A4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.5">
+      <c r="A5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.5">
+      <c r="A6" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="58">
+      <c r="A7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="101.5">
-      <c r="A3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="29">
+      <c r="A8" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="101.5">
-      <c r="A4" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>103</v>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20069DA-9997-4748-AAE6-ED18D6676A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4979E35F-C97D-43A2-879B-CBF299EB3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
-    <sheet name="execution" sheetId="2" r:id="rId2"/>
+    <sheet name="thursdaydaysuite" sheetId="2" r:id="rId2"/>
     <sheet name="sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4979E35F-C97D-43A2-879B-CBF299EB3876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558DA475-9A6F-4552-9CB4-4599A51E79FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1466,7 +1466,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558DA475-9A6F-4552-9CB4-4599A51E79FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13089E1D-6C78-4EB5-925C-7C4111831DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,9 +314,6 @@
     <t>cleanReports</t>
   </si>
   <si>
-    <t>pabot --pabotlib --removekeywords passed</t>
-  </si>
-  <si>
     <t>output dir</t>
   </si>
   <si>
@@ -374,9 +371,6 @@
     <t>Imputes-test</t>
   </si>
   <si>
-    <t>pabot --pabotlib --processes 2 --removekeywords passed</t>
-  </si>
-  <si>
     <t xml:space="preserve">deadSensorGuardTest.robot/staleStatePrevention.robot </t>
   </si>
   <si>
@@ -435,6 +429,12 @@
   </si>
   <si>
     <t>moveReports.robot</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 2</t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1496,19 +1496,19 @@
         <v>85</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
@@ -1516,21 +1516,21 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5">
@@ -1538,13 +1538,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>87</v>
@@ -1553,146 +1553,146 @@
         <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5">
       <c r="A4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29">
+      <c r="A5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29">
+      <c r="A6" s="18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.5">
-      <c r="A5" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.5">
-      <c r="A6" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="58">
       <c r="A7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="29">
+    <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13089E1D-6C78-4EB5-925C-7C4111831DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DCAF8D-097A-43B5-8108-86166FA07B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -320,9 +320,6 @@
     <t>environment</t>
   </si>
   <si>
-    <t>Guard1_RSP-test</t>
-  </si>
-  <si>
     <t>BasicHotAbsoluteGuard</t>
   </si>
   <si>
@@ -335,12 +332,6 @@
     <t>groupname</t>
   </si>
   <si>
-    <t>config146</t>
-  </si>
-  <si>
-    <t>RSP-test</t>
-  </si>
-  <si>
     <t>testname</t>
   </si>
   <si>
@@ -350,9 +341,6 @@
     <t>cleanReports.robot</t>
   </si>
   <si>
-    <t xml:space="preserve">config146 </t>
-  </si>
-  <si>
     <t>Guard2</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
     <t>GuardTest</t>
   </si>
   <si>
-    <t>Test performed on environment 146</t>
-  </si>
-  <si>
     <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml</t>
   </si>
   <si>
@@ -435,6 +420,21 @@
   </si>
   <si>
     <t>pabot --pabotlib --processes 2</t>
+  </si>
+  <si>
+    <t>fan_ctlr_min_value</t>
+  </si>
+  <si>
+    <t>fan_ctrl_max_value</t>
+  </si>
+  <si>
+    <t>Guard1_General-test</t>
+  </si>
+  <si>
+    <t>config118</t>
+  </si>
+  <si>
+    <t>Test performed on environment 118</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -567,6 +567,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,23 +848,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="20" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="20" customWidth="1"/>
     <col min="7" max="7" width="23.1796875" customWidth="1"/>
     <col min="8" max="8" width="9.453125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="20" customWidth="1"/>
     <col min="10" max="10" width="23.1796875" customWidth="1"/>
     <col min="11" max="11" width="35.08984375" style="10" customWidth="1"/>
   </cols>
@@ -914,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="K2" s="14">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29">
@@ -940,10 +941,10 @@
         <v>2</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="K3" s="14">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.5">
@@ -966,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="K4" s="14">
         <v>9</v>
@@ -991,11 +992,11 @@
       <c r="H5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="11">
-        <v>99</v>
+      <c r="J5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="14">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="29">
@@ -1017,11 +1018,11 @@
       <c r="H6" s="11">
         <v>2</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="11">
-        <v>66</v>
+      <c r="J6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="14">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29">
@@ -1044,10 +1045,10 @@
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="K7" s="11">
-        <v>80.599999999999994</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="29">
@@ -1070,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K8" s="11">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="29">
@@ -1096,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" s="11">
-        <v>64.400000000000006</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29">
@@ -1122,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="11">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="29">
@@ -1148,10 +1149,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K11" s="11">
-        <v>1</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29">
@@ -1174,10 +1175,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="K12" s="11">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.65" customHeight="1">
@@ -1200,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13" s="11">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="29">
@@ -1226,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="43.5">
@@ -1252,10 +1253,10 @@
         <v>80.599999999999994</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="11">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="29">
@@ -1278,10 +1279,10 @@
         <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="11">
-        <v>100</v>
+        <v>68</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1298,10 +1299,10 @@
         <v>64.400000000000006</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K17" s="11">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="29">
@@ -1312,10 +1313,10 @@
         <v>60</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K18" s="11">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="29">
@@ -1326,10 +1327,10 @@
         <v>58</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K19" s="11">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="29">
@@ -1340,10 +1341,10 @@
         <v>59</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K20" s="11">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="29">
@@ -1354,10 +1355,10 @@
         <v>60</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K21" s="11">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="29">
@@ -1368,10 +1369,10 @@
         <v>61</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K22" s="11">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="29">
@@ -1382,10 +1383,10 @@
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K23" s="11">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="29">
@@ -1396,10 +1397,10 @@
         <v>99</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K24" s="11">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="29">
@@ -1410,10 +1411,10 @@
         <v>99</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K25" s="11">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="29">
@@ -1424,19 +1425,27 @@
         <v>66</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="J27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="11">
         <v>80</v>
       </c>
-      <c r="K26" s="11">
+    </row>
+    <row r="28" spans="1:11">
+      <c r="J28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="11">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="J27" s="2"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="J28" s="2"/>
-      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11">
       <c r="J29" s="2"/>
@@ -1453,6 +1462,14 @@
     <row r="32" spans="1:11">
       <c r="J32" s="2"/>
       <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="2"/>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="2"/>
+      <c r="K34" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1465,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1505,10 +1522,10 @@
         <v>93</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
@@ -1516,21 +1533,21 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5">
@@ -1538,13 +1555,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>87</v>
@@ -1553,146 +1570,148 @@
         <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5">
       <c r="A4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
       <c r="A5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
       <c r="A6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="58">
       <c r="A7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DCAF8D-097A-43B5-8108-86166FA07B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D6663-C521-480C-8645-33966914EA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
-    <sheet name="thursdaydaysuite" sheetId="2" r:id="rId2"/>
-    <sheet name="sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="tuesdaysuite" sheetId="3" r:id="rId2"/>
+    <sheet name="thursdaydaysuite" sheetId="2" r:id="rId3"/>
+    <sheet name="wednesdaydaysuite" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="140">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -435,6 +436,27 @@
   </si>
   <si>
     <t>Test performed on environment 118</t>
+  </si>
+  <si>
+    <t>Guard1_RSP-test</t>
+  </si>
+  <si>
+    <t>RSP-test</t>
+  </si>
+  <si>
+    <t>Test performed on environment 37</t>
+  </si>
+  <si>
+    <t>config37</t>
+  </si>
+  <si>
+    <t>Test performed across different environment and different group</t>
+  </si>
+  <si>
+    <t>config91</t>
+  </si>
+  <si>
+    <t>Guard1_Imputes-test</t>
   </si>
 </sst>
 </file>
@@ -518,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -530,8 +552,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -857,41 +877,41 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="18" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="18" customWidth="1"/>
     <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="18" customWidth="1"/>
     <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.08984375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="35.08984375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -899,25 +919,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="12">
         <v>50</v>
       </c>
     </row>
@@ -925,25 +945,25 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>2</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <v>100</v>
       </c>
     </row>
@@ -951,25 +971,25 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <v>9</v>
       </c>
     </row>
@@ -977,25 +997,25 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <v>95</v>
       </c>
     </row>
@@ -1003,25 +1023,25 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>2</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="12">
         <v>9</v>
       </c>
     </row>
@@ -1029,25 +1049,25 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>99</v>
       </c>
     </row>
@@ -1055,25 +1075,25 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>66</v>
       </c>
     </row>
@@ -1081,25 +1101,25 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>80.599999999999994</v>
       </c>
     </row>
@@ -1107,25 +1127,25 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>88</v>
       </c>
     </row>
@@ -1133,25 +1153,25 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -1159,25 +1179,25 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>60</v>
       </c>
     </row>
@@ -1185,25 +1205,25 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="9">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1211,25 +1231,25 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1237,25 +1257,25 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="9">
         <v>80.599999999999994</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="9">
         <v>20</v>
       </c>
     </row>
@@ -1263,25 +1283,25 @@
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="9">
         <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1289,19 +1309,19 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <v>64.400000000000006</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <v>70</v>
       </c>
     </row>
@@ -1309,13 +1329,13 @@
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>60</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1323,13 +1343,13 @@
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="9">
         <v>90</v>
       </c>
     </row>
@@ -1337,13 +1357,13 @@
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="9" t="s">
         <v>59</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="9">
         <v>80</v>
       </c>
     </row>
@@ -1351,13 +1371,13 @@
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="9" t="s">
         <v>60</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="9">
         <v>66</v>
       </c>
     </row>
@@ -1365,13 +1385,13 @@
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="9" t="s">
         <v>61</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="9">
         <v>60</v>
       </c>
     </row>
@@ -1379,13 +1399,13 @@
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="9">
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="9">
         <v>50</v>
       </c>
     </row>
@@ -1393,13 +1413,13 @@
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <v>99</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="9">
         <v>75</v>
       </c>
     </row>
@@ -1407,13 +1427,13 @@
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="9">
         <v>99</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="9">
         <v>100</v>
       </c>
     </row>
@@ -1421,13 +1441,13 @@
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="9">
         <v>66</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="9">
         <v>50</v>
       </c>
     </row>
@@ -1435,7 +1455,7 @@
       <c r="J27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="9">
         <v>80</v>
       </c>
     </row>
@@ -1443,33 +1463,33 @@
       <c r="J28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="9">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="J29" s="2"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11">
       <c r="J30" s="2"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11">
       <c r="J31" s="2"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11">
       <c r="J32" s="2"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="2"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="2"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1479,11 +1499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1503,33 +1523,33 @@
       <c r="A1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1544,21 +1564,21 @@
         <v>96</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>94</v>
@@ -1570,6 +1590,246 @@
         <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.5">
+      <c r="A4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29">
+      <c r="A5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29">
+      <c r="A6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="58">
+      <c r="A7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="66" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.5">
+      <c r="A3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1580,7 +1840,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1601,7 +1861,7 @@
       <c r="G4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1609,7 +1869,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1638,7 +1898,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1667,7 +1927,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="58">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1685,14 +1945,12 @@
       <c r="F7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>131</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="3"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1721,127 +1979,241 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
-  <dimension ref="A1:E17"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="66" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.5">
+      <c r="A3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.5">
+      <c r="A4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29">
+      <c r="A5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29">
+      <c r="A6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="58">
+      <c r="A7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D6663-C521-480C-8645-33966914EA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511AFF88-854D-4A5A-BCA3-ACEA4B3C433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
     <sheet name="tuesdaysuite" sheetId="3" r:id="rId2"/>
-    <sheet name="thursdaydaysuite" sheetId="2" r:id="rId3"/>
-    <sheet name="wednesdaydaysuite" sheetId="4" r:id="rId4"/>
+    <sheet name="thursdaysuite" sheetId="2" r:id="rId3"/>
+    <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grees\PycharmProjects\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511AFF88-854D-4A5A-BCA3-ACEA4B3C433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776CC83D-0D24-4124-B923-1FAFFAEC9F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
-    <sheet name="tuesdaysuite" sheetId="3" r:id="rId2"/>
-    <sheet name="thursdaysuite" sheetId="2" r:id="rId3"/>
-    <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
+    <sheet name="overrideTest" sheetId="5" r:id="rId2"/>
+    <sheet name="tuesdaysuite" sheetId="3" r:id="rId3"/>
+    <sheet name="thursdaysuite" sheetId="2" r:id="rId4"/>
+    <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="141">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -457,6 +458,9 @@
   </si>
   <si>
     <t>Guard1_Imputes-test</t>
+  </si>
+  <si>
+    <t>override1TestInputs</t>
   </si>
 </sst>
 </file>
@@ -870,23 +874,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.08984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -915,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -941,7 +945,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29">
+    <row r="3" spans="1:11" ht="28.8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -967,7 +971,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -993,7 +997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29">
+    <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29">
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29">
+    <row r="8" spans="1:11" ht="28.8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29">
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29">
+    <row r="10" spans="1:11" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29">
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.65" customHeight="1">
+    <row r="13" spans="1:11" ht="57.6" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29">
+    <row r="14" spans="1:11" ht="28.8">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.5">
+    <row r="15" spans="1:11" ht="43.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29">
+    <row r="16" spans="1:11" ht="28.8">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1353,7 +1357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="29">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1409,7 +1413,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="29">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1499,6 +1503,162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C88F7E-2268-4283-BF0C-9D3EB4F0A358}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.8">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.8">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1506,16 +1666,16 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1570,7 +1730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
@@ -1599,7 +1759,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5">
+    <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
@@ -1628,7 +1788,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="16" t="s">
         <v>108</v>
       </c>
@@ -1657,7 +1817,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="16" t="s">
         <v>109</v>
       </c>
@@ -1686,7 +1846,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
+    <row r="7" spans="1:9" ht="57.6">
       <c r="A7" s="16" t="s">
         <v>119</v>
       </c>
@@ -1738,7 +1898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1746,16 +1906,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1810,7 +1970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
@@ -1839,7 +1999,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5">
+    <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
@@ -1868,7 +2028,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="16" t="s">
         <v>108</v>
       </c>
@@ -1897,7 +2057,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="16" t="s">
         <v>109</v>
       </c>
@@ -1926,7 +2086,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
+    <row r="7" spans="1:9" ht="57.6">
       <c r="A7" s="16" t="s">
         <v>119</v>
       </c>
@@ -1979,24 +2139,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2051,7 +2211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
@@ -2080,7 +2240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5">
+    <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
@@ -2109,7 +2269,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="16" t="s">
         <v>108</v>
       </c>
@@ -2138,7 +2298,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="16" t="s">
         <v>109</v>
       </c>
@@ -2167,7 +2327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
+    <row r="7" spans="1:9" ht="57.6">
       <c r="A7" s="16" t="s">
         <v>119</v>
       </c>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511AFF88-854D-4A5A-BCA3-ACEA4B3C433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ABF9B-AD33-4565-803C-DB55487F9DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
     <sheet name="tuesdaysuite" sheetId="3" r:id="rId2"/>
     <sheet name="thursdaysuite" sheetId="2" r:id="rId3"/>
     <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
+    <sheet name="lists" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="config37">lists!#REF!</definedName>
+    <definedName name="env">lists!#REF!</definedName>
+    <definedName name="environmane">lists!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="142">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -457,6 +461,12 @@
   </si>
   <si>
     <t>Guard1_Imputes-test</t>
+  </si>
+  <si>
+    <t>config64</t>
+  </si>
+  <si>
+    <t>config146</t>
   </si>
 </sst>
 </file>
@@ -487,7 +497,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +519,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,18 +598,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -878,13 +929,13 @@
   <cols>
     <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="15" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="15" customWidth="1"/>
     <col min="7" max="7" width="23.1796875" customWidth="1"/>
     <col min="8" max="8" width="9.453125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="15" customWidth="1"/>
     <col min="10" max="10" width="23.1796875" customWidth="1"/>
     <col min="11" max="11" width="35.08984375" style="8" customWidth="1"/>
   </cols>
@@ -1502,239 +1553,260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="24" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="22" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="58">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{14A7592A-28A5-4DA8-BBFA-A088B6DA0243}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G8 G2:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{67438C2C-B12B-431F-81E3-DC6C78F3EFCA}">
+          <x14:formula1>
+            <xm:f>lists!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1742,240 +1814,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="24" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="22" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="58">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G8 G2:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
+          <x14:formula1>
+            <xm:f>lists!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1983,237 +2076,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="24" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
+      <c r="B1" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="66" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.5">
+      <c r="A3" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.5">
+      <c r="A4" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29">
+      <c r="A5" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29">
+      <c r="A6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="58">
+      <c r="A7" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
+          <x14:formula1>
+            <xm:f>lists!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G6 G8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="B1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="66" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.5">
-      <c r="A4" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="58">
-      <c r="A7" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753ABF9B-AD33-4565-803C-DB55487F9DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42ABDB2-335F-48AD-A38E-4226405AE6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="tuesdaysuite" sheetId="3" r:id="rId2"/>
     <sheet name="thursdaysuite" sheetId="2" r:id="rId3"/>
     <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
-    <sheet name="lists" sheetId="6" r:id="rId5"/>
+    <sheet name="commandinputdata" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="config37">lists!#REF!</definedName>
-    <definedName name="env">lists!#REF!</definedName>
-    <definedName name="environmane">lists!#REF!</definedName>
+    <definedName name="config37">commandinputdata!#REF!</definedName>
+    <definedName name="env">commandinputdata!#REF!</definedName>
+    <definedName name="environmane">commandinputdata!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="142">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -530,7 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -621,24 +621,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1554,7 +1551,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1604,22 +1601,22 @@
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="23" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1627,28 +1624,28 @@
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1656,28 +1653,28 @@
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="23" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1685,28 +1682,28 @@
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="23" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1714,28 +1711,28 @@
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="23" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1743,45 +1740,45 @@
       <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1791,18 +1788,24 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{14A7592A-28A5-4DA8-BBFA-A088B6DA0243}">
           <x14:formula1>
-            <xm:f>lists!$A$2:$A$6</xm:f>
+            <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>G8 G2:G6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{67438C2C-B12B-431F-81E3-DC6C78F3EFCA}">
           <x14:formula1>
-            <xm:f>lists!$B$2:$B$4</xm:f>
+            <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{194D7DBB-6A47-4A01-B0E1-8E05DB433025}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1814,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1836,7 +1839,7 @@
       <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -1862,187 +1865,187 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="58">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2053,18 +2056,24 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
           <x14:formula1>
-            <xm:f>lists!$A$2:$A$6</xm:f>
+            <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>G8 G2:G6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
-            <xm:f>lists!$B$2:$B$4</xm:f>
+            <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{E2DA3C6A-EFA3-42EE-B40E-65186E01436B}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2077,7 +2086,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2098,7 +2107,7 @@
       <c r="A1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -2124,187 +2133,187 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="23" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="23" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="58">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2313,18 +2322,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
           <x14:formula1>
-            <xm:f>lists!$B$2:$B$4</xm:f>
+            <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
           <x14:formula1>
-            <xm:f>lists!$A$2:$A$6</xm:f>
+            <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G6 G8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0FE8A086-DD56-4244-814A-05D86BAEBBF3}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2334,62 +2349,91 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="3"/>
+      <c r="C6" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="23" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42ABDB2-335F-48AD-A38E-4226405AE6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C250763-E5DB-4AD4-90E2-40B0CCEB37D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="152">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -467,6 +467,36 @@
   </si>
   <si>
     <t>config146</t>
+  </si>
+  <si>
+    <t>guard1_name</t>
+  </si>
+  <si>
+    <t>Guard2_General-test</t>
+  </si>
+  <si>
+    <t>Guard2_RSP-test</t>
+  </si>
+  <si>
+    <t>Guard3_Imputes-test</t>
+  </si>
+  <si>
+    <t>Guard3_RSP-test</t>
+  </si>
+  <si>
+    <t>guard4_name</t>
+  </si>
+  <si>
+    <t>guard2_name</t>
+  </si>
+  <si>
+    <t>guard3_name</t>
+  </si>
+  <si>
+    <t>Guard4_Imputes-test</t>
+  </si>
+  <si>
+    <t>Guard4_RSP-test</t>
   </si>
 </sst>
 </file>
@@ -497,7 +527,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,13 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -570,7 +594,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -605,13 +628,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -619,22 +635,16 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,41 +935,41 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
     <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
     <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
     <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.08984375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -967,25 +977,25 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>50</v>
       </c>
     </row>
@@ -993,25 +1003,25 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>100</v>
       </c>
     </row>
@@ -1019,25 +1029,25 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="11">
         <v>9</v>
       </c>
     </row>
@@ -1045,25 +1055,25 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <v>95</v>
       </c>
     </row>
@@ -1071,25 +1081,25 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>2</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>9</v>
       </c>
     </row>
@@ -1097,25 +1107,25 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>99</v>
       </c>
     </row>
@@ -1123,25 +1133,25 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>66</v>
       </c>
     </row>
@@ -1149,25 +1159,25 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>80.599999999999994</v>
       </c>
     </row>
@@ -1175,25 +1185,25 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>88</v>
       </c>
     </row>
@@ -1201,25 +1211,25 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -1227,25 +1237,25 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>4</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1253,25 +1263,25 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1279,25 +1289,25 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1305,25 +1315,25 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>80.599999999999994</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>20</v>
       </c>
     </row>
@@ -1331,25 +1341,25 @@
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>88</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1357,19 +1367,19 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>64.400000000000006</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>70</v>
       </c>
     </row>
@@ -1377,13 +1387,13 @@
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>60</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1391,13 +1401,13 @@
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>58</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>90</v>
       </c>
     </row>
@@ -1405,13 +1415,13 @@
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>80</v>
       </c>
     </row>
@@ -1419,13 +1429,13 @@
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>60</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>66</v>
       </c>
     </row>
@@ -1433,13 +1443,13 @@
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>61</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>60</v>
       </c>
     </row>
@@ -1447,13 +1457,13 @@
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>9</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>50</v>
       </c>
     </row>
@@ -1461,13 +1471,13 @@
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>99</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>75</v>
       </c>
     </row>
@@ -1475,13 +1485,13 @@
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>99</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1489,13 +1499,13 @@
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>66</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>50</v>
       </c>
     </row>
@@ -1503,7 +1513,7 @@
       <c r="J27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <v>80</v>
       </c>
     </row>
@@ -1511,33 +1521,33 @@
       <c r="J28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="J29" s="2"/>
-      <c r="K29" s="9"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11">
       <c r="J30" s="2"/>
-      <c r="K30" s="9"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11">
       <c r="J31" s="2"/>
-      <c r="K31" s="9"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11">
       <c r="J32" s="2"/>
-      <c r="K32" s="9"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="2"/>
-      <c r="K33" s="9"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="2"/>
-      <c r="K34" s="9"/>
+      <c r="K34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1550,73 +1560,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14" style="19" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="24" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="66" customHeight="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1624,57 +1634,57 @@
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5">
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1682,28 +1692,28 @@
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1711,28 +1721,28 @@
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="18" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1740,45 +1750,45 @@
       <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="18" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1788,7 +1798,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{14A7592A-28A5-4DA8-BBFA-A088B6DA0243}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
@@ -1803,9 +1813,27 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{194D7DBB-6A47-4A01-B0E1-8E05DB433025}">
           <x14:formula1>
-            <xm:f>commandinputdata!$C$2:$C$8</xm:f>
+            <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C7</xm:sqref>
+          <xm:sqref>C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{BD753466-73BF-4451-82EE-890AE8D0C768}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2C238A52-CC3E-4BBB-845F-6B2DC73095B5}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2BA85576-68CF-4034-A366-995061D9B116}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1817,131 +1845,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14" style="19" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="24" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.54296875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="66" customHeight="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="29">
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5">
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1949,28 +1977,28 @@
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1978,28 +2006,28 @@
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="18" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2007,45 +2035,45 @@
       <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="18" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2056,7 +2084,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
@@ -2069,11 +2097,29 @@
           </x14:formula1>
           <xm:sqref>H3:H6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{E2DA3C6A-EFA3-42EE-B40E-65186E01436B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
           <x14:formula1>
-            <xm:f>commandinputdata!$C$2:$C$8</xm:f>
+            <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C7</xm:sqref>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{99006B66-5319-4228-9A35-20FD2B871684}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{9DE73CB4-AA26-4992-B3DB-24991CC26994}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{52B3BB8D-3345-4BB6-9F42-4D8F793B1B5F}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$F$2:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2085,131 +2131,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14" style="19" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="24" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7265625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="66" customHeight="1">
+    <row r="2" spans="1:9">
       <c r="A2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="29">
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5">
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2217,28 +2263,28 @@
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2246,28 +2292,28 @@
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="18" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2275,45 +2321,45 @@
       <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="18" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2322,7 +2368,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
@@ -2335,11 +2381,29 @@
           </x14:formula1>
           <xm:sqref>G2:G6 G8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0FE8A086-DD56-4244-814A-05D86BAEBBF3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
-            <xm:f>commandinputdata!$C$2:$C$8</xm:f>
+            <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C7</xm:sqref>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{D257DA1F-4547-4F03-B5ED-86D07266A34D}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{59FBF960-3AF9-463F-BCCC-BA4A02F826D1}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{691E72CF-6304-4912-856A-BD3B2655C4F5}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$F$2:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2349,90 +2413,108 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="18" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="23" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C250763-E5DB-4AD4-90E2-40B0CCEB37D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D71ED5-5895-4AAF-9970-EE3A8E1D0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -1560,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1623,7 +1623,7 @@
         <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
@@ -1650,7 +1650,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>106</v>
@@ -1679,7 +1679,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -1708,7 +1708,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>116</v>
@@ -1737,7 +1737,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>116</v>
@@ -1785,7 +1785,7 @@
         <v>124</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="18" t="s">
@@ -2131,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ideavat\AutomatedQA\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511AFF88-854D-4A5A-BCA3-ACEA4B3C433F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F44175-3D7C-4327-9B0F-827E0E90D590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
-    <sheet name="tuesdaysuite" sheetId="3" r:id="rId2"/>
-    <sheet name="thursdaysuite" sheetId="2" r:id="rId3"/>
-    <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
+    <sheet name="overrideTest" sheetId="5" r:id="rId2"/>
+    <sheet name="tuesdaysuite" sheetId="3" r:id="rId3"/>
+    <sheet name="thursdaysuite" sheetId="2" r:id="rId4"/>
+    <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="159">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -457,6 +458,63 @@
   </si>
   <si>
     <t>Guard1_Imputes-test</t>
+  </si>
+  <si>
+    <t>override1TestInputs</t>
+  </si>
+  <si>
+    <t>rat_tempF</t>
+  </si>
+  <si>
+    <t>dat_tempF</t>
+  </si>
+  <si>
+    <t>SFCMinValue</t>
+  </si>
+  <si>
+    <t>SFCMaxValue</t>
+  </si>
+  <si>
+    <t>ahu_1</t>
+  </si>
+  <si>
+    <t>ahu_1_sfc_value</t>
+  </si>
+  <si>
+    <t>ahu_1_bop_value</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>on_value</t>
+  </si>
+  <si>
+    <t>off_value</t>
+  </si>
+  <si>
+    <t>ahu_2</t>
+  </si>
+  <si>
+    <t>ahu_2_sfc_value</t>
+  </si>
+  <si>
+    <t>ahu_2_bop_value</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>ahu_3</t>
+  </si>
+  <si>
+    <t>ahu_3_sfc_value</t>
+  </si>
+  <si>
+    <t>ahu_3_bop_value</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -870,23 +928,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.08984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -915,7 +973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -941,7 +999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29">
+    <row r="3" spans="1:11" ht="28.8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -967,7 +1025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -993,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29">
+    <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1077,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29">
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1129,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29">
+    <row r="8" spans="1:11" ht="28.8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29">
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1181,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29">
+    <row r="10" spans="1:11" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1149,7 +1207,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29">
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1175,7 +1233,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1201,7 +1259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.65" customHeight="1">
+    <row r="13" spans="1:11" ht="57.6" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1227,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29">
+    <row r="14" spans="1:11" ht="28.8">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.5">
+    <row r="15" spans="1:11" ht="43.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1279,7 +1337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29">
+    <row r="16" spans="1:11" ht="28.8">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1339,7 +1397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1353,7 +1411,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1367,7 +1425,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +1439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="29">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1395,7 +1453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1409,7 +1467,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="29">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1423,7 +1481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1437,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1499,6 +1557,226 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9C1353-FB73-41B5-AEDD-B29B4F2BB773}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8">
+      <c r="A6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1506,16 +1784,16 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1570,7 +1848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
@@ -1599,7 +1877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5">
+    <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
@@ -1628,7 +1906,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="16" t="s">
         <v>108</v>
       </c>
@@ -1657,7 +1935,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="16" t="s">
         <v>109</v>
       </c>
@@ -1686,7 +1964,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
+    <row r="7" spans="1:9" ht="57.6">
       <c r="A7" s="16" t="s">
         <v>119</v>
       </c>
@@ -1738,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1746,16 +2024,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1810,7 +2088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
@@ -1839,7 +2117,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5">
+    <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
@@ -1868,7 +2146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="16" t="s">
         <v>108</v>
       </c>
@@ -1897,7 +2175,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="16" t="s">
         <v>109</v>
       </c>
@@ -1926,7 +2204,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
+    <row r="7" spans="1:9" ht="57.6">
       <c r="A7" s="16" t="s">
         <v>119</v>
       </c>
@@ -1979,24 +2257,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2051,7 +2329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
@@ -2080,7 +2358,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.5">
+    <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="16" t="s">
         <v>101</v>
       </c>
@@ -2109,7 +2387,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="16" t="s">
         <v>108</v>
       </c>
@@ -2138,7 +2416,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="16" t="s">
         <v>109</v>
       </c>
@@ -2167,7 +2445,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
+    <row r="7" spans="1:9" ht="57.6">
       <c r="A7" s="16" t="s">
         <v>119</v>
       </c>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D71ED5-5895-4AAF-9970-EE3A8E1D0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38110BB3-EA81-4627-8CC6-159602F6DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
-    <sheet name="tuesdaysuite" sheetId="3" r:id="rId2"/>
-    <sheet name="thursdaysuite" sheetId="2" r:id="rId3"/>
-    <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
-    <sheet name="commandinputdata" sheetId="6" r:id="rId5"/>
+    <sheet name="overrideTest" sheetId="7" r:id="rId2"/>
+    <sheet name="tuesdaysuite" sheetId="3" r:id="rId3"/>
+    <sheet name="thursdaysuite" sheetId="2" r:id="rId4"/>
+    <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
+    <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="171">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -497,6 +498,63 @@
   </si>
   <si>
     <t>Guard4_RSP-test</t>
+  </si>
+  <si>
+    <t>override1TestInputs</t>
+  </si>
+  <si>
+    <t>rat_tempF</t>
+  </si>
+  <si>
+    <t>dat_tempF</t>
+  </si>
+  <si>
+    <t>SFCMinValue</t>
+  </si>
+  <si>
+    <t>SFCMaxValue</t>
+  </si>
+  <si>
+    <t>ahu_1</t>
+  </si>
+  <si>
+    <t>ahu_1_sfc_value</t>
+  </si>
+  <si>
+    <t>ahu_1_bop_value</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>on_value</t>
+  </si>
+  <si>
+    <t>off_value</t>
+  </si>
+  <si>
+    <t>ahu_2</t>
+  </si>
+  <si>
+    <t>ahu_2_sfc_value</t>
+  </si>
+  <si>
+    <t>ahu_2_bop_value</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>ahu_3</t>
+  </si>
+  <si>
+    <t>ahu_3_sfc_value</t>
+  </si>
+  <si>
+    <t>ahu_3_bop_value</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -586,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -646,6 +704,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,22 +988,22 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -973,7 +1032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -999,7 +1058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29">
+    <row r="3" spans="1:11" ht="28.8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29">
+    <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29">
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1188,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29">
+    <row r="8" spans="1:11" ht="28.8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1155,7 +1214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29">
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1240,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29">
+    <row r="10" spans="1:11" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +1266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29">
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1292,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.65" customHeight="1">
+    <row r="13" spans="1:11" ht="57.6" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29">
+    <row r="14" spans="1:11" ht="28.8">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.5">
+    <row r="15" spans="1:11" ht="43.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29">
+    <row r="16" spans="1:11" ht="28.8">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1397,7 +1456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1411,7 +1470,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1425,7 +1484,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1439,7 +1498,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="29">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1453,7 +1512,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1467,7 +1526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="29">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1481,7 +1540,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1495,7 +1554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1557,25 +1616,253 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D5FF25-CB93-4FF5-B7D2-AA3922F37E97}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="15.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1630,7 +1917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="43.2">
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
@@ -1659,7 +1946,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29">
+    <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
@@ -1688,7 +1975,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
@@ -1717,7 +2004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
@@ -1746,7 +2033,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
+    <row r="7" spans="1:9" ht="57.6">
       <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
@@ -1841,7 +2128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1849,18 +2136,18 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.54296875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="15.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1915,7 +2202,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
@@ -1944,7 +2231,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29">
+    <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
@@ -1973,7 +2260,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
@@ -2002,7 +2289,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
@@ -2031,7 +2318,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
+    <row r="7" spans="1:9" ht="57.6">
       <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
@@ -2127,7 +2414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -2135,18 +2422,18 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="15.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2201,7 +2488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:9" ht="28.8">
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
@@ -2230,7 +2517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29">
+    <row r="4" spans="1:9" ht="28.8">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
@@ -2259,7 +2546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
@@ -2288,7 +2575,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:9" ht="28.8">
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
@@ -2317,7 +2604,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
+    <row r="7" spans="1:9" ht="57.6">
       <c r="A7" s="21" t="s">
         <v>119</v>
       </c>
@@ -2411,7 +2698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2420,11 +2707,11 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38110BB3-EA81-4627-8CC6-159602F6DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA3B97-93D3-43B7-8BCC-FC0BBB003C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -404,9 +404,6 @@
     <t>combinereport</t>
   </si>
   <si>
-    <t>GuardTest</t>
-  </si>
-  <si>
     <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml</t>
   </si>
   <si>
@@ -555,6 +552,33 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>Override1</t>
+  </si>
+  <si>
+    <t>Override1_name</t>
+  </si>
+  <si>
+    <t>Override1_General-test</t>
+  </si>
+  <si>
+    <t>Overide1_Imputes-test</t>
+  </si>
+  <si>
+    <t>Overide1_RSP-test</t>
+  </si>
+  <si>
+    <t>override1.xml</t>
+  </si>
+  <si>
+    <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml/override1.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">override1.robot/staleStatePrevention.robot </t>
+  </si>
+  <si>
+    <t>Guard_Override_Test</t>
   </si>
 </sst>
 </file>
@@ -617,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -640,11 +664,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -705,6 +740,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,23 +1023,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1032,7 +1068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8">
+    <row r="2" spans="1:11" ht="29">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1052,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K2" s="11">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8">
+    <row r="3" spans="1:11" ht="29">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1078,13 +1114,13 @@
         <v>2</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K3" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
+    <row r="4" spans="1:11" ht="43.5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8">
+    <row r="5" spans="1:11" ht="29">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1172,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8">
+    <row r="6" spans="1:11" ht="29">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8">
+    <row r="7" spans="1:11" ht="29">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1188,7 +1224,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8">
+    <row r="8" spans="1:11" ht="29">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8">
+    <row r="9" spans="1:11" ht="29">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1276,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8">
+    <row r="10" spans="1:11" ht="29">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1302,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8">
+    <row r="11" spans="1:11" ht="29">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1328,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8">
+    <row r="12" spans="1:11" ht="29">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.6" customHeight="1">
+    <row r="13" spans="1:11" ht="57.65" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8">
+    <row r="14" spans="1:11" ht="29">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.2">
+    <row r="15" spans="1:11" ht="43.5">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1396,7 +1432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8">
+    <row r="16" spans="1:11" ht="29">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1442,7 +1478,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:11" ht="29">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1456,7 +1492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8">
+    <row r="19" spans="1:11" ht="29">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1470,7 +1506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8">
+    <row r="20" spans="1:11" ht="29">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1484,7 +1520,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8">
+    <row r="21" spans="1:11" ht="29">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1498,7 +1534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8">
+    <row r="22" spans="1:11" ht="29">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1512,7 +1548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8">
+    <row r="23" spans="1:11" ht="29">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1526,7 +1562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8">
+    <row r="24" spans="1:11" ht="29">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1540,7 +1576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8">
+    <row r="25" spans="1:11" ht="29">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1554,7 +1590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8">
+    <row r="26" spans="1:11" ht="29">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1619,20 +1655,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D5FF25-CB93-4FF5-B7D2-AA3922F37E97}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -1656,7 +1692,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4">
         <v>50</v>
@@ -1664,7 +1700,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
@@ -1720,7 +1756,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="4">
         <v>68</v>
@@ -1728,7 +1764,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4">
         <v>53</v>
@@ -1736,7 +1772,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="4">
         <v>72</v>
@@ -1744,7 +1780,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="4">
         <v>88</v>
@@ -1752,7 +1788,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>69</v>
@@ -1760,7 +1796,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="4">
         <v>77</v>
@@ -1768,15 +1804,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1784,7 +1820,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1792,7 +1828,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
@@ -1800,7 +1836,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="4">
         <v>79</v>
@@ -1808,15 +1844,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>74</v>
@@ -1824,7 +1860,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="4">
         <v>81</v>
@@ -1832,10 +1868,10 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1845,24 +1881,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.77734375" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="16"/>
+    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1899,7 +1935,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1910,22 +1946,22 @@
         <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2">
+    <row r="3" spans="1:9" ht="43.5">
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>94</v>
@@ -1937,7 +1973,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>106</v>
@@ -1946,12 +1982,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8">
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>102</v>
@@ -1966,7 +2002,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -1975,12 +2011,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>110</v>
@@ -1995,7 +2031,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>116</v>
@@ -2004,12 +2040,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8">
+    <row r="6" spans="1:9" ht="29">
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>111</v>
@@ -2024,7 +2060,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>116</v>
@@ -2033,70 +2069,100 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57.6">
+    <row r="7" spans="1:9" ht="29">
       <c r="A7" s="21" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72.5">
+      <c r="A8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="B9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{14A7592A-28A5-4DA8-BBFA-A088B6DA0243}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G8 G2:G6</xm:sqref>
+          <xm:sqref>G9 G2:G7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{67438C2C-B12B-431F-81E3-DC6C78F3EFCA}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H6</xm:sqref>
+          <xm:sqref>H3:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{194D7DBB-6A47-4A01-B0E1-8E05DB433025}">
           <x14:formula1>
@@ -2122,6 +2188,12 @@
           </x14:formula1>
           <xm:sqref>C5</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{060A6CE4-8C5C-49B6-A2E8-601D6BB05769}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2130,24 +2202,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5546875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="16"/>
+    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.54296875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2184,7 +2256,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2195,22 +2267,22 @@
         <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8">
+    <row r="3" spans="1:9" ht="29">
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>94</v>
@@ -2222,7 +2294,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>116</v>
@@ -2231,12 +2303,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8">
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>102</v>
@@ -2251,7 +2323,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -2260,12 +2332,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>110</v>
@@ -2280,7 +2352,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>116</v>
@@ -2289,12 +2361,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8">
+    <row r="6" spans="1:9" ht="29">
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>111</v>
@@ -2309,7 +2381,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>116</v>
@@ -2318,50 +2390,79 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57.6">
+    <row r="7" spans="1:9" ht="29">
       <c r="A7" s="21" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="58">
+      <c r="A8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="B9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2371,18 +2472,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G8 G2:G6</xm:sqref>
+          <xm:sqref>G9 G2:G7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H6</xm:sqref>
+          <xm:sqref>H3:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
           <x14:formula1>
@@ -2408,6 +2509,12 @@
           </x14:formula1>
           <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{CE23025F-FF9C-4521-9EEB-D8CCE3E79E93}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2416,24 +2523,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="16"/>
+    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.81640625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2470,7 +2577,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2481,22 +2588,22 @@
         <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8">
+    <row r="3" spans="1:9" ht="29">
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>94</v>
@@ -2508,21 +2615,21 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8">
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>102</v>
@@ -2537,7 +2644,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -2546,12 +2653,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>110</v>
@@ -2566,7 +2673,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>116</v>
@@ -2575,12 +2682,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8">
+    <row r="6" spans="1:9" ht="29">
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>111</v>
@@ -2595,7 +2702,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>116</v>
@@ -2604,50 +2711,79 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="57.6">
+    <row r="7" spans="1:9" ht="29">
       <c r="A7" s="21" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="58">
+      <c r="A8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="B9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F9" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2655,18 +2791,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H6</xm:sqref>
+          <xm:sqref>H3:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G6 G8</xm:sqref>
+          <xm:sqref>G2:G7 G9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
@@ -2692,6 +2828,12 @@
           </x14:formula1>
           <xm:sqref>C6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{438E4B38-BE5A-437C-9824-EF1D4461DD68}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2700,21 +2842,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -2722,30 +2866,33 @@
         <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>149</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>146</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>110</v>
@@ -2753,55 +2900,64 @@
       <c r="F2" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA3B97-93D3-43B7-8BCC-FC0BBB003C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1554B6-9462-4825-AF7B-E33DBED61413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="178">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>combinereport</t>
-  </si>
-  <si>
-    <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml</t>
   </si>
   <si>
     <t>moveReports</t>
@@ -1088,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K2" s="11">
         <v>50</v>
@@ -1114,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K3" s="11">
         <v>100</v>
@@ -1668,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -1692,7 +1689,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4">
         <v>50</v>
@@ -1700,7 +1697,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
@@ -1756,7 +1753,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="4">
         <v>68</v>
@@ -1764,7 +1761,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="4">
         <v>53</v>
@@ -1772,7 +1769,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="4">
         <v>72</v>
@@ -1780,7 +1777,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="4">
         <v>88</v>
@@ -1788,7 +1785,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>69</v>
@@ -1796,7 +1793,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="4">
         <v>77</v>
@@ -1804,15 +1801,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1820,7 +1817,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1828,7 +1825,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
@@ -1836,7 +1833,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="4">
         <v>79</v>
@@ -1844,15 +1841,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>74</v>
@@ -1860,7 +1857,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="4">
         <v>81</v>
@@ -1868,10 +1865,10 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1881,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1935,7 +1932,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -1946,7 +1943,7 @@
         <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
@@ -1958,10 +1955,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>94</v>
@@ -1973,7 +1970,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>106</v>
@@ -1987,7 +1984,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>102</v>
@@ -2002,7 +1999,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -2016,7 +2013,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>110</v>
@@ -2031,7 +2028,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>116</v>
@@ -2045,7 +2042,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>111</v>
@@ -2060,7 +2057,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>116</v>
@@ -2071,31 +2068,31 @@
     </row>
     <row r="7" spans="1:9" ht="29">
       <c r="A7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>116</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72.5">
@@ -2103,19 +2100,19 @@
         <v>119</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2123,10 +2120,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -2134,14 +2131,14 @@
         <v>95</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2202,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2256,7 +2253,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2267,7 +2264,7 @@
         <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
@@ -2279,10 +2276,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>94</v>
@@ -2294,7 +2291,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>116</v>
@@ -2308,7 +2305,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>102</v>
@@ -2323,7 +2320,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -2337,7 +2334,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>110</v>
@@ -2352,7 +2349,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>116</v>
@@ -2366,7 +2363,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>111</v>
@@ -2381,7 +2378,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>116</v>
@@ -2392,51 +2389,51 @@
     </row>
     <row r="7" spans="1:9" ht="29">
       <c r="A7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>116</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="58">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72.5">
       <c r="A8" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2444,10 +2441,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -2455,14 +2452,14 @@
         <v>95</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2525,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2577,7 +2574,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2588,7 +2585,7 @@
         <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
@@ -2600,10 +2597,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>94</v>
@@ -2615,10 +2612,10 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>99</v>
@@ -2629,7 +2626,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>102</v>
@@ -2644,7 +2641,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -2658,7 +2655,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>110</v>
@@ -2673,7 +2670,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>116</v>
@@ -2687,7 +2684,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>111</v>
@@ -2702,7 +2699,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>116</v>
@@ -2713,51 +2710,51 @@
     </row>
     <row r="7" spans="1:9" ht="29">
       <c r="A7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>116</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="58">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="72.5">
       <c r="A8" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2765,10 +2762,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -2776,14 +2773,14 @@
         <v>95</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2846,7 +2843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2866,33 +2863,33 @@
         <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>110</v>
@@ -2901,63 +2898,63 @@
         <v>111</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1554B6-9462-4825-AF7B-E33DBED61413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C9E03-F246-4F78-83E3-109FA539DF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -443,9 +443,6 @@
     <t>RSP-test</t>
   </si>
   <si>
-    <t>Test performed on environment 37</t>
-  </si>
-  <si>
     <t>config37</t>
   </si>
   <si>
@@ -576,6 +573,9 @@
   </si>
   <si>
     <t>Guard_Override_Test</t>
+  </si>
+  <si>
+    <t>Test performed on environment 146</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="4">
         <v>68</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="4">
         <v>53</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="4">
         <v>72</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="4">
         <v>88</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>69</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" s="4">
         <v>77</v>
@@ -1801,15 +1801,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="4">
         <v>79</v>
@@ -1841,15 +1841,15 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>74</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="4">
         <v>81</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1943,7 +1943,7 @@
         <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
@@ -1958,7 +1958,7 @@
         <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>94</v>
@@ -1970,7 +1970,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>106</v>
@@ -1999,7 +1999,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -2028,7 +2028,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>116</v>
@@ -2057,7 +2057,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>116</v>
@@ -2068,31 +2068,31 @@
     </row>
     <row r="7" spans="1:9" ht="29">
       <c r="A7" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>116</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72.5">
@@ -2103,16 +2103,16 @@
         <v>121</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2134,7 +2134,7 @@
         <v>122</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="18" t="s">
@@ -2389,22 +2389,22 @@
     </row>
     <row r="7" spans="1:9" ht="29">
       <c r="A7" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>129</v>
@@ -2413,7 +2413,7 @@
         <v>116</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72.5">
@@ -2424,7 +2424,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>130</v>
@@ -2433,7 +2433,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2522,7 +2522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2612,7 +2612,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>132</v>
@@ -2641,7 +2641,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -2710,31 +2710,31 @@
     </row>
     <row r="7" spans="1:9" ht="29">
       <c r="A7" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>116</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72.5">
@@ -2745,16 +2745,16 @@
         <v>121</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2863,24 +2863,24 @@
         <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
@@ -2889,7 +2889,7 @@
         <v>128</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>110</v>
@@ -2898,35 +2898,35 @@
         <v>111</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>132</v>
@@ -2935,16 +2935,16 @@
         <v>131</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2954,7 +2954,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D71ED5-5895-4AAF-9970-EE3A8E1D0782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF6571B-9F79-455A-8921-DE9942FB3BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="161">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -403,12 +403,6 @@
     <t>combinereport</t>
   </si>
   <si>
-    <t>GuardTest</t>
-  </si>
-  <si>
-    <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml</t>
-  </si>
-  <si>
     <t>moveReports</t>
   </si>
   <si>
@@ -497,6 +491,39 @@
   </si>
   <si>
     <t>Guard4_RSP-test</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>wednesdaysuite</t>
+  </si>
+  <si>
+    <t>thursdaysuite</t>
+  </si>
+  <si>
+    <t>tuesdaysuite</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>tuesdaysuitecombinetestname</t>
+  </si>
+  <si>
+    <t>thursdaysuitesuitecombinetestname</t>
+  </si>
+  <si>
+    <t>wednesdaysuitecombinetestname</t>
   </si>
 </sst>
 </file>
@@ -559,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -582,11 +609,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -646,6 +693,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K2" s="11">
         <v>50</v>
@@ -1019,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K3" s="11">
         <v>100</v>
@@ -1558,282 +1619,308 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="8.7265625" style="16"/>
+    <col min="2" max="2" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="22"/>
+      <c r="B2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:10" ht="43.5">
+      <c r="A3" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:10" ht="29">
+      <c r="A4" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="H4" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:10" ht="29">
+      <c r="A5" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="H5" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:10" ht="29">
+      <c r="A6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="H6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:10" ht="43.5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>commandinputdata!$R$5</f>
+        <v>Override_Test</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="18" t="str">
+        <f>commandinputdata!$Q$1</f>
+        <v>deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18" t="s">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{14A7592A-28A5-4DA8-BBFA-A088B6DA0243}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G8 G2:G6</xm:sqref>
+          <xm:sqref>H8 H2:H6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{67438C2C-B12B-431F-81E3-DC6C78F3EFCA}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H6</xm:sqref>
+          <xm:sqref>I3:I6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{194D7DBB-6A47-4A01-B0E1-8E05DB433025}">
           <x14:formula1>
             <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{BD753466-73BF-4451-82EE-890AE8D0C768}">
           <x14:formula1>
             <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2C238A52-CC3E-4BBB-845F-6B2DC73095B5}">
           <x14:formula1>
             <xm:f>commandinputdata!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2BA85576-68CF-4034-A366-995061D9B116}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Run Mode" xr:uid="{7E606F4B-9C2A-415F-B1C1-AAB09F6BC83E}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1843,283 +1930,309 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.54296875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="8.7265625" style="16"/>
+    <col min="2" max="2" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="22"/>
+      <c r="B2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:10" ht="29">
+      <c r="A3" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29">
+      <c r="A4" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29">
+      <c r="A5" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29">
+      <c r="A6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>commandinputdata!$T$5</f>
+        <v>Override_Test</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="29">
-      <c r="A4" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="58">
-      <c r="A7" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="G7" s="18" t="str">
+        <f>commandinputdata!$N$1</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/guardOrderMIX.xml</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18" t="s">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G8 G2:G6</xm:sqref>
+          <xm:sqref>H8 H2:H6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H6</xm:sqref>
+          <xm:sqref>I3:I6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
           <x14:formula1>
             <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{99006B66-5319-4228-9A35-20FD2B871684}">
           <x14:formula1>
             <xm:f>commandinputdata!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{9DE73CB4-AA26-4992-B3DB-24991CC26994}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{52B3BB8D-3345-4BB6-9F42-4D8F793B1B5F}">
           <x14:formula1>
             <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Run Mode" xr:uid="{DA02524A-0F45-497C-BE7B-9526D237B4FD}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2129,281 +2242,307 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="16"/>
+    <col min="1" max="1" width="8.7265625" style="16"/>
+    <col min="2" max="2" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7265625" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="22"/>
+      <c r="B2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29">
+      <c r="A3" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="29">
-      <c r="A3" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:10" ht="29">
+      <c r="A4" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>138</v>
-      </c>
       <c r="H4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:10" ht="29">
+      <c r="A5" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="H5" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:10" ht="29">
+      <c r="A6" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="H6" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="58">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:10" ht="43.5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f>commandinputdata!$V$5</f>
+        <v>Override_Test</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="18" t="str">
+        <f>commandinputdata!$K$1</f>
+        <v>basichotGuard.xml/hotGuard.xml</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18" t="s">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H6</xm:sqref>
+          <xm:sqref>I3:I6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G6 G8</xm:sqref>
+          <xm:sqref>H2:H6 H8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
             <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{D257DA1F-4547-4F03-B5ED-86D07266A34D}">
           <x14:formula1>
             <xm:f>commandinputdata!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{59FBF960-3AF9-463F-BCCC-BA4A02F826D1}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{691E72CF-6304-4912-856A-BD3B2655C4F5}">
           <x14:formula1>
             <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Run Mode" xr:uid="{BDFC78A7-B732-4D68-A9A9-8B0B9C289250}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$G$2:$G$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2413,11 +2552,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2425,9 +2564,14 @@
     <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:22">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -2435,30 +2579,66 @@
         <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>145</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25" t="str">
+        <f>$I$3&amp;$J$4&amp;$I$4&amp;$J$5&amp;$I$5&amp;$J$6&amp;$I$6</f>
+        <v>basichotGuard.xml/hotGuard.xml</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25" t="str">
+        <f>$L$3&amp;$M$4&amp;$L$4&amp;$M$5&amp;$L$5&amp;$M$6&amp;$L$6</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/guardOrderMIX.xml</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25" t="str">
+        <f>$O$3&amp;$P$4&amp;$O$4&amp;$P$5&amp;$O$5&amp;$P$6&amp;$O$6</f>
+        <v>deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>110</v>
@@ -2466,58 +2646,216 @@
       <c r="F2" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>102</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>148</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="25" t="str">
+        <f>IF(wednesdaysuite!$A$3="Yes",wednesdaysuite!$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="L3" s="25" t="str">
+        <f>IF(thursdaysuite!$A$3="Yes",thursdaysuite!$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="O3" s="25" t="str">
+        <f>IF(tuesdaysuite!$A$3="Yes",tuesdaysuite!$G$3,"")</f>
+        <v/>
+      </c>
+      <c r="R3" s="25" t="str">
+        <f>IF(tuesdaysuite!$B$3="Guard1","Guard_Test","")</f>
+        <v>Guard_Test</v>
+      </c>
+      <c r="T3" s="25" t="str">
+        <f>IF(thursdaysuite!$B$3="Guard1","Guard_Test","")</f>
+        <v>Guard_Test</v>
+      </c>
+      <c r="V3" s="25" t="str">
+        <f>IF(wednesdaysuite!$B$3="Guard1","Guard_Test","")</f>
+        <v>Guard_Test</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>146</v>
-      </c>
       <c r="F4" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>149</v>
+      </c>
+      <c r="I4" s="25" t="str">
+        <f>IF(wednesdaysuite!$A$4="Yes",wednesdaysuite!$G$4,"")</f>
+        <v/>
+      </c>
+      <c r="J4" s="26" t="str">
+        <f>IF(AND($I$3="basichotGuard.xml",$I$4="deadSensorGuard.xml"),"/", "")</f>
+        <v/>
+      </c>
+      <c r="L4" s="25" t="str">
+        <f>IF(thursdaysuite!$A$4="Yes",thursdaysuite!$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="M4" s="26" t="str">
+        <f>IF(AND($L$3="basichotGuard.xml",$L$4="deadSensorGuard.xml"),"/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O4" s="25" t="str">
+        <f>IF(tuesdaysuite!$A$4="Yes",tuesdaysuite!$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="P4" s="26" t="str">
+        <f>IF(AND($O$3="basichotGuard.xml",$O$4="deadSensorGuard.xml"),"/", "")</f>
+        <v/>
+      </c>
+      <c r="R4" s="25" t="str">
+        <f>IF(OR(tuesdaysuite!$B$3="Guard1",tuesdaysuite!$B$4="Guard2",tuesdaysuite!$B$5="Guard3",tuesdaysuite!$B$6="Guard4"),"Guard_Test","Override_Test")</f>
+        <v>Guard_Test</v>
+      </c>
+      <c r="T4" s="25" t="str">
+        <f>IF(OR(thursdaysuite!$B$3="Guard1",thursdaysuite!$B$4="Guard2",thursdaysuite!$B$5="Guard3",thursdaysuite!$B$6="Guard4"),"Guard_Test","Override_Test")</f>
+        <v>Guard_Test</v>
+      </c>
+      <c r="V4" s="25" t="str">
+        <f>IF(OR(wednesdaysuite!$B$3="Guard1",wednesdaysuite!$B$4="Guard2",wednesdaysuite!$B$5="Guard3",wednesdaysuite!$B$6="Guard4"),"Guard_Test","Override_Test")</f>
+        <v>Guard_Test</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>129</v>
+      </c>
+      <c r="I5" s="25" t="str">
+        <f>IF(wednesdaysuite!$A$5="Yes",wednesdaysuite!$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="J5" s="26" t="str">
+        <f>IF(AND($I$5="hotGuard.xml", OR($I$3="basichotGuard.xml",$I$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="L5" s="25" t="str">
+        <f>IF(thursdaysuite!$A$5="Yes",thursdaysuite!$G$5,"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="26" t="str">
+        <f>IF(AND($L$5="hotGuard.xml", OR($L$3="basichotGuard.xml",$L$4="deadSensorGuard.xml")), "/", "")</f>
+        <v/>
+      </c>
+      <c r="O5" s="25" t="str">
+        <f>IF(tuesdaysuite!$A$5="Yes",tuesdaysuite!$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="P5" s="26" t="str">
+        <f>IF(AND($O$5="hotGuard.xml", OR($O$3="basichotGuard.xml",$O$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="R5" s="25" t="str">
+        <f>IF(AND(OR(tuesdaysuite!$B$3="Guard1",tuesdaysuite!$B$4="Guard2",tuesdaysuite!$B$5="Guard3",tuesdaysuite!$B$6="Guard4"),tuesdaysuite!$B$7="Override"),"Guard_Test","Override_Test")</f>
+        <v>Override_Test</v>
+      </c>
+      <c r="T5" s="25" t="str">
+        <f>IF(AND(OR(thursdaysuite!$B$3="Guard1",thursdaysuite!$B$4="Guard2",thursdaysuite!$B$5="Guard3",thursdaysuite!$B$6="Guard4"),thursdaysuite!$B$7="Override"),"Guard_Test","Override_Test")</f>
+        <v>Override_Test</v>
+      </c>
+      <c r="V5" s="25" t="str">
+        <f>IF(AND(OR(wednesdaysuite!$B$3="Guard1",wednesdaysuite!$B$4="Guard2",wednesdaysuite!$B$5="Guard3",wednesdaysuite!$B$6="Guard4"),wednesdaysuite!$B$7="Override"),"Guard_Test","Override_Test")</f>
+        <v>Override_Test</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="I6" s="25" t="str">
+        <f>IF(wednesdaysuite!$A$6="Yes",wednesdaysuite!$G$6,"")</f>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(AND($I$6="guardOrderMIX.xml", OR($I$3="basichotGuard.xml",OR($I$4="deadSensorGuard.xml",$I$5="hotGuard.xml"))), "/", "")</f>
+        <v/>
+      </c>
+      <c r="L6" s="25" t="str">
+        <f>IF(thursdaysuite!$A$6="Yes",thursdaysuite!$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="M6" t="str">
+        <f>IF(AND($L$6="guardOrderMIX.xml", OR($L$3="basichotGuard.xml",OR($L$4="deadSensorGuard.xml",$L$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O6" s="25" t="str">
+        <f>IF(tuesdaysuite!$A$6="Yes",tuesdaysuite!$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="P6" t="str">
+        <f>IF(AND($O$6="guardOrderMIX.xml", OR($O$3="basichotGuard.xml",OR($O$4="deadSensorGuard.xml",$O$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF6571B-9F79-455A-8921-DE9942FB3BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC2EC1-42F6-4FA6-82A6-634AA800AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,14 @@
     <sheet name="thursdaysuite" sheetId="2" r:id="rId3"/>
     <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId5"/>
+    <sheet name="testexecutioncommands" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="config37" localSheetId="5">testexecutioncommands!#REF!</definedName>
     <definedName name="config37">commandinputdata!#REF!</definedName>
+    <definedName name="env" localSheetId="5">testexecutioncommands!#REF!</definedName>
     <definedName name="env">commandinputdata!#REF!</definedName>
+    <definedName name="environmane" localSheetId="5">testexecutioncommands!#REF!</definedName>
     <definedName name="environmane">commandinputdata!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="166">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -524,6 +528,21 @@
   </si>
   <si>
     <t>wednesdaysuitecombinetestname</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 2 --name "Guard1_RSP-test_$(date +%F_%H:%M:%S)" --reporttitle "BasicHotAbsoluteGuard" --outputdir Reports --output basichotGuard.xml --variable environment:config37  -v groupname:RSP-test --removekeywords passed</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 2 --name "Guard2_Imputes-test_$(date +%F_%H:%M:%S)" --reporttitle "DeadSensorGuard" --outputdir Reports --output deadSensorGuard.xml --variable environment:config37  -v groupname:Imputes-test --removekeywords passed</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 2 --name "Guard3_General-test_$(date +%F_%H:%M:%S)" --reporttitle "HotGuard" --outputdir Reports --output hotGuard.xml --variable environment:config37  -v groupname:General-test --removekeywords passed</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 2 --name "Guard4_General-test_$(date +%F_%H:%M:%S)" --reporttitle "GuardOrderMIX" --outputdir Reports --output guardOrderMIX.xml --variable environment:config37  -v groupname:General-test --removekeywords passed</t>
+  </si>
+  <si>
+    <t>commands</t>
   </si>
 </sst>
 </file>
@@ -696,17 +715,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2245,7 +2264,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2554,7 +2573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
@@ -2593,37 +2612,37 @@
       <c r="G1" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25" t="str">
+      <c r="J1" s="27"/>
+      <c r="K1" s="23" t="str">
         <f>$I$3&amp;$J$4&amp;$I$4&amp;$J$5&amp;$I$5&amp;$J$6&amp;$I$6</f>
         <v>basichotGuard.xml/hotGuard.xml</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25" t="str">
+      <c r="M1" s="27"/>
+      <c r="N1" s="23" t="str">
         <f>$L$3&amp;$M$4&amp;$L$4&amp;$M$5&amp;$L$5&amp;$M$6&amp;$L$6</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/guardOrderMIX.xml</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25" t="str">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="23" t="str">
         <f>$O$3&amp;$P$4&amp;$O$4&amp;$P$5&amp;$O$5&amp;$P$6&amp;$O$6</f>
         <v>deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="25" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2699,27 +2718,27 @@
       <c r="G3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="25" t="str">
+      <c r="I3" s="23" t="str">
         <f>IF(wednesdaysuite!$A$3="Yes",wednesdaysuite!$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="L3" s="25" t="str">
+      <c r="L3" s="23" t="str">
         <f>IF(thursdaysuite!$A$3="Yes",thursdaysuite!$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="O3" s="25" t="str">
+      <c r="O3" s="23" t="str">
         <f>IF(tuesdaysuite!$A$3="Yes",tuesdaysuite!$G$3,"")</f>
         <v/>
       </c>
-      <c r="R3" s="25" t="str">
+      <c r="R3" s="23" t="str">
         <f>IF(tuesdaysuite!$B$3="Guard1","Guard_Test","")</f>
         <v>Guard_Test</v>
       </c>
-      <c r="T3" s="25" t="str">
+      <c r="T3" s="23" t="str">
         <f>IF(thursdaysuite!$B$3="Guard1","Guard_Test","")</f>
         <v>Guard_Test</v>
       </c>
-      <c r="V3" s="25" t="str">
+      <c r="V3" s="23" t="str">
         <f>IF(wednesdaysuite!$B$3="Guard1","Guard_Test","")</f>
         <v>Guard_Test</v>
       </c>
@@ -2743,39 +2762,39 @@
       <c r="F4" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="25" t="str">
+      <c r="I4" s="23" t="str">
         <f>IF(wednesdaysuite!$A$4="Yes",wednesdaysuite!$G$4,"")</f>
         <v/>
       </c>
-      <c r="J4" s="26" t="str">
+      <c r="J4" s="24" t="str">
         <f>IF(AND($I$3="basichotGuard.xml",$I$4="deadSensorGuard.xml"),"/", "")</f>
         <v/>
       </c>
-      <c r="L4" s="25" t="str">
+      <c r="L4" s="23" t="str">
         <f>IF(thursdaysuite!$A$4="Yes",thursdaysuite!$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="M4" s="26" t="str">
+      <c r="M4" s="24" t="str">
         <f>IF(AND($L$3="basichotGuard.xml",$L$4="deadSensorGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
-      <c r="O4" s="25" t="str">
+      <c r="O4" s="23" t="str">
         <f>IF(tuesdaysuite!$A$4="Yes",tuesdaysuite!$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="P4" s="26" t="str">
+      <c r="P4" s="24" t="str">
         <f>IF(AND($O$3="basichotGuard.xml",$O$4="deadSensorGuard.xml"),"/", "")</f>
         <v/>
       </c>
-      <c r="R4" s="25" t="str">
+      <c r="R4" s="23" t="str">
         <f>IF(OR(tuesdaysuite!$B$3="Guard1",tuesdaysuite!$B$4="Guard2",tuesdaysuite!$B$5="Guard3",tuesdaysuite!$B$6="Guard4"),"Guard_Test","Override_Test")</f>
         <v>Guard_Test</v>
       </c>
-      <c r="T4" s="25" t="str">
+      <c r="T4" s="23" t="str">
         <f>IF(OR(thursdaysuite!$B$3="Guard1",thursdaysuite!$B$4="Guard2",thursdaysuite!$B$5="Guard3",thursdaysuite!$B$6="Guard4"),"Guard_Test","Override_Test")</f>
         <v>Guard_Test</v>
       </c>
-      <c r="V4" s="25" t="str">
+      <c r="V4" s="23" t="str">
         <f>IF(OR(wednesdaysuite!$B$3="Guard1",wednesdaysuite!$B$4="Guard2",wednesdaysuite!$B$5="Guard3",wednesdaysuite!$B$6="Guard4"),"Guard_Test","Override_Test")</f>
         <v>Guard_Test</v>
       </c>
@@ -2784,39 +2803,39 @@
       <c r="A5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="25" t="str">
+      <c r="I5" s="23" t="str">
         <f>IF(wednesdaysuite!$A$5="Yes",wednesdaysuite!$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="J5" s="26" t="str">
+      <c r="J5" s="24" t="str">
         <f>IF(AND($I$5="hotGuard.xml", OR($I$3="basichotGuard.xml",$I$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="L5" s="25" t="str">
+      <c r="L5" s="23" t="str">
         <f>IF(thursdaysuite!$A$5="Yes",thursdaysuite!$G$5,"")</f>
         <v/>
       </c>
-      <c r="M5" s="26" t="str">
+      <c r="M5" s="24" t="str">
         <f>IF(AND($L$5="hotGuard.xml", OR($L$3="basichotGuard.xml",$L$4="deadSensorGuard.xml")), "/", "")</f>
         <v/>
       </c>
-      <c r="O5" s="25" t="str">
+      <c r="O5" s="23" t="str">
         <f>IF(tuesdaysuite!$A$5="Yes",tuesdaysuite!$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="P5" s="26" t="str">
+      <c r="P5" s="24" t="str">
         <f>IF(AND($O$5="hotGuard.xml", OR($O$3="basichotGuard.xml",$O$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="R5" s="25" t="str">
+      <c r="R5" s="23" t="str">
         <f>IF(AND(OR(tuesdaysuite!$B$3="Guard1",tuesdaysuite!$B$4="Guard2",tuesdaysuite!$B$5="Guard3",tuesdaysuite!$B$6="Guard4"),tuesdaysuite!$B$7="Override"),"Guard_Test","Override_Test")</f>
         <v>Override_Test</v>
       </c>
-      <c r="T5" s="25" t="str">
+      <c r="T5" s="23" t="str">
         <f>IF(AND(OR(thursdaysuite!$B$3="Guard1",thursdaysuite!$B$4="Guard2",thursdaysuite!$B$5="Guard3",thursdaysuite!$B$6="Guard4"),thursdaysuite!$B$7="Override"),"Guard_Test","Override_Test")</f>
         <v>Override_Test</v>
       </c>
-      <c r="V5" s="25" t="str">
+      <c r="V5" s="23" t="str">
         <f>IF(AND(OR(wednesdaysuite!$B$3="Guard1",wednesdaysuite!$B$4="Guard2",wednesdaysuite!$B$5="Guard3",wednesdaysuite!$B$6="Guard4"),wednesdaysuite!$B$7="Override"),"Guard_Test","Override_Test")</f>
         <v>Override_Test</v>
       </c>
@@ -2825,7 +2844,7 @@
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="25" t="str">
+      <c r="I6" s="23" t="str">
         <f>IF(wednesdaysuite!$A$6="Yes",wednesdaysuite!$G$6,"")</f>
         <v/>
       </c>
@@ -2833,7 +2852,7 @@
         <f>IF(AND($I$6="guardOrderMIX.xml", OR($I$3="basichotGuard.xml",OR($I$4="deadSensorGuard.xml",$I$5="hotGuard.xml"))), "/", "")</f>
         <v/>
       </c>
-      <c r="L6" s="25" t="str">
+      <c r="L6" s="23" t="str">
         <f>IF(thursdaysuite!$A$6="Yes",thursdaysuite!$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
@@ -2841,7 +2860,7 @@
         <f>IF(AND($L$6="guardOrderMIX.xml", OR($L$3="basichotGuard.xml",OR($L$4="deadSensorGuard.xml",$L$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="25" t="str">
+      <c r="O6" s="23" t="str">
         <f>IF(tuesdaysuite!$A$6="Yes",tuesdaysuite!$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
@@ -2859,4 +2878,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA50BD6-D8A1-4D18-AE3A-FE0B4DC5DC81}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC2EC1-42F6-4FA6-82A6-634AA800AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B140BD4-62E1-4C72-A788-E35E0088AB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -530,9 +530,6 @@
     <t>wednesdaysuitecombinetestname</t>
   </si>
   <si>
-    <t>pabot --pabotlib --processes 2 --name "Guard1_RSP-test_$(date +%F_%H:%M:%S)" --reporttitle "BasicHotAbsoluteGuard" --outputdir Reports --output basichotGuard.xml --variable environment:config37  -v groupname:RSP-test --removekeywords passed</t>
-  </si>
-  <si>
     <t>pabot --pabotlib --processes 2 --name "Guard2_Imputes-test_$(date +%F_%H:%M:%S)" --reporttitle "DeadSensorGuard" --outputdir Reports --output deadSensorGuard.xml --variable environment:config37  -v groupname:Imputes-test --removekeywords passed</t>
   </si>
   <si>
@@ -543,6 +540,9 @@
   </si>
   <si>
     <t>commands</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 2 --name "Guard1_RSP-test" --reporttitle "BasicHotAbsoluteGuard" --outputdir Reports --output basichotGuard.xml --variable environment:config37  -v groupname:RSP-test --removekeywords passed</t>
   </si>
 </sst>
 </file>
@@ -1006,6 +1006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1638,6 +1639,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1949,6 +1951,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2261,6 +2264,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2571,6 +2575,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2882,11 +2887,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA50BD6-D8A1-4D18-AE3A-FE0B4DC5DC81}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2900,7 +2906,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2908,7 +2914,7 @@
         <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2916,7 +2922,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2924,7 +2930,7 @@
         <v>108</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2932,7 +2938,7 @@
         <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B140BD4-62E1-4C72-A788-E35E0088AB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECDB7EB-6BA4-45E2-B742-2145C1840997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="166">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -530,19 +530,19 @@
     <t>wednesdaysuitecombinetestname</t>
   </si>
   <si>
-    <t>pabot --pabotlib --processes 2 --name "Guard2_Imputes-test_$(date +%F_%H:%M:%S)" --reporttitle "DeadSensorGuard" --outputdir Reports --output deadSensorGuard.xml --variable environment:config37  -v groupname:Imputes-test --removekeywords passed</t>
-  </si>
-  <si>
-    <t>pabot --pabotlib --processes 2 --name "Guard3_General-test_$(date +%F_%H:%M:%S)" --reporttitle "HotGuard" --outputdir Reports --output hotGuard.xml --variable environment:config37  -v groupname:General-test --removekeywords passed</t>
-  </si>
-  <si>
-    <t>pabot --pabotlib --processes 2 --name "Guard4_General-test_$(date +%F_%H:%M:%S)" --reporttitle "GuardOrderMIX" --outputdir Reports --output guardOrderMIX.xml --variable environment:config37  -v groupname:General-test --removekeywords passed</t>
-  </si>
-  <si>
     <t>commands</t>
   </si>
   <si>
-    <t>pabot --pabotlib --processes 2 --name "Guard1_RSP-test" --reporttitle "BasicHotAbsoluteGuard" --outputdir Reports --output basichotGuard.xml --variable environment:config37  -v groupname:RSP-test --removekeywords passed</t>
+    <t>sudo pabot --pabotlib --processes 2 --name "Guard1_General-test" --reporttitle "BasicHotAbsoluteGuard" --outputdir Reports --output basichotGuard.xml --variable environment:config37  -v groupname:General-test -T Testcases/GuardTests/basicHotAbsoluteGuardTest.robot Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name "Guard2_Imputes-test" --reporttitle "DeadSensorGuard" --outputdir Reports --output deadSensorGuard.xml --variable environment:config37  -v groupname:Imputes-test -T Testcases/GuardTests/deadSensorGuardTest.robot Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name "Guard3_General-test" --reporttitle "HotGuard" --outputdir Reports --output hotGuard.xml --variable environment:config37  -v groupname:General-test -T Testcases/GuardTests/hotGuardTest.robot  Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name "Guard4_General-test" --reporttitle "GuardOrderMIX" --outputdir Reports --output guardOrderMIX.xml --variable environment:config37  -v groupname:General-test -T Testcases/GuardTests/guardOrderMIXTest.robot  Testcases/staleStatePrevention.robot</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -726,6 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1642,8 +1643,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1694,7 +1695,9 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="22"/>
+      <c r="A2" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="B2" s="21" t="s">
         <v>91</v>
       </c>
@@ -1846,7 +1849,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.5">
-      <c r="A7" s="22"/>
+      <c r="A7" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="B7" s="21" t="s">
         <v>119</v>
       </c>
@@ -1872,7 +1877,9 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22"/>
+      <c r="A8" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="B8" s="21" t="s">
         <v>120</v>
       </c>
@@ -2890,9 +2897,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2906,7 +2913,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2914,7 +2921,7 @@
         <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2922,7 +2929,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2930,15 +2937,15 @@
         <v>108</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" t="s">
-        <v>163</v>
+      <c r="B5" s="28" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECDB7EB-6BA4-45E2-B742-2145C1840997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55DF72E-5EB3-4526-A7BC-CC2264F7AA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="166">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -652,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -712,21 +712,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1643,8 +1640,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1695,7 +1692,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -1849,7 +1846,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.5">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>151</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1860,7 +1857,7 @@
       </c>
       <c r="D7" s="18" t="str">
         <f>commandinputdata!$R$5</f>
-        <v>Override_Test</v>
+        <v>Guard_Test</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>133</v>
@@ -1877,7 +1874,7 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>151</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -1903,6 +1900,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -1962,7 +1960,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2013,7 +2011,9 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="B2" s="21" t="s">
         <v>91</v>
       </c>
@@ -2165,7 +2165,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.5">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="B7" s="21" t="s">
         <v>119</v>
       </c>
@@ -2174,7 +2176,7 @@
       </c>
       <c r="D7" s="18" t="str">
         <f>commandinputdata!$T$5</f>
-        <v>Override_Test</v>
+        <v>Guard_Test</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>130</v>
@@ -2191,7 +2193,9 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="B8" s="21" t="s">
         <v>120</v>
       </c>
@@ -2215,6 +2219,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2275,7 +2280,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2326,7 +2331,9 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="B2" s="21" t="s">
         <v>91</v>
       </c>
@@ -2478,7 +2485,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.5">
-      <c r="A7" s="22"/>
+      <c r="A7" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="B7" s="21" t="s">
         <v>119</v>
       </c>
@@ -2487,7 +2496,7 @@
       </c>
       <c r="D7" s="18" t="str">
         <f>commandinputdata!$V$5</f>
-        <v>Override_Test</v>
+        <v>Guard_Test</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>135</v>
@@ -2504,7 +2513,9 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="B8" s="21" t="s">
         <v>120</v>
       </c>
@@ -2585,9 +2596,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2599,7 +2610,7 @@
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -2628,7 +2639,7 @@
         <v>154</v>
       </c>
       <c r="J1" s="27"/>
-      <c r="K1" s="23" t="str">
+      <c r="K1" s="22" t="str">
         <f>$I$3&amp;$J$4&amp;$I$4&amp;$J$5&amp;$I$5&amp;$J$6&amp;$I$6</f>
         <v>basichotGuard.xml/hotGuard.xml</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>155</v>
       </c>
       <c r="M1" s="27"/>
-      <c r="N1" s="23" t="str">
+      <c r="N1" s="22" t="str">
         <f>$L$3&amp;$M$4&amp;$L$4&amp;$M$5&amp;$L$5&amp;$M$6&amp;$L$6</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/guardOrderMIX.xml</v>
       </c>
@@ -2644,17 +2655,17 @@
         <v>156</v>
       </c>
       <c r="P1" s="27"/>
-      <c r="Q1" s="23" t="str">
+      <c r="Q1" s="22" t="str">
         <f>$O$3&amp;$P$4&amp;$O$4&amp;$P$5&amp;$O$5&amp;$P$6&amp;$O$6</f>
         <v>deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2730,28 +2741,31 @@
       <c r="G3" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="23" t="str">
+      <c r="I3" s="22" t="str">
         <f>IF(wednesdaysuite!$A$3="Yes",wednesdaysuite!$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="L3" s="23" t="str">
+      <c r="L3" s="22" t="str">
         <f>IF(thursdaysuite!$A$3="Yes",thursdaysuite!$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="O3" s="23" t="str">
+      <c r="O3" s="22" t="str">
         <f>IF(tuesdaysuite!$A$3="Yes",tuesdaysuite!$G$3,"")</f>
         <v/>
       </c>
-      <c r="R3" s="23" t="str">
-        <f>IF(tuesdaysuite!$B$3="Guard1","Guard_Test","")</f>
+      <c r="R3" s="22" t="str">
+        <f>IF(AND(OR(tuesdaysuite!$A$3="Yes", tuesdaysuite!$A$4="Yes",tuesdaysuite!$A$5="Yes",tuesdaysuite!$A$6="Yes"),
+        OR(tuesdaysuite!$B$3="Guard1",tuesdaysuite!$B$4="Guard2",tuesdaysuite!$B$5="Guard3",tuesdaysuite!$B$6="Guard4")),"Guard_Test","")</f>
         <v>Guard_Test</v>
       </c>
-      <c r="T3" s="23" t="str">
-        <f>IF(thursdaysuite!$B$3="Guard1","Guard_Test","")</f>
+      <c r="T3" s="22" t="str">
+        <f>IF(AND(OR(thursdaysuite!$A$3="Yes", thursdaysuite!$A$4="Yes",thursdaysuite!$A$5="Yes",thursdaysuite!$A$6="Yes"),
+        OR(thursdaysuite!$B$3="Guard1",thursdaysuite!$B$4="Guard2",thursdaysuite!$B$5="Guard3",thursdaysuite!$B$6="Guard4")),"Guard_Test","")</f>
         <v>Guard_Test</v>
       </c>
-      <c r="V3" s="23" t="str">
-        <f>IF(wednesdaysuite!$B$3="Guard1","Guard_Test","")</f>
+      <c r="V3" s="22" t="str">
+        <f>IF(AND(OR(wednesdaysuite!$A$3="Yes", wednesdaysuite!$A$4="Yes",wednesdaysuite!$A$5="Yes",wednesdaysuite!$A$6="Yes"),
+        OR(wednesdaysuite!$B$3="Guard1",wednesdaysuite!$B$4="Guard2",wednesdaysuite!$B$5="Guard3",wednesdaysuite!$B$6="Guard4")),"Guard_Test","")</f>
         <v>Guard_Test</v>
       </c>
     </row>
@@ -2774,89 +2788,89 @@
       <c r="F4" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="23" t="str">
+      <c r="I4" s="22" t="str">
         <f>IF(wednesdaysuite!$A$4="Yes",wednesdaysuite!$G$4,"")</f>
         <v/>
       </c>
-      <c r="J4" s="24" t="str">
+      <c r="J4" s="23" t="str">
         <f>IF(AND($I$3="basichotGuard.xml",$I$4="deadSensorGuard.xml"),"/", "")</f>
         <v/>
       </c>
-      <c r="L4" s="23" t="str">
+      <c r="L4" s="22" t="str">
         <f>IF(thursdaysuite!$A$4="Yes",thursdaysuite!$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="M4" s="24" t="str">
+      <c r="M4" s="23" t="str">
         <f>IF(AND($L$3="basichotGuard.xml",$L$4="deadSensorGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
-      <c r="O4" s="23" t="str">
+      <c r="O4" s="22" t="str">
         <f>IF(tuesdaysuite!$A$4="Yes",tuesdaysuite!$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="P4" s="24" t="str">
+      <c r="P4" s="23" t="str">
         <f>IF(AND($O$3="basichotGuard.xml",$O$4="deadSensorGuard.xml"),"/", "")</f>
         <v/>
       </c>
-      <c r="R4" s="23" t="str">
-        <f>IF(OR(tuesdaysuite!$B$3="Guard1",tuesdaysuite!$B$4="Guard2",tuesdaysuite!$B$5="Guard3",tuesdaysuite!$B$6="Guard4"),"Guard_Test","Override_Test")</f>
-        <v>Guard_Test</v>
-      </c>
-      <c r="T4" s="23" t="str">
-        <f>IF(OR(thursdaysuite!$B$3="Guard1",thursdaysuite!$B$4="Guard2",thursdaysuite!$B$5="Guard3",thursdaysuite!$B$6="Guard4"),"Guard_Test","Override_Test")</f>
-        <v>Guard_Test</v>
-      </c>
-      <c r="V4" s="23" t="str">
-        <f>IF(OR(wednesdaysuite!$B$3="Guard1",wednesdaysuite!$B$4="Guard2",wednesdaysuite!$B$5="Guard3",wednesdaysuite!$B$6="Guard4"),"Guard_Test","Override_Test")</f>
-        <v>Guard_Test</v>
+      <c r="R4" s="22" t="str">
+        <f>IF(AND(tuesdaysuite!$A$7="Yes",tuesdaysuite!$B$7="Override"),"Override_Test","")</f>
+        <v/>
+      </c>
+      <c r="T4" s="22" t="str">
+        <f>IF(AND(thursdaysuite!$A$7="Yes",thursdaysuite!$B$7="Override"),"Override_Test","")</f>
+        <v/>
+      </c>
+      <c r="V4" s="22" t="str">
+        <f>IF(AND(wednesdaysuite!$A$7="Yes",wednesdaysuite!$B$7="Override"),"Override_Test","")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="23" t="str">
+      <c r="I5" s="22" t="str">
         <f>IF(wednesdaysuite!$A$5="Yes",wednesdaysuite!$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="J5" s="24" t="str">
+      <c r="J5" s="23" t="str">
         <f>IF(AND($I$5="hotGuard.xml", OR($I$3="basichotGuard.xml",$I$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="L5" s="23" t="str">
+      <c r="L5" s="22" t="str">
         <f>IF(thursdaysuite!$A$5="Yes",thursdaysuite!$G$5,"")</f>
         <v/>
       </c>
-      <c r="M5" s="24" t="str">
+      <c r="M5" s="23" t="str">
         <f>IF(AND($L$5="hotGuard.xml", OR($L$3="basichotGuard.xml",$L$4="deadSensorGuard.xml")), "/", "")</f>
         <v/>
       </c>
-      <c r="O5" s="23" t="str">
+      <c r="O5" s="22" t="str">
         <f>IF(tuesdaysuite!$A$5="Yes",tuesdaysuite!$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="P5" s="24" t="str">
+      <c r="P5" s="23" t="str">
         <f>IF(AND($O$5="hotGuard.xml", OR($O$3="basichotGuard.xml",$O$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="R5" s="23" t="str">
-        <f>IF(AND(OR(tuesdaysuite!$B$3="Guard1",tuesdaysuite!$B$4="Guard2",tuesdaysuite!$B$5="Guard3",tuesdaysuite!$B$6="Guard4"),tuesdaysuite!$B$7="Override"),"Guard_Test","Override_Test")</f>
-        <v>Override_Test</v>
-      </c>
-      <c r="T5" s="23" t="str">
-        <f>IF(AND(OR(thursdaysuite!$B$3="Guard1",thursdaysuite!$B$4="Guard2",thursdaysuite!$B$5="Guard3",thursdaysuite!$B$6="Guard4"),thursdaysuite!$B$7="Override"),"Guard_Test","Override_Test")</f>
-        <v>Override_Test</v>
-      </c>
-      <c r="V5" s="23" t="str">
-        <f>IF(AND(OR(wednesdaysuite!$B$3="Guard1",wednesdaysuite!$B$4="Guard2",wednesdaysuite!$B$5="Guard3",wednesdaysuite!$B$6="Guard4"),wednesdaysuite!$B$7="Override"),"Guard_Test","Override_Test")</f>
-        <v>Override_Test</v>
+      <c r="R5" s="22" t="str">
+        <f>IF(AND($R$3="Guard_Test", $R$4="Override_Test"),"Guard_Override_Test","Guard_Test")</f>
+        <v>Guard_Test</v>
+      </c>
+      <c r="T5" s="22" t="str">
+        <f>IF(AND($R$3="Guard_Test", $R$4="Override_Test"),"Guard_Override_Test","Guard_Test")</f>
+        <v>Guard_Test</v>
+      </c>
+      <c r="V5" s="22" t="str">
+        <f>IF(AND($R$3="Guard_Test", $R$4="Override_Test"),"Guard_Override_Test","Guard_Test")</f>
+        <v>Guard_Test</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="23" t="str">
+      <c r="I6" s="22" t="str">
         <f>IF(wednesdaysuite!$A$6="Yes",wednesdaysuite!$G$6,"")</f>
         <v/>
       </c>
@@ -2864,7 +2878,7 @@
         <f>IF(AND($I$6="guardOrderMIX.xml", OR($I$3="basichotGuard.xml",OR($I$4="deadSensorGuard.xml",$I$5="hotGuard.xml"))), "/", "")</f>
         <v/>
       </c>
-      <c r="L6" s="23" t="str">
+      <c r="L6" s="22" t="str">
         <f>IF(thursdaysuite!$A$6="Yes",thursdaysuite!$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
@@ -2872,7 +2886,7 @@
         <f>IF(AND($L$6="guardOrderMIX.xml", OR($L$3="basichotGuard.xml",OR($L$4="deadSensorGuard.xml",$L$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="23" t="str">
+      <c r="O6" s="22" t="str">
         <f>IF(tuesdaysuite!$A$6="Yes",tuesdaysuite!$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
@@ -2944,7 +2958,7 @@
       <c r="A5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>165</v>
       </c>
     </row>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C9E03-F246-4F78-83E3-109FA539DF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA243AC9-0F8F-4342-A3E1-94AF1036EDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -563,19 +563,22 @@
     <t>Overide1_RSP-test</t>
   </si>
   <si>
-    <t>override1.xml</t>
-  </si>
-  <si>
-    <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml/override1.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">override1.robot/staleStatePrevention.robot </t>
-  </si>
-  <si>
     <t>Guard_Override_Test</t>
   </si>
   <si>
     <t>Test performed on environment 146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vxOverrideUIvaluesTest.robot/staleStatePrevention.robot </t>
+  </si>
+  <si>
+    <t>vxOverrideUIvalues.xml</t>
+  </si>
+  <si>
+    <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml/vxOverrideUIvalues.xml</t>
+  </si>
+  <si>
+    <t>VXOverrideUIvalues</t>
   </si>
 </sst>
 </file>
@@ -1018,6 +1021,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1650,6 +1654,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D5FF25-CB93-4FF5-B7D2-AA3922F37E97}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1878,10 +1883,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2077,13 +2083,13 @@
         <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>138</v>
@@ -2095,7 +2101,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72.5">
+    <row r="8" spans="1:9" ht="87">
       <c r="A8" s="21" t="s">
         <v>119</v>
       </c>
@@ -2103,16 +2109,16 @@
         <v>121</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2142,7 +2148,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2199,10 +2204,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2398,13 +2404,13 @@
         <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>129</v>
@@ -2424,7 +2430,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>130</v>
@@ -2433,7 +2439,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2463,7 +2469,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2520,10 +2525,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2719,13 +2725,13 @@
         <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>135</v>
@@ -2737,7 +2743,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72.5">
+    <row r="8" spans="1:9" ht="87">
       <c r="A8" s="21" t="s">
         <v>119</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>134</v>
@@ -2754,7 +2760,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2784,7 +2790,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2839,11 +2844,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA243AC9-0F8F-4342-A3E1-94AF1036EDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4990B4D4-2523-4B9D-81DA-012AC725967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1887,7 +1887,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1949,7 +1949,7 @@
         <v>96</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
@@ -1976,7 +1976,7 @@
         <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>106</v>
@@ -2005,7 +2005,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>106</v>
@@ -2034,7 +2034,7 @@
         <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>116</v>
@@ -2063,7 +2063,7 @@
         <v>114</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>116</v>
@@ -2092,7 +2092,7 @@
         <v>176</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>116</v>
@@ -2140,7 +2140,7 @@
         <v>122</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="18" t="s">
@@ -2158,7 +2158,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G9 G2:G7</xm:sqref>
+          <xm:sqref>G2:G7 G9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{67438C2C-B12B-431F-81E3-DC6C78F3EFCA}">
           <x14:formula1>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4990B4D4-2523-4B9D-81DA-012AC725967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD1188C-BFB1-4BA3-9513-7C37CBCDBD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,9 +566,6 @@
     <t>Guard_Override_Test</t>
   </si>
   <si>
-    <t>Test performed on environment 146</t>
-  </si>
-  <si>
     <t xml:space="preserve">vxOverrideUIvaluesTest.robot/staleStatePrevention.robot </t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>VXOverrideUIvalues</t>
+  </si>
+  <si>
+    <t>Test performed on environment 91</t>
   </si>
 </sst>
 </file>
@@ -1887,7 +1887,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2083,13 +2083,13 @@
         <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>135</v>
@@ -2098,7 +2098,7 @@
         <v>116</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="87">
@@ -2112,13 +2112,13 @@
         <v>173</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2404,13 +2404,13 @@
         <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>129</v>
@@ -2419,7 +2419,7 @@
         <v>116</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72.5">
@@ -2439,7 +2439,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
@@ -2725,13 +2725,13 @@
         <v>170</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>135</v>
@@ -2740,7 +2740,7 @@
         <v>116</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="87">
@@ -2760,7 +2760,7 @@
         <v>104</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD1188C-BFB1-4BA3-9513-7C37CBCDBD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFC6FA3-284E-43D2-9028-C5B85DC9FCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="thursdaysuite" sheetId="2" r:id="rId4"/>
     <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
+    <sheet name="tuesdaysuite working" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="179">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1884,10 +1885,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1956,194 +1957,78 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:9" ht="29">
       <c r="A3" s="21" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>94</v>
+        <v>170</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>135</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="29">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="87">
       <c r="A4" s="21" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>102</v>
+        <v>121</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29">
+        <v>176</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="21" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>112</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>116</v>
-      </c>
+      <c r="H5" s="19"/>
       <c r="I5" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="29">
-      <c r="A7" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="87">
-      <c r="A8" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2153,48 +2038,24 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{14A7592A-28A5-4DA8-BBFA-A088B6DA0243}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G7 G9</xm:sqref>
+          <xm:sqref>G5 G2:G3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{060A6CE4-8C5C-49B6-A2E8-601D6BB05769}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{67438C2C-B12B-431F-81E3-DC6C78F3EFCA}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{194D7DBB-6A47-4A01-B0E1-8E05DB433025}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$F$2:$F$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{BD753466-73BF-4451-82EE-890AE8D0C768}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2C238A52-CC3E-4BBB-845F-6B2DC73095B5}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2BA85576-68CF-4034-A366-995061D9B116}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$E$2:$E$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{060A6CE4-8C5C-49B6-A2E8-601D6BB05769}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$G$2:$G$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>H3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2967,4 +2828,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.5">
+      <c r="A3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29">
+      <c r="A4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29">
+      <c r="A5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29">
+      <c r="A6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29">
+      <c r="A7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="87">
+      <c r="A8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2A443C34-7F60-4D1A-BEE9-2B2B19B10624}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{A3AF2C92-0953-4D86-9DBA-F4C811F9BD2A}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{7F8D7859-404D-4475-BC34-50E3A878DCA3}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{115AFEBA-9626-4203-AD1B-AAF35A5B2992}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$F$2:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{98B96F75-8CE1-40CB-8870-67B1472C5745}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3:H7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{A8E9437C-6530-4719-A1E0-546D00E7EB7B}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G7 G9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFC6FA3-284E-43D2-9028-C5B85DC9FCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3D6B1B-F7AF-4332-8E05-8C47D8A6B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
     <sheet name="overrideTest" sheetId="7" r:id="rId2"/>
-    <sheet name="tuesdaysuite" sheetId="3" r:id="rId3"/>
+    <sheet name="tuesdaysuite" sheetId="8" r:id="rId3"/>
     <sheet name="thursdaysuite" sheetId="2" r:id="rId4"/>
     <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
-    <sheet name="tuesdaysuite working" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1883,12 +1882,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC20A92C-84F4-4904-85B3-A094CD26A426}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1957,105 +1956,244 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:9" ht="43.5">
       <c r="A3" s="21" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>177</v>
+        <v>136</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>175</v>
+        <v>87</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>135</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="87">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29">
       <c r="A4" s="21" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>173</v>
+        <v>125</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>104</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29">
       <c r="A5" s="21" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+        <v>125</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="E5" s="18" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="20" t="s">
+        <v>116</v>
+      </c>
       <c r="I5" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29">
+      <c r="A6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29">
+      <c r="A7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="87">
+      <c r="A8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{14A7592A-28A5-4DA8-BBFA-A088B6DA0243}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2A443C34-7F60-4D1A-BEE9-2B2B19B10624}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{A3AF2C92-0953-4D86-9DBA-F4C811F9BD2A}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$D$2:$D$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{7F8D7859-404D-4475-BC34-50E3A878DCA3}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{115AFEBA-9626-4203-AD1B-AAF35A5B2992}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$F$2:$F$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{A8E9437C-6530-4719-A1E0-546D00E7EB7B}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G5 G2:G3</xm:sqref>
+          <xm:sqref>G9 G2:G7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{060A6CE4-8C5C-49B6-A2E8-601D6BB05769}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
           <x14:formula1>
             <xm:f>commandinputdata!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>C7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{67438C2C-B12B-431F-81E3-DC6C78F3EFCA}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{98B96F75-8CE1-40CB-8870-67B1472C5745}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3</xm:sqref>
+          <xm:sqref>H3:H7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2828,324 +2966,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="29">
-      <c r="A4" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="29">
-      <c r="A7" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="87">
-      <c r="A8" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$G$2:$G$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2A443C34-7F60-4D1A-BEE9-2B2B19B10624}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$E$2:$E$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{A3AF2C92-0953-4D86-9DBA-F4C811F9BD2A}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$D$2:$D$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{7F8D7859-404D-4475-BC34-50E3A878DCA3}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{115AFEBA-9626-4203-AD1B-AAF35A5B2992}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$F$2:$F$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{98B96F75-8CE1-40CB-8870-67B1472C5745}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>H3:H7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{A8E9437C-6530-4719-A1E0-546D00E7EB7B}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G7 G9</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3D6B1B-F7AF-4332-8E05-8C47D8A6B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F21743-88ED-472C-A697-76461C909F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -717,10 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -741,6 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,7 +1684,7 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4">
@@ -1693,7 +1692,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="4">
@@ -1701,7 +1700,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>127</v>
       </c>
       <c r="B4" s="4">
@@ -1709,7 +1708,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="4">
@@ -1717,7 +1716,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="4">
@@ -1725,7 +1724,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="4">
@@ -1733,7 +1732,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4">
@@ -1741,7 +1740,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="4">
@@ -1749,7 +1748,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="4">
@@ -1757,7 +1756,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="4">
@@ -1765,7 +1764,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>151</v>
       </c>
       <c r="B12" s="4">
@@ -1773,7 +1772,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>152</v>
       </c>
       <c r="B13" s="4">
@@ -1781,7 +1780,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B14" s="4">
@@ -1789,7 +1788,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>154</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1797,7 +1796,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="4">
@@ -1805,7 +1804,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1813,7 +1812,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="4">
@@ -1821,7 +1820,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="4">
@@ -1829,7 +1828,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>160</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1837,7 +1836,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="4">
@@ -1845,7 +1844,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>162</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1853,7 +1852,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>164</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1861,7 +1860,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="4">
@@ -1869,7 +1868,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1886,268 +1885,269 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="16"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="43.5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="87">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2207,267 +2207,268 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.54296875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="16"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.54296875" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72.5">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2528,267 +2529,268 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I1" activeCellId="11" sqref="A1:B9 D1:F9 C8 C9 C1:C2 G1 H1 H2 G8 H8 H9 I1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.81640625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="16"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.81640625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="23" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="29">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="87">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2879,7 +2881,7 @@
       <c r="F1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2890,19 +2892,19 @@
       <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2913,19 +2915,19 @@
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2936,19 +2938,19 @@
       <c r="B4" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>172</v>
       </c>
     </row>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F21743-88ED-472C-A697-76461C909F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4FBD3D-0916-4AD9-A82B-E23923B54E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -1023,9 +1023,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1645,6 +1643,7 @@
       <c r="K34" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1656,9 +1655,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1876,6 +1873,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1885,8 +1883,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2206,9 +2204,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -2528,9 +2524,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" activeCellId="11" sqref="A1:B9 D1:F9 C8 C9 C1:C2 G1 H1 H2 G8 H8 H9 I1:I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -2850,7 +2844,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2965,6 +2959,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4FBD3D-0916-4AD9-A82B-E23923B54E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84ED50C-553C-41C7-A251-1CF900A0F6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="thursdaysuite" sheetId="2" r:id="rId4"/>
     <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
+    <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="190">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -579,6 +580,40 @@
   </si>
   <si>
     <t>Test performed on environment 91</t>
+  </si>
+  <si>
+    <t>commands</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Guard1_Imputes-test' --reporttitle "BasicHotAbsoluteGuard" --outputdir Reports --output basichotGuard.xml --variable environment:config146 -v groupname:Imputes-test -T /home/fc/automation/AuQA/Testcases/GuardTests/basicHotAbsoluteGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Guard2_Imputes-test' --reporttitle "DeadSensorGuard" --outputdir Reports --output deadSensorGuard.xml --variable environment:config146 -v groupname:Imputes-test -T /home/fc/automation/AuQA/Testcases/GuardTests/deadSensorGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Guard3_General-test' --reporttitle "HotGuard" --outputdir Reports --output hotGuard.xml --variable environment:config146 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/GuardTests/hotGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Guard4_General-test' --reporttitle "GuardOrderMIX" --outputdir Reports --output guardOrderMIX.xml --variable environment:config146 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/GuardTests/guardOrderMIXTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Override1_General-test' --reporttitle "VXOverrideUIvalues" --outputdir Reports --output vxOverrideUIvalues.xml --variable environment:config146 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/OverrideTests/vxOverrideUIvaluesTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>robot --outputdir Reports/cleanReports --output cleanReports.xml --variable environment:config146 /home/fc/automation/AuQA/Testcases/cleanReports.robot</t>
+  </si>
+  <si>
+    <t>CleanReports</t>
+  </si>
+  <si>
+    <t>rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 146" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvaluesTest.xml</t>
+  </si>
+  <si>
+    <t>MoveReports</t>
+  </si>
+  <si>
+    <t>robot --outputdir Reports/cleanReports --output moveReports.xml --variable environment:config146 /home/fc/automation/AuQA/Testcases/moveReports.robot
+/home/fc/automation/AuQA/ExternalKeywords/sendemail.py</t>
   </si>
 </sst>
 </file>
@@ -679,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -740,6 +775,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1655,7 +1695,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1883,8 +1923,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2963,4 +3003,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84ED50C-553C-41C7-A251-1CF900A0F6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5BBF3-660D-410C-A1C2-071BEAFBAEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="193">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -585,35 +585,44 @@
     <t>commands</t>
   </si>
   <si>
-    <t>sudo pabot --pabotlib --processes 2 --name 'Guard1_Imputes-test' --reporttitle "BasicHotAbsoluteGuard" --outputdir Reports --output basichotGuard.xml --variable environment:config146 -v groupname:Imputes-test -T /home/fc/automation/AuQA/Testcases/GuardTests/basicHotAbsoluteGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
-  </si>
-  <si>
-    <t>sudo pabot --pabotlib --processes 2 --name 'Guard2_Imputes-test' --reporttitle "DeadSensorGuard" --outputdir Reports --output deadSensorGuard.xml --variable environment:config146 -v groupname:Imputes-test -T /home/fc/automation/AuQA/Testcases/GuardTests/deadSensorGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
-  </si>
-  <si>
-    <t>sudo pabot --pabotlib --processes 2 --name 'Guard3_General-test' --reporttitle "HotGuard" --outputdir Reports --output hotGuard.xml --variable environment:config146 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/GuardTests/hotGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
-  </si>
-  <si>
-    <t>sudo pabot --pabotlib --processes 2 --name 'Guard4_General-test' --reporttitle "GuardOrderMIX" --outputdir Reports --output guardOrderMIX.xml --variable environment:config146 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/GuardTests/guardOrderMIXTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
-  </si>
-  <si>
-    <t>sudo pabot --pabotlib --processes 2 --name 'Override1_General-test' --reporttitle "VXOverrideUIvalues" --outputdir Reports --output vxOverrideUIvalues.xml --variable environment:config146 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/OverrideTests/vxOverrideUIvaluesTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
-  </si>
-  <si>
-    <t>robot --outputdir Reports/cleanReports --output cleanReports.xml --variable environment:config146 /home/fc/automation/AuQA/Testcases/cleanReports.robot</t>
-  </si>
-  <si>
     <t>CleanReports</t>
   </si>
   <si>
-    <t>rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 146" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvaluesTest.xml</t>
-  </si>
-  <si>
     <t>MoveReports</t>
   </si>
   <si>
-    <t>robot --outputdir Reports/cleanReports --output moveReports.xml --variable environment:config146 /home/fc/automation/AuQA/Testcases/moveReports.robot
-/home/fc/automation/AuQA/ExternalKeywords/sendemail.py</t>
+    <t>SendEmail</t>
+  </si>
+  <si>
+    <t>sudo python3 ExternalKeywords/sendemail.py &lt;name of the suite executed&gt;
+e.g. sudo python3 ExternalKeywords/sendemail.py thursdaysuite</t>
+  </si>
+  <si>
+    <t>CombineReports</t>
+  </si>
+  <si>
+    <t>robot --outputdir Reports/cleanReports --output cleanReports.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/cleanReports.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Guard1_Imputes-test' --reporttitle "BasicHotAbsoluteGuard" --outputdir Reports --output basichotGuard.xml --variable environment:config37 -v groupname:Imputes-test -T /home/fc/automation/AuQA/Testcases/GuardTests/basicHotAbsoluteGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Guard2_Imputes-test' --reporttitle "DeadSensorGuard" --outputdir Reports --output deadSensorGuard.xml --variable environment:config37 -v groupname:Imputes-test -T /home/fc/automation/AuQA/Testcases/GuardTests/deadSensorGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Guard3_General-test' --reporttitle "HotGuard" --outputdir Reports --output hotGuard.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/GuardTests/hotGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Guard4_General-test' --reporttitle "GuardOrderMIX" --outputdir Reports --output guardOrderMIX.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/GuardTests/guardOrderMIXTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Override1_General-test' --reporttitle "VXOverrideUIvalues" --outputdir Reports --output vxOverrideUIvalues.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/OverrideTests/vxOverrideUIvaluesTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvaluesTest.xml</t>
+  </si>
+  <si>
+    <t>robot --outputdir Reports/cleanReports --output moveReports.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/moveReports.robot</t>
   </si>
 </sst>
 </file>
@@ -714,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -779,7 +788,12 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1077,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3008,16 +3022,16 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3028,68 +3042,76 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="58">
       <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58">
       <c r="A4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="43.5">
       <c r="A5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="58">
       <c r="A6" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="58">
       <c r="A7" s="21" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58">
+      <c r="A8" s="21" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="B8" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29">
       <c r="A9" s="21" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29">
+      <c r="A10" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5BBF3-660D-410C-A1C2-071BEAFBAEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7D4BF-956A-48C0-A73C-A6C4A997F313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,9 +601,6 @@
     <t>CombineReports</t>
   </si>
   <si>
-    <t>robot --outputdir Reports/cleanReports --output cleanReports.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/cleanReports.robot</t>
-  </si>
-  <si>
     <t>sudo pabot --pabotlib --processes 2 --name 'Guard1_Imputes-test' --reporttitle "BasicHotAbsoluteGuard" --outputdir Reports --output basichotGuard.xml --variable environment:config37 -v groupname:Imputes-test -T /home/fc/automation/AuQA/Testcases/GuardTests/basicHotAbsoluteGuardTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
   </si>
   <si>
@@ -619,10 +616,13 @@
     <t>sudo pabot --pabotlib --processes 2 --name 'Override1_General-test' --reporttitle "VXOverrideUIvalues" --outputdir Reports --output vxOverrideUIvalues.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/OverrideTests/vxOverrideUIvaluesTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
   </si>
   <si>
-    <t>rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvaluesTest.xml</t>
-  </si>
-  <si>
-    <t>robot --outputdir Reports/cleanReports --output moveReports.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/moveReports.robot</t>
+    <t>sudo robot --outputdir Reports/cleanReports --output cleanReports.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/cleanReports.robot</t>
+  </si>
+  <si>
+    <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvaluesTest.xml</t>
+  </si>
+  <si>
+    <t>sudo robot --outputdir Reports/cleanReports --output moveReports.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/moveReports.robot</t>
   </si>
 </sst>
 </file>
@@ -3024,8 +3024,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3047,7 +3047,7 @@
         <v>180</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
@@ -3055,7 +3055,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58">
@@ -3063,7 +3063,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5">
@@ -3071,7 +3071,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="58">
@@ -3079,7 +3079,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
@@ -3087,7 +3087,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A7D4BF-956A-48C0-A73C-A6C4A997F313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A50490D-C2A9-44D4-AE05-99CD4C127F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -619,10 +619,10 @@
     <t>sudo robot --outputdir Reports/cleanReports --output cleanReports.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/cleanReports.robot</t>
   </si>
   <si>
-    <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvaluesTest.xml</t>
-  </si>
-  <si>
     <t>sudo robot --outputdir Reports/cleanReports --output moveReports.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/moveReports.robot</t>
+  </si>
+  <si>
+    <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml</t>
   </si>
 </sst>
 </file>
@@ -3025,7 +3025,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3095,7 +3095,7 @@
         <v>184</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
@@ -3103,7 +3103,7 @@
         <v>181</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A50490D-C2A9-44D4-AE05-99CD4C127F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02AA4E1-CC0C-4BC0-B38F-4922E4E6AF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="204">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -580,9 +580,6 @@
   </si>
   <si>
     <t>Test performed on environment 91</t>
-  </si>
-  <si>
-    <t>commands</t>
   </si>
   <si>
     <t>CleanReports</t>
@@ -623,6 +620,42 @@
   </si>
   <si>
     <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml</t>
+  </si>
+  <si>
+    <t>commands to be executed from AuQA folder</t>
+  </si>
+  <si>
+    <t>suite execution commands</t>
+  </si>
+  <si>
+    <t>sudo chmod 775 tuesdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>sudo sh tuesdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>sudo chmod 775 wednesdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>sudo sh wednesdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>sudo chmod 775 thursdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>sudo sh thursdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>tuesdayexecutesuite</t>
+  </si>
+  <si>
+    <t>suitename</t>
+  </si>
+  <si>
+    <t>wednesdayexecutesuite</t>
+  </si>
+  <si>
+    <t>thursdayexecutesuite</t>
   </si>
 </sst>
 </file>
@@ -3022,15 +3055,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="123.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3039,15 +3072,15 @@
         <v>83</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
@@ -3055,7 +3088,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58">
@@ -3063,7 +3096,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5">
@@ -3071,7 +3104,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="58">
@@ -3079,7 +3112,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
@@ -3087,31 +3120,89 @@
         <v>168</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>183</v>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02AA4E1-CC0C-4BC0-B38F-4922E4E6AF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4185D9C-D08A-4DA9-A664-AE0047ADA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="201">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -628,24 +628,6 @@
     <t>suite execution commands</t>
   </si>
   <si>
-    <t>sudo chmod 775 tuesdayexecutesuite.sh</t>
-  </si>
-  <si>
-    <t>sudo sh tuesdayexecutesuite.sh</t>
-  </si>
-  <si>
-    <t>sudo chmod 775 wednesdayexecutesuite.sh</t>
-  </si>
-  <si>
-    <t>sudo sh wednesdayexecutesuite.sh</t>
-  </si>
-  <si>
-    <t>sudo chmod 775 thursdayexecutesuite.sh</t>
-  </si>
-  <si>
-    <t>sudo sh thursdayexecutesuite.sh</t>
-  </si>
-  <si>
     <t>tuesdayexecutesuite</t>
   </si>
   <si>
@@ -656,6 +638,18 @@
   </si>
   <si>
     <t>thursdayexecutesuite</t>
+  </si>
+  <si>
+    <t>sudo chmod 775 tuesdayexecutesuite.sh
+sudo sh tuesdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>sudo chmod 775 wednesdayexecutesuite.sh
+sudo sh wednesdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>sudo chmod 775 thursdayexecutesuite.sh
+sudo sh thursdayexecutesuite.sh</t>
   </si>
 </sst>
 </file>
@@ -756,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -817,14 +811,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2611,7 +2611,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -3055,157 +3057,138 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.36328125" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="58">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>182</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+    </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:2" ht="29">
+      <c r="A13" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29">
+      <c r="A14" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29">
+      <c r="A15" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21" t="s">
-        <v>199</v>
-      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4185D9C-D08A-4DA9-A664-AE0047ADA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B51A1E-9244-4A45-B176-E5831E836CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
     <sheet name="overrideTest" sheetId="7" r:id="rId2"/>
     <sheet name="tuesdaysuite" sheetId="8" r:id="rId3"/>
-    <sheet name="thursdaysuite" sheetId="2" r:id="rId4"/>
-    <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
+    <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
+    <sheet name="thursdaysuite" sheetId="2" r:id="rId5"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
     <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="205">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -650,6 +650,18 @@
   <si>
     <t>sudo chmod 775 thursdayexecutesuite.sh
 sudo sh thursdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>rumode</t>
   </si>
 </sst>
 </file>
@@ -750,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -826,6 +838,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,7 +1125,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1742,7 +1759,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1968,317 +1987,350 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="15"/>
+    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.5">
+    <row r="3" spans="1:10" ht="43.5">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29">
+    <row r="4" spans="1:10" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:10" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:10" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29">
+    <row r="7" spans="1:10" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="87">
+    <row r="8" spans="1:10" ht="87">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2A443C34-7F60-4D1A-BEE9-2B2B19B10624}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{A3AF2C92-0953-4D86-9DBA-F4C811F9BD2A}">
           <x14:formula1>
             <xm:f>commandinputdata!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{7F8D7859-404D-4475-BC34-50E3A878DCA3}">
           <x14:formula1>
             <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{115AFEBA-9626-4203-AD1B-AAF35A5B2992}">
           <x14:formula1>
             <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{A8E9437C-6530-4719-A1E0-546D00E7EB7B}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G9 G2:G7</xm:sqref>
+          <xm:sqref>H9 H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
           <x14:formula1>
             <xm:f>commandinputdata!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{98B96F75-8CE1-40CB-8870-67B1472C5745}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H7</xm:sqref>
+          <xm:sqref>I3:I7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EEF3ED2-772E-4D4C-844E-E25E0DF81A1E}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2287,318 +2339,351 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.54296875" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="15"/>
+    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:10" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="H3" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29">
+    <row r="4" spans="1:10" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="H4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:10" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:10" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29">
+    <row r="7" spans="1:10" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="H7" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="72.5">
+    <row r="8" spans="1:10" ht="87">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>130</v>
-      </c>
       <c r="E8" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3:I7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G9 G2:G7</xm:sqref>
+          <xm:sqref>H2:H7 H9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>H3:H7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
             <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{99006B66-5319-4228-9A35-20FD2B871684}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{D257DA1F-4547-4F03-B5ED-86D07266A34D}">
           <x14:formula1>
             <xm:f>commandinputdata!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{9DE73CB4-AA26-4992-B3DB-24991CC26994}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{59FBF960-3AF9-463F-BCCC-BA4A02F826D1}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{52B3BB8D-3345-4BB6-9F42-4D8F793B1B5F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{691E72CF-6304-4912-856A-BD3B2655C4F5}">
           <x14:formula1>
             <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{CE23025F-FF9C-4521-9EEB-D8CCE3E79E93}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{438E4B38-BE5A-437C-9824-EF1D4461DD68}">
           <x14:formula1>
             <xm:f>commandinputdata!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>D7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE359760-DBB1-446F-9D96-28A7C4B1C13D}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2607,318 +2692,353 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.81640625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="15"/>
+    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29">
+    <row r="3" spans="1:10" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="H3" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="29">
+    <row r="4" spans="1:10" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="H4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29">
+    <row r="5" spans="1:10" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29">
+    <row r="6" spans="1:10" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29">
+    <row r="7" spans="1:10" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="H7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="87">
+    <row r="8" spans="1:10" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>134</v>
-      </c>
       <c r="E8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H9 H2:H7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H7</xm:sqref>
+          <xm:sqref>I3:I7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G7 G9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
           <x14:formula1>
             <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{D257DA1F-4547-4F03-B5ED-86D07266A34D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{99006B66-5319-4228-9A35-20FD2B871684}">
           <x14:formula1>
             <xm:f>commandinputdata!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{59FBF960-3AF9-463F-BCCC-BA4A02F826D1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{9DE73CB4-AA26-4992-B3DB-24991CC26994}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{691E72CF-6304-4912-856A-BD3B2655C4F5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{52B3BB8D-3345-4BB6-9F42-4D8F793B1B5F}">
           <x14:formula1>
             <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{438E4B38-BE5A-437C-9824-EF1D4461DD68}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{CE23025F-FF9C-4521-9EEB-D8CCE3E79E93}">
           <x14:formula1>
             <xm:f>commandinputdata!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>D7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5126730B-CD13-4170-97B7-B0ACEDBDE549}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2929,11 +3049,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2945,7 +3065,7 @@
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -2967,8 +3087,11 @@
       <c r="G1" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
@@ -2990,8 +3113,11 @@
       <c r="G2" s="17" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -3013,8 +3139,11 @@
       <c r="G3" s="17" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -3037,18 +3166,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3059,8 +3187,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B51A1E-9244-4A45-B176-E5831E836CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3BF7FA-DFC8-43CC-8580-51771EEC355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1989,8 +1989,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2279,6 +2279,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2344,7 +2345,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2633,6 +2634,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2696,8 +2698,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2751,7 +2753,7 @@
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>202</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2777,8 +2779,8 @@
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>203</v>
+      <c r="B3" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2809,8 +2811,8 @@
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>203</v>
+      <c r="B4" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2841,8 +2843,8 @@
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>203</v>
+      <c r="B5" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2873,8 +2875,8 @@
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>203</v>
+      <c r="B6" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -2905,8 +2907,8 @@
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>203</v>
+      <c r="B7" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2937,7 +2939,7 @@
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="29" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -2963,7 +2965,7 @@
       <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="29" t="s">
         <v>202</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2986,6 +2988,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3053,7 +3056,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3177,6 +3180,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3187,8 +3191,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3BF7FA-DFC8-43CC-8580-51771EEC355D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B7820-4730-4188-A653-819AFD3927B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="204">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -659,9 +659,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>rumode</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1986,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3054,9 +3051,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3091,7 +3088,7 @@
         <v>169</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4185D9C-D08A-4DA9-A664-AE0047ADA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D267FAD-1B8C-4B8B-B59A-A2164A0E1E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
     <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
+    <sheet name="popuptitlesmessages" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="207">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -650,6 +651,24 @@
   <si>
     <t>sudo chmod 775 thursdayexecutesuite.sh
 sudo sh thursdayexecutesuite.sh</t>
+  </si>
+  <si>
+    <t>suppress_alarm_popup_message</t>
+  </si>
+  <si>
+    <t>Please select an alarm first.</t>
+  </si>
+  <si>
+    <t>Suppress Alarm</t>
+  </si>
+  <si>
+    <t>popuptitle/popupmessage</t>
+  </si>
+  <si>
+    <t>popups</t>
+  </si>
+  <si>
+    <t>suppress_alarm_popup_title</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1129,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3059,7 +3080,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3191,4 +3212,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108BB906-91ED-4BDB-B015-F36D7FC53867}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="29.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B7820-4730-4188-A653-819AFD3927B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E65ED6-BE89-41BC-8AD4-B0D644C79DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="207">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -571,9 +571,6 @@
   </si>
   <si>
     <t>vxOverrideUIvalues.xml</t>
-  </si>
-  <si>
-    <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml/vxOverrideUIvalues.xml</t>
   </si>
   <si>
     <t>VXOverrideUIvalues</t>
@@ -659,6 +656,18 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>wednesdaysuite</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>thursdaysuite</t>
+  </si>
+  <si>
+    <t>tuesdaysuite</t>
   </si>
 </sst>
 </file>
@@ -721,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -755,11 +764,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -838,6 +867,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,7 +2025,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2010,7 +2048,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>90</v>
@@ -2042,7 +2080,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>124</v>
@@ -2068,7 +2106,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2100,7 +2138,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2132,7 +2170,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2164,7 +2202,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -2196,7 +2234,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2205,7 +2243,7 @@
         <v>170</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>104</v>
@@ -2223,12 +2261,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="87">
+    <row r="8" spans="1:10" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>121</v>
@@ -2237,13 +2275,14 @@
         <v>173</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>176</v>
+      <c r="G8" s="17" t="str">
+        <f>commandinputdata!$T$1</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -2254,7 +2293,7 @@
         <v>120</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>124</v>
@@ -2276,7 +2315,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2342,7 +2380,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2365,7 +2403,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>90</v>
@@ -2397,7 +2435,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>124</v>
@@ -2423,7 +2461,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2455,7 +2493,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2487,7 +2525,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2519,7 +2557,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -2551,7 +2589,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2560,7 +2598,7 @@
         <v>170</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>104</v>
@@ -2583,7 +2621,7 @@
         <v>119</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>121</v>
@@ -2597,8 +2635,9 @@
       <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>176</v>
+      <c r="G8" s="17" t="str">
+        <f>commandinputdata!$L$1</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -2609,7 +2648,7 @@
         <v>120</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>124</v>
@@ -2696,7 +2735,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2719,7 +2758,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>90</v>
@@ -2751,7 +2790,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>124</v>
@@ -2777,7 +2816,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2809,7 +2848,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2841,7 +2880,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2873,7 +2912,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -2905,7 +2944,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2914,7 +2953,7 @@
         <v>170</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>104</v>
@@ -2932,12 +2971,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="72.5">
+    <row r="8" spans="1:10" ht="58">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>121</v>
@@ -2951,8 +2990,9 @@
       <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>176</v>
+      <c r="G8" s="17" t="str">
+        <f>commandinputdata!$P$1</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -2963,7 +3003,7 @@
         <v>120</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>124</v>
@@ -3049,11 +3089,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3063,9 +3103,12 @@
     <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" customWidth="1"/>
+    <col min="14" max="14" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:20">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -3088,10 +3131,34 @@
         <v>169</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="21" t="str">
+        <f>$J$3&amp;$K$4&amp;$J$4&amp;$K$5&amp;$J$5&amp;$K$6&amp;$J$6&amp;$K$7&amp;$J$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="31"/>
+      <c r="P1" s="21" t="str">
+        <f>$N$3&amp;$O$4&amp;$N$4&amp;$O$5&amp;$N$5&amp;$O$6&amp;$N$6&amp;$O$7&amp;$N$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="21" t="str">
+        <f>$R$3&amp;$S$4&amp;$R$4&amp;$S$5&amp;$R$5&amp;$S$6&amp;$R$6&amp;$S$7&amp;$R$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
@@ -3114,10 +3181,28 @@
         <v>170</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -3140,10 +3225,22 @@
         <v>171</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>202</v>
+      </c>
+      <c r="J3" s="21" t="str">
+        <f>IF(wednesdaysuite!$B$3="Yes",wednesdaysuite!$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="N3" s="21" t="str">
+        <f>IF(thursdaysuite!$B$3="Yes",thursdaysuite!$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="R3" s="21" t="str">
+        <f>IF(tuesdaysuite!$B$3="Yes",tuesdaysuite!$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -3165,19 +3262,121 @@
       <c r="G4" s="17" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="21" t="str">
+        <f>IF(wednesdaysuite!$B$4="Yes",wednesdaysuite!$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="K4" s="32" t="str">
+        <f>IF(AND($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml"),"/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="N4" s="21" t="str">
+        <f>IF(thursdaysuite!$B$4="Yes",thursdaysuite!$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="O4" s="32" t="str">
+        <f>IF(AND($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml"),"/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="R4" s="21" t="str">
+        <f>IF(tuesdaysuite!$B$4="Yes",tuesdaysuite!$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="S4" s="32" t="str">
+        <f>IF(AND($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml"),"/", "")</f>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="21" t="str">
+        <f>IF(wednesdaysuite!$B$5="Yes",wednesdaysuite!$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="K5" s="32" t="str">
+        <f>IF(AND($J$5="hotGuard.xml", OR($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="N5" s="21" t="str">
+        <f>IF(thursdaysuite!$B$5="Yes",thursdaysuite!$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="O5" s="32" t="str">
+        <f>IF(AND($J$5="hotGuard.xml", OR($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="R5" s="21" t="str">
+        <f>IF(tuesdaysuite!$B$5="Yes",tuesdaysuite!$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="S5" s="32" t="str">
+        <f>IF(AND($J$5="hotGuard.xml", OR($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="J6" s="21" t="str">
+        <f>IF(wednesdaysuite!$B$6="Yes",wednesdaysuite!$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(AND($J$6="guardOrderMIX.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f>IF(thursdaysuite!$B$6="Yes",thursdaysuite!$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="O6" t="str">
+        <f>IF(AND($J$6="guardOrderMIX.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="R6" s="21" t="str">
+        <f>IF(tuesdaysuite!$B$6="Yes",tuesdaysuite!$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="S6" t="str">
+        <f>IF(AND($J$6="guardOrderMIX.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="J7" s="21" t="str">
+        <f>IF(wednesdaysuite!$B$7="Yes",wednesdaysuite!$G$7,"")</f>
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(AND($J$7="vxOverrideUIvalues.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f>IF(thursdaysuite!$B$7="Yes",thursdaysuite!$G$7,"")</f>
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(AND($J$7="vxOverrideUIvalues.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="R7" s="21" t="str">
+        <f>IF(tuesdaysuite!$B$7="Yes",tuesdaysuite!$G$7,"")</f>
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="S7" t="str">
+        <f>IF(AND($J$7="vxOverrideUIvalues.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3204,15 +3403,15 @@
         <v>83</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
@@ -3220,7 +3419,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58">
@@ -3228,7 +3427,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5">
@@ -3236,7 +3435,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="58">
@@ -3244,7 +3443,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
@@ -3252,31 +3451,31 @@
         <v>168</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3285,34 +3484,34 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
       <c r="A13" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29">
       <c r="A14" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29">
       <c r="A15" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E65ED6-BE89-41BC-8AD4-B0D644C79DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3797CE69-2CD8-44BA-AC71-C2DE5B13324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -868,14 +868,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2461,7 +2461,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2493,7 +2493,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2525,7 +2525,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2616,7 +2616,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="87">
+    <row r="8" spans="1:10" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="G8" s="17" t="str">
         <f>commandinputdata!$L$1</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <v>guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -2670,7 +2670,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2734,8 +2733,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2880,7 +2879,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2971,7 +2970,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="58">
+    <row r="8" spans="1:10" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
@@ -2992,7 +2991,7 @@
       </c>
       <c r="G8" s="17" t="str">
         <f>commandinputdata!$P$1</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -3025,7 +3024,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3091,9 +3089,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3133,26 +3131,26 @@
       <c r="H1" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="31"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="21" t="str">
         <f>$J$3&amp;$K$4&amp;$J$4&amp;$K$5&amp;$J$5&amp;$K$6&amp;$J$6&amp;$K$7&amp;$J$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="N1" s="30" t="s">
+        <v>guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="N1" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="O1" s="31"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="21" t="str">
         <f>$N$3&amp;$O$4&amp;$N$4&amp;$O$5&amp;$N$5&amp;$O$6&amp;$N$6&amp;$O$7&amp;$N$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="R1" s="30" t="s">
+        <v>basichotGuard.xml/deadSensorGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="R1" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="S1" s="31"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="21" t="str">
         <f>$R$3&amp;$S$4&amp;$R$4&amp;$S$5&amp;$R$5&amp;$S$6&amp;$R$6&amp;$S$7&amp;$R$7</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
@@ -3229,7 +3227,7 @@
       </c>
       <c r="J3" s="21" t="str">
         <f>IF(wednesdaysuite!$B$3="Yes",wednesdaysuite!$G$3,"")</f>
-        <v>basichotGuard.xml</v>
+        <v/>
       </c>
       <c r="N3" s="21" t="str">
         <f>IF(thursdaysuite!$B$3="Yes",thursdaysuite!$G$3,"")</f>
@@ -3264,26 +3262,26 @@
       </c>
       <c r="J4" s="21" t="str">
         <f>IF(wednesdaysuite!$B$4="Yes",wednesdaysuite!$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
-      </c>
-      <c r="K4" s="32" t="str">
-        <f>IF(AND($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml"),"/", "")</f>
-        <v>/</v>
+        <v/>
+      </c>
+      <c r="K4" s="30" t="str">
+        <f>IF(AND($J$4="deadSensorGuard.xml",$J$3="basichotGuard.xml"),"/", "")</f>
+        <v/>
       </c>
       <c r="N4" s="21" t="str">
         <f>IF(thursdaysuite!$B$4="Yes",thursdaysuite!$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="O4" s="32" t="str">
-        <f>IF(AND($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml"),"/", "")</f>
+      <c r="O4" s="30" t="str">
+        <f>IF(AND($N$4="deadSensorGuard.xml",$N$3="basichotGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
       <c r="R4" s="21" t="str">
         <f>IF(tuesdaysuite!$B$4="Yes",tuesdaysuite!$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="S4" s="32" t="str">
-        <f>IF(AND($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml"),"/", "")</f>
+      <c r="S4" s="30" t="str">
+        <f>IF(AND($R$4="deadSensorGuard.xml",$R$3="basichotGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
     </row>
@@ -3293,26 +3291,26 @@
       </c>
       <c r="J5" s="21" t="str">
         <f>IF(wednesdaysuite!$B$5="Yes",wednesdaysuite!$G$5,"")</f>
-        <v>hotGuard.xml</v>
-      </c>
-      <c r="K5" s="32" t="str">
+        <v/>
+      </c>
+      <c r="K5" s="30" t="str">
         <f>IF(AND($J$5="hotGuard.xml", OR($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="N5" s="21" t="str">
         <f>IF(thursdaysuite!$B$5="Yes",thursdaysuite!$G$5,"")</f>
-        <v>hotGuard.xml</v>
-      </c>
-      <c r="O5" s="32" t="str">
-        <f>IF(AND($J$5="hotGuard.xml", OR($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
+        <v/>
+      </c>
+      <c r="O5" s="30" t="str">
+        <f>IF(AND($N$5="hotGuard.xml", OR($N$3="basichotGuard.xml",$N$4="deadSensorGuard.xml")), "/", "")</f>
+        <v/>
       </c>
       <c r="R5" s="21" t="str">
         <f>IF(tuesdaysuite!$B$5="Yes",tuesdaysuite!$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="S5" s="32" t="str">
-        <f>IF(AND($J$5="hotGuard.xml", OR($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml")), "/", "")</f>
+      <c r="S5" s="30" t="str">
+        <f>IF(AND($R$5="hotGuard.xml", OR($R$3="basichotGuard.xml",$R$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
     </row>
@@ -3326,14 +3324,14 @@
       </c>
       <c r="K6" t="str">
         <f>IF(AND($J$6="guardOrderMIX.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="N6" s="21" t="str">
         <f>IF(thursdaysuite!$B$6="Yes",thursdaysuite!$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
       <c r="O6" t="str">
-        <f>IF(AND($J$6="guardOrderMIX.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <f>IF(AND($N$6="guardOrderMIX.xml", OR($N$3="basichotGuard.xml",OR($N$4="deadSensorGuard.xml",$N$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
       <c r="R6" s="21" t="str">
@@ -3341,7 +3339,7 @@
         <v>guardOrderMIX.xml</v>
       </c>
       <c r="S6" t="str">
-        <f>IF(AND($J$6="guardOrderMIX.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <f>IF(AND($R$6="guardOrderMIX.xml", OR($R$3="basichotGuard.xml",OR($R$4="deadSensorGuard.xml",$R$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
     </row>
@@ -3351,7 +3349,7 @@
         <v>vxOverrideUIvalues.xml</v>
       </c>
       <c r="K7" t="str">
-        <f>IF(AND($J$7="vxOverrideUIvalues.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <f>IF(AND($J$7="vxOverrideUIvalues.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",OR($J$5="hotGuard.xml",$J$6="guardOrderMIX.xml")))), "/", "")</f>
         <v>/</v>
       </c>
       <c r="N7" s="21" t="str">
@@ -3359,7 +3357,7 @@
         <v>vxOverrideUIvalues.xml</v>
       </c>
       <c r="O7" t="str">
-        <f>IF(AND($J$7="vxOverrideUIvalues.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <f>IF(AND($N$7="vxOverrideUIvalues.xml", OR($N$3="basichotGuard.xml",OR($N$4="deadSensorGuard.xml",OR($N$5="hotGuard.xml",$N$6="guardOrderMIX.xml")))), "/", "")</f>
         <v>/</v>
       </c>
       <c r="R7" s="21" t="str">
@@ -3367,7 +3365,7 @@
         <v>vxOverrideUIvalues.xml</v>
       </c>
       <c r="S7" t="str">
-        <f>IF(AND($J$7="vxOverrideUIvalues.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
+        <f>IF(AND($R$7="vxOverrideUIvalues.xml", OR($R$3="basichotGuard.xml",OR($R$4="deadSensorGuard.xml",OR($R$5="hotGuard.xml",$R$6="guardOrderMIX.xml")))), "/", "")</f>
         <v>/</v>
       </c>
     </row>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3797CE69-2CD8-44BA-AC71-C2DE5B13324D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CA393B-6236-47EA-B7DC-CE638B5938E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="205">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -658,16 +658,10 @@
     <t>no</t>
   </si>
   <si>
-    <t>wednesdaysuite</t>
-  </si>
-  <si>
     <t>slash</t>
   </si>
   <si>
-    <t>thursdaysuite</t>
-  </si>
-  <si>
-    <t>tuesdaysuite</t>
+    <t>outputxml</t>
   </si>
 </sst>
 </file>
@@ -730,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -764,31 +758,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -868,14 +842,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2022,10 +1993,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2040,10 +2011,14 @@
     <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="15"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
@@ -2074,8 +2049,17 @@
       <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="M1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
@@ -2100,8 +2084,14 @@
       <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.5">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="21" t="str">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.5">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2132,8 +2122,14 @@
       <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="29">
+      <c r="M3" s="21" t="str">
+        <f>IF($B$3="Yes",$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2164,8 +2160,17 @@
       <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="29">
+      <c r="M4" s="21" t="str">
+        <f>IF($B$4="Yes",$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="N4" s="31" t="str">
+        <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -2196,8 +2201,17 @@
       <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="29">
+      <c r="M5" s="21" t="str">
+        <f>IF($B$5="Yes",$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="N5" s="31" t="str">
+        <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -2228,13 +2242,22 @@
       <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="29">
+      <c r="M6" s="21" t="str">
+        <f>IF($B$6="Yes",$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2260,8 +2283,17 @@
       <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="72.5">
+      <c r="M7" s="21" t="str">
+        <f>IF($B$7="Yes",$G$7,"")</f>
+        <v/>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
+        <v/>
+      </c>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
@@ -2281,14 +2313,14 @@
         <v>104</v>
       </c>
       <c r="G8" s="17" t="str">
-        <f>commandinputdata!$T$1</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
@@ -2315,6 +2347,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2377,7 +2410,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -2387,18 +2420,22 @@
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="15"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
@@ -2429,8 +2466,17 @@
       <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="M1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
@@ -2455,8 +2501,14 @@
       <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="29">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="21" t="str">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
+        <v>hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2487,8 +2539,14 @@
       <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="29">
+      <c r="M3" s="21" t="str">
+        <f>IF($B$3="Yes",$G$3,"")</f>
+        <v/>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2519,13 +2577,22 @@
       <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="29">
+      <c r="M4" s="21" t="str">
+        <f>IF($B$4="Yes",$G$4,"")</f>
+        <v/>
+      </c>
+      <c r="N4" s="31" t="str">
+        <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
+        <v/>
+      </c>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2551,8 +2618,17 @@
       <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="29">
+      <c r="M5" s="21" t="str">
+        <f>IF($B$5="Yes",$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="N5" s="31" t="str">
+        <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
+        <v/>
+      </c>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -2583,8 +2659,17 @@
       <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="29">
+      <c r="M6" s="21" t="str">
+        <f>IF($B$6="Yes",$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -2615,8 +2700,17 @@
       <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="72.5">
+      <c r="M7" s="21" t="str">
+        <f>IF($B$7="Yes",$G$7,"")</f>
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" ht="43.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
@@ -2636,14 +2730,14 @@
         <v>104</v>
       </c>
       <c r="G8" s="17" t="str">
-        <f>commandinputdata!$L$1</f>
-        <v>guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <f>$O$2</f>
+        <v>hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
@@ -2670,7 +2764,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -2731,10 +2827,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2749,10 +2845,14 @@
     <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="15"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
@@ -2783,8 +2883,17 @@
       <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="M1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
@@ -2809,8 +2918,14 @@
       <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="29">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="21" t="str">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2841,8 +2956,14 @@
       <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="29">
+      <c r="M3" s="21" t="str">
+        <f>IF($B$3="Yes",$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2873,13 +2994,22 @@
       <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="29">
+      <c r="M4" s="21" t="str">
+        <f>IF($B$4="Yes",$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="N4" s="31" t="str">
+        <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2905,8 +3035,17 @@
       <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="29">
+      <c r="M5" s="21" t="str">
+        <f>IF($B$5="Yes",$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="N5" s="31" t="str">
+        <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -2937,8 +3076,17 @@
       <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="29">
+      <c r="M6" s="21" t="str">
+        <f>IF($B$6="Yes",$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -2969,8 +3117,17 @@
       <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="72.5">
+      <c r="M7" s="21" t="str">
+        <f>IF($B$7="Yes",$G$7,"")</f>
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
@@ -2990,14 +3147,14 @@
         <v>104</v>
       </c>
       <c r="G8" s="17" t="str">
-        <f>commandinputdata!$P$1</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
@@ -3024,6 +3181,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3087,11 +3245,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3101,12 +3259,9 @@
     <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" customWidth="1"/>
-    <col min="14" max="14" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -3131,32 +3286,8 @@
       <c r="H1" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="21" t="str">
-        <f>$J$3&amp;$K$4&amp;$J$4&amp;$K$5&amp;$J$5&amp;$K$6&amp;$J$6&amp;$K$7&amp;$J$7</f>
-        <v>guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="21" t="str">
-        <f>$N$3&amp;$O$4&amp;$N$4&amp;$O$5&amp;$N$5&amp;$O$6&amp;$N$6&amp;$O$7&amp;$N$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="21" t="str">
-        <f>$R$3&amp;$S$4&amp;$R$4&amp;$S$5&amp;$R$5&amp;$S$6&amp;$R$6&amp;$S$7&amp;$R$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
@@ -3181,26 +3312,8 @@
       <c r="H2" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -3225,20 +3338,8 @@
       <c r="H3" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="J3" s="21" t="str">
-        <f>IF(wednesdaysuite!$B$3="Yes",wednesdaysuite!$G$3,"")</f>
-        <v/>
-      </c>
-      <c r="N3" s="21" t="str">
-        <f>IF(thursdaysuite!$B$3="Yes",thursdaysuite!$G$3,"")</f>
-        <v>basichotGuard.xml</v>
-      </c>
-      <c r="R3" s="21" t="str">
-        <f>IF(tuesdaysuite!$B$3="Yes",tuesdaysuite!$G$3,"")</f>
-        <v>basichotGuard.xml</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -3260,121 +3361,19 @@
       <c r="G4" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="21" t="str">
-        <f>IF(wednesdaysuite!$B$4="Yes",wednesdaysuite!$G$4,"")</f>
-        <v/>
-      </c>
-      <c r="K4" s="30" t="str">
-        <f>IF(AND($J$4="deadSensorGuard.xml",$J$3="basichotGuard.xml"),"/", "")</f>
-        <v/>
-      </c>
-      <c r="N4" s="21" t="str">
-        <f>IF(thursdaysuite!$B$4="Yes",thursdaysuite!$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
-      </c>
-      <c r="O4" s="30" t="str">
-        <f>IF(AND($N$4="deadSensorGuard.xml",$N$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="R4" s="21" t="str">
-        <f>IF(tuesdaysuite!$B$4="Yes",tuesdaysuite!$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
-      </c>
-      <c r="S4" s="30" t="str">
-        <f>IF(AND($R$4="deadSensorGuard.xml",$R$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J5" s="21" t="str">
-        <f>IF(wednesdaysuite!$B$5="Yes",wednesdaysuite!$G$5,"")</f>
-        <v/>
-      </c>
-      <c r="K5" s="30" t="str">
-        <f>IF(AND($J$5="hotGuard.xml", OR($J$3="basichotGuard.xml",$J$4="deadSensorGuard.xml")), "/", "")</f>
-        <v/>
-      </c>
-      <c r="N5" s="21" t="str">
-        <f>IF(thursdaysuite!$B$5="Yes",thursdaysuite!$G$5,"")</f>
-        <v/>
-      </c>
-      <c r="O5" s="30" t="str">
-        <f>IF(AND($N$5="hotGuard.xml", OR($N$3="basichotGuard.xml",$N$4="deadSensorGuard.xml")), "/", "")</f>
-        <v/>
-      </c>
-      <c r="R5" s="21" t="str">
-        <f>IF(tuesdaysuite!$B$5="Yes",tuesdaysuite!$G$5,"")</f>
-        <v>hotGuard.xml</v>
-      </c>
-      <c r="S5" s="30" t="str">
-        <f>IF(AND($R$5="hotGuard.xml", OR($R$3="basichotGuard.xml",$R$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="21" t="str">
-        <f>IF(wednesdaysuite!$B$6="Yes",wednesdaysuite!$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
-      </c>
-      <c r="K6" t="str">
-        <f>IF(AND($J$6="guardOrderMIX.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",$J$5="hotGuard.xml"))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="N6" s="21" t="str">
-        <f>IF(thursdaysuite!$B$6="Yes",thursdaysuite!$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
-      </c>
-      <c r="O6" t="str">
-        <f>IF(AND($N$6="guardOrderMIX.xml", OR($N$3="basichotGuard.xml",OR($N$4="deadSensorGuard.xml",$N$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="R6" s="21" t="str">
-        <f>IF(tuesdaysuite!$B$6="Yes",tuesdaysuite!$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
-      </c>
-      <c r="S6" t="str">
-        <f>IF(AND($R$6="guardOrderMIX.xml", OR($R$3="basichotGuard.xml",OR($R$4="deadSensorGuard.xml",$R$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="J7" s="21" t="str">
-        <f>IF(wednesdaysuite!$B$7="Yes",wednesdaysuite!$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="K7" t="str">
-        <f>IF(AND($J$7="vxOverrideUIvalues.xml", OR($J$3="basichotGuard.xml",OR($J$4="deadSensorGuard.xml",OR($J$5="hotGuard.xml",$J$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="N7" s="21" t="str">
-        <f>IF(thursdaysuite!$B$7="Yes",thursdaysuite!$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="O7" t="str">
-        <f>IF(AND($N$7="vxOverrideUIvalues.xml", OR($N$3="basichotGuard.xml",OR($N$4="deadSensorGuard.xml",OR($N$5="hotGuard.xml",$N$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="R7" s="21" t="str">
-        <f>IF(tuesdaysuite!$B$7="Yes",tuesdaysuite!$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="S7" t="str">
-        <f>IF(AND($R$7="vxOverrideUIvalues.xml", OR($R$3="basichotGuard.xml",OR($R$4="deadSensorGuard.xml",OR($R$5="hotGuard.xml",$R$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
-  </mergeCells>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3385,9 +3384,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CA393B-6236-47EA-B7DC-CE638B5938E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B459A9-30DC-49F5-BA5F-799504307998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="206">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>outputxml</t>
+  </si>
+  <si>
+    <t>combineoutputxml</t>
   </si>
 </sst>
 </file>
@@ -1995,8 +1998,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2050,13 +2053,13 @@
         <v>98</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>203</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2293,7 +2296,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="72.5">
+    <row r="8" spans="1:15" ht="58">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
@@ -2412,8 +2415,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2467,13 +2470,13 @@
         <v>98</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>203</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2829,8 +2832,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2884,13 +2887,13 @@
         <v>98</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>203</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:15">

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B459A9-30DC-49F5-BA5F-799504307998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC08545A-7F3E-4F39-8ADE-CE64CC3434D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1998,8 +1998,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2091,7 +2091,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2260,7 +2260,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2288,11 +2288,11 @@
       </c>
       <c r="M7" s="21" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v/>
+        <v>vxOverrideUIvalues.xml</v>
       </c>
       <c r="N7" s="21" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G8" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -2415,8 +2415,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2508,7 +2508,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
-        <v>hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -2516,7 +2516,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="M3" s="21" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v/>
+        <v>basichotGuard.xml</v>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
@@ -2554,7 +2554,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2582,11 +2582,11 @@
       </c>
       <c r="M4" s="21" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
-        <v/>
+        <v>deadSensorGuard.xml</v>
       </c>
       <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O4" s="21"/>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O5" s="21"/>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="G8" s="17" t="str">
         <f>$O$2</f>
-        <v>hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -2832,8 +2832,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D267FAD-1B8C-4B8B-B59A-A2164A0E1E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93A3791-145E-4AB8-B799-66A1155D7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="212">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -669,6 +669,21 @@
   </si>
   <si>
     <t>suppress_alarm_popup_title</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>Popup_name</t>
+  </si>
+  <si>
+    <t>Popups</t>
+  </si>
+  <si>
+    <t>uiPopup.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uiPopupTest.robot/staleStatePrevention.robot </t>
   </si>
 </sst>
 </file>
@@ -1989,10 +2004,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2206,59 +2221,87 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="87">
+    <row r="8" spans="1:9" ht="29">
       <c r="A8" s="20" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>178</v>
+        <v>125</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="87">
+      <c r="A9" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="20" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B10" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2A443C34-7F60-4D1A-BEE9-2B2B19B10624}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
@@ -2287,7 +2330,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G9 G2:G7</xm:sqref>
+          <xm:sqref>G10 G2:G8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
           <x14:formula1>
@@ -2299,7 +2342,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H7</xm:sqref>
+          <xm:sqref>H3:H8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{B54798FB-D8A9-40CA-B2C1-99C8FD6F5C63}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2950,11 +2999,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2963,10 +3012,10 @@
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -2988,8 +3037,11 @@
       <c r="G1" s="22" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
@@ -3011,8 +3063,11 @@
       <c r="G2" s="17" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -3035,7 +3090,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -3058,18 +3113,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3218,7 +3272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108BB906-91ED-4BDB-B015-F36D7FC53867}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93A3791-145E-4AB8-B799-66A1155D7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337B8B2-E300-4E5A-915D-257AC06A7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,10 @@
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
     <sheet name="overrideTest" sheetId="7" r:id="rId2"/>
     <sheet name="tuesdaysuite" sheetId="8" r:id="rId3"/>
-    <sheet name="thursdaysuite" sheetId="2" r:id="rId4"/>
-    <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
+    <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
+    <sheet name="thursdaysuite" sheetId="2" r:id="rId5"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
     <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
-    <sheet name="popuptitlesmessages" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="211">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -572,9 +571,6 @@
   </si>
   <si>
     <t>vxOverrideUIvalues.xml</t>
-  </si>
-  <si>
-    <t>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml /guardOrderMIX.xml/vxOverrideUIvalues.xml</t>
   </si>
   <si>
     <t>VXOverrideUIvalues</t>
@@ -653,37 +649,37 @@
 sudo sh thursdayexecutesuite.sh</t>
   </si>
   <si>
-    <t>suppress_alarm_popup_message</t>
-  </si>
-  <si>
-    <t>Please select an alarm first.</t>
-  </si>
-  <si>
-    <t>Suppress Alarm</t>
-  </si>
-  <si>
-    <t>popuptitle/popupmessage</t>
-  </si>
-  <si>
-    <t>popups</t>
-  </si>
-  <si>
-    <t>suppress_alarm_popup_title</t>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>outputxml</t>
+  </si>
+  <si>
+    <t>combineoutputxml</t>
   </si>
   <si>
     <t>Popup</t>
   </si>
   <si>
-    <t>Popup_name</t>
-  </si>
-  <si>
     <t>Popups</t>
   </si>
   <si>
     <t>uiPopup.xml</t>
   </si>
   <si>
-    <t xml:space="preserve">uiPopupTest.robot/staleStatePrevention.robot </t>
+    <t>pabot --pabotlib --processes 1</t>
+  </si>
+  <si>
+    <t>uiPopupTest.robot</t>
   </si>
 </sst>
 </file>
@@ -784,7 +780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -861,6 +857,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,8 +1156,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1778,7 +1790,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -2004,299 +2018,402 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="15"/>
+    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="M1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.5">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="21" t="str">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.5">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="29">
+      <c r="M3" s="21" t="str">
+        <f>IF($B$3="Yes",$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="29">
+      <c r="M4" s="21" t="str">
+        <f>IF($B$4="Yes",$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="N4" s="31" t="str">
+        <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="29">
+      <c r="M5" s="21" t="str">
+        <f>IF($B$5="Yes",$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="N5" s="31" t="str">
+        <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="29">
+      <c r="M6" s="21" t="str">
+        <f>IF($B$6="Yes",$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="29">
-      <c r="A8" s="20" t="s">
+      <c r="M7" s="21" t="str">
+        <f>IF($B$7="Yes",$G$7,"")</f>
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" ht="29">
+      <c r="A8" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="87">
+      <c r="M8" s="21" t="str">
+        <f>IF($B$8="Yes",$G$8,"")</f>
+        <v>uiPopup.xml</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O8" s="32"/>
+    </row>
+    <row r="9" spans="1:15" ht="72.5">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="E9" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2306,49 +2423,49 @@
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{A3AF2C92-0953-4D86-9DBA-F4C811F9BD2A}">
           <x14:formula1>
             <xm:f>commandinputdata!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{7F8D7859-404D-4475-BC34-50E3A878DCA3}">
           <x14:formula1>
             <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{115AFEBA-9626-4203-AD1B-AAF35A5B2992}">
           <x14:formula1>
             <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{A8E9437C-6530-4719-A1E0-546D00E7EB7B}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G10 G2:G8</xm:sqref>
+          <xm:sqref>H10 H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
           <x14:formula1>
             <xm:f>commandinputdata!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{98B96F75-8CE1-40CB-8870-67B1472C5745}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H8</xm:sqref>
+          <xm:sqref>I3:I7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{B54798FB-D8A9-40CA-B2C1-99C8FD6F5C63}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EEF3ED2-772E-4D4C-844E-E25E0DF81A1E}">
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C8</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2357,318 +2474,415 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.54296875" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="15"/>
+    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="M1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="29">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="21" t="str">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="H3" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="29">
+      <c r="M3" s="21" t="str">
+        <f>IF($B$3="Yes",$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="H4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="29">
+      <c r="M4" s="21" t="str">
+        <f>IF($B$4="Yes",$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="N4" s="31" t="str">
+        <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="29">
+      <c r="M5" s="21" t="str">
+        <f>IF($B$5="Yes",$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="N5" s="31" t="str">
+        <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="29">
+      <c r="M6" s="21" t="str">
+        <f>IF($B$6="Yes",$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>129</v>
-      </c>
       <c r="H7" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="72.5">
+      <c r="M7" s="21" t="str">
+        <f>IF($B$7="Yes",$G$7,"")</f>
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>130</v>
-      </c>
       <c r="E8" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3:I7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G9 G2:G7</xm:sqref>
+          <xm:sqref>H2:H7 H9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>H3:H7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
             <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{99006B66-5319-4228-9A35-20FD2B871684}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{D257DA1F-4547-4F03-B5ED-86D07266A34D}">
           <x14:formula1>
             <xm:f>commandinputdata!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{9DE73CB4-AA26-4992-B3DB-24991CC26994}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{59FBF960-3AF9-463F-BCCC-BA4A02F826D1}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{52B3BB8D-3345-4BB6-9F42-4D8F793B1B5F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{691E72CF-6304-4912-856A-BD3B2655C4F5}">
           <x14:formula1>
             <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{CE23025F-FF9C-4521-9EEB-D8CCE3E79E93}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{438E4B38-BE5A-437C-9824-EF1D4461DD68}">
           <x14:formula1>
             <xm:f>commandinputdata!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>D7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE359760-DBB1-446F-9D96-28A7C4B1C13D}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2677,318 +2891,416 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.81640625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="15"/>
+    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="M1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="29">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="21" t="str">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="H3" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="29">
+      <c r="M3" s="21" t="str">
+        <f>IF($B$3="Yes",$G$3,"")</f>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="H4" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="29">
+      <c r="M4" s="21" t="str">
+        <f>IF($B$4="Yes",$G$4,"")</f>
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="N4" s="31" t="str">
+        <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="29">
+      <c r="M5" s="21" t="str">
+        <f>IF($B$5="Yes",$G$5,"")</f>
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="N5" s="31" t="str">
+        <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="29">
+      <c r="M6" s="21" t="str">
+        <f>IF($B$6="Yes",$G$6,"")</f>
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="H7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="87">
+      <c r="M7" s="21" t="str">
+        <f>IF($B$7="Yes",$G$7,"")</f>
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>134</v>
-      </c>
       <c r="E8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="17"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H9 H2:H7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H7</xm:sqref>
+          <xm:sqref>I3:I7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
-          <x14:formula1>
-            <xm:f>commandinputdata!$A$2:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G7 G9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
           <x14:formula1>
             <xm:f>commandinputdata!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{D257DA1F-4547-4F03-B5ED-86D07266A34D}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{99006B66-5319-4228-9A35-20FD2B871684}">
           <x14:formula1>
             <xm:f>commandinputdata!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{59FBF960-3AF9-463F-BCCC-BA4A02F826D1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{9DE73CB4-AA26-4992-B3DB-24991CC26994}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{691E72CF-6304-4912-856A-BD3B2655C4F5}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{52B3BB8D-3345-4BB6-9F42-4D8F793B1B5F}">
           <x14:formula1>
             <xm:f>commandinputdata!$F$2:$F$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
+          <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{438E4B38-BE5A-437C-9824-EF1D4461DD68}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{CE23025F-FF9C-4521-9EEB-D8CCE3E79E93}">
           <x14:formula1>
             <xm:f>commandinputdata!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
+          <xm:sqref>D7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5126730B-CD13-4170-97B7-B0ACEDBDE549}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$H$2:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3003,7 +3315,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3012,7 +3324,7 @@
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3038,7 +3350,7 @@
         <v>169</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3064,7 +3376,7 @@
         <v>170</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3089,6 +3401,9 @@
       <c r="G3" s="17" t="s">
         <v>171</v>
       </c>
+      <c r="H3" s="17" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -3124,6 +3439,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3134,9 +3450,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3150,15 +3464,15 @@
         <v>83</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
@@ -3166,7 +3480,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58">
@@ -3174,7 +3488,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5">
@@ -3182,7 +3496,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="58">
@@ -3190,7 +3504,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
@@ -3198,31 +3512,31 @@
         <v>168</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58">
       <c r="A8" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29">
       <c r="A9" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3231,34 +3545,34 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
       <c r="A13" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29">
       <c r="A14" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29">
       <c r="A15" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3266,65 +3580,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108BB906-91ED-4BDB-B015-F36D7FC53867}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="29.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337B8B2-E300-4E5A-915D-257AC06A7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABCD68F-958E-41BD-A66C-A0A299D08725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="thursdaysuite" sheetId="2" r:id="rId5"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
     <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
+    <sheet name="popuptitlesmessages" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="217">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -680,6 +681,24 @@
   </si>
   <si>
     <t>uiPopupTest.robot</t>
+  </si>
+  <si>
+    <t>popups</t>
+  </si>
+  <si>
+    <t>popuptitle/popupmessage</t>
+  </si>
+  <si>
+    <t>suppress_alarm_popup_title</t>
+  </si>
+  <si>
+    <t>Suppress Alarm</t>
+  </si>
+  <si>
+    <t>suppress_alarm_popup_message</t>
+  </si>
+  <si>
+    <t>Please select an alarm first.</t>
   </si>
 </sst>
 </file>
@@ -2020,7 +2039,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2359,7 +2378,7 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="72.5">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3580,4 +3599,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DED154-DFAD-403B-9ADC-E1DC2B6B9C45}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABCD68F-958E-41BD-A66C-A0A299D08725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377D9CD9-CF54-47B5-84BB-E727EB8F42D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="228">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -699,6 +699,39 @@
   </si>
   <si>
     <t>Please select an alarm first.</t>
+  </si>
+  <si>
+    <t>Suppress notifications for the selected alarm?</t>
+  </si>
+  <si>
+    <t>selected_suppress_alarm_popup_message</t>
+  </si>
+  <si>
+    <t>Suppressed Alarms</t>
+  </si>
+  <si>
+    <t>suppressed_alarm_popup_title</t>
+  </si>
+  <si>
+    <t>Restore Suppressed Alarm</t>
+  </si>
+  <si>
+    <t>suppressed_alarm_popup_message</t>
+  </si>
+  <si>
+    <t>restore_suppressed_alarm_title</t>
+  </si>
+  <si>
+    <t>Restore All Suppressed Alarms</t>
+  </si>
+  <si>
+    <t>restore_all_suppressed_alarms_title</t>
+  </si>
+  <si>
+    <t>Restore notifications for all alarms?</t>
+  </si>
+  <si>
+    <t>restore_all_suppressed_alarms_message</t>
   </si>
 </sst>
 </file>
@@ -799,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -892,6 +925,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3603,16 +3640,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07DED154-DFAD-403B-9ADC-E1DC2B6B9C45}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3639,6 +3676,52 @@
         <v>216</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC08545A-7F3E-4F39-8ADE-CE64CC3434D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF1106-D537-47BA-8843-61CCC06F7B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="thursdaysuite" sheetId="2" r:id="rId5"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
     <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
+    <sheet name="popuptitlesmessages" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="228">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -665,6 +666,72 @@
   </si>
   <si>
     <t>combineoutputxml</t>
+  </si>
+  <si>
+    <t>popups</t>
+  </si>
+  <si>
+    <t>popuptitle/popupmessage</t>
+  </si>
+  <si>
+    <t>suppress_alarm_popup_title</t>
+  </si>
+  <si>
+    <t>Suppress Alarm</t>
+  </si>
+  <si>
+    <t>suppress_alarm_popup_message</t>
+  </si>
+  <si>
+    <t>Please select an alarm first.</t>
+  </si>
+  <si>
+    <t>selected_suppress_alarm_popup_message</t>
+  </si>
+  <si>
+    <t>Suppress notifications for the selected alarm?</t>
+  </si>
+  <si>
+    <t>suppressed_alarm_popup_title</t>
+  </si>
+  <si>
+    <t>Suppressed Alarms</t>
+  </si>
+  <si>
+    <t>suppressed_alarm_popup_message</t>
+  </si>
+  <si>
+    <t>restore_suppressed_alarm_title</t>
+  </si>
+  <si>
+    <t>Restore Suppressed Alarm</t>
+  </si>
+  <si>
+    <t>restore_all_suppressed_alarms_title</t>
+  </si>
+  <si>
+    <t>Restore All Suppressed Alarms</t>
+  </si>
+  <si>
+    <t>restore_all_suppressed_alarms_message</t>
+  </si>
+  <si>
+    <t>Restore notifications for all alarms?</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 1</t>
+  </si>
+  <si>
+    <t>Popups</t>
+  </si>
+  <si>
+    <t>uiPopup.xml</t>
+  </si>
+  <si>
+    <t>uiPopupTest.robot</t>
   </si>
 </sst>
 </file>
@@ -765,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -851,6 +918,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1996,10 +2067,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2090,8 +2161,8 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2296,61 +2367,101 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="58">
-      <c r="A8" s="20" t="s">
-        <v>119</v>
+    <row r="8" spans="1:15" ht="29">
+      <c r="A8" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="C8" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="G8" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="M8" s="21" t="str">
+        <f>IF($B$8="Yes",$G$8,"")</f>
+        <v>uiPopup.xml</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" ht="72.5">
       <c r="A9" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2384,7 +2495,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H9 H2:H7</xm:sqref>
+          <xm:sqref>H10 H2:H8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
           <x14:formula1>
@@ -2396,13 +2507,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I7</xm:sqref>
+          <xm:sqref>I3:I8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EEF3ED2-772E-4D4C-844E-E25E0DF81A1E}">
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2713,7 +2824,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="43.5">
+    <row r="8" spans="1:15" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
@@ -3387,7 +3498,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3517,4 +3628,93 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AF1106-D537-47BA-8843-61CCC06F7B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86265BF-7BDF-4751-A686-DB979EBF7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -722,16 +722,16 @@
     <t>Popup</t>
   </si>
   <si>
-    <t>pabot --pabotlib --processes 1</t>
-  </si>
-  <si>
     <t>Popups</t>
   </si>
   <si>
     <t>uiPopup.xml</t>
   </si>
   <si>
-    <t>uiPopupTest.robot</t>
+    <t>uiPopupTest.robot/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>vxOverrideUIvaluesTest.robot/staleStatePrevention.robot</t>
   </si>
 </sst>
 </file>
@@ -2069,8 +2069,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2355,7 +2355,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
@@ -2375,19 +2375,19 @@
         <v>201</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>223</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>135</v>
@@ -2396,7 +2396,7 @@
         <v>116</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M8" s="21" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="72.5">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3634,7 +3634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86265BF-7BDF-4751-A686-DB979EBF7859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969098B9-C398-42EC-A5B2-1510A2DECA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2069,8 +2069,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2162,7 +2162,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2372,7 +2372,7 @@
         <v>223</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>125</v>
@@ -2400,11 +2400,11 @@
       </c>
       <c r="M8" s="21" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
+        <v/>
       </c>
       <c r="N8" s="21" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969098B9-C398-42EC-A5B2-1510A2DECA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0103317-BE47-4BE4-9826-73DF9D6B86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -728,10 +728,10 @@
     <t>uiPopup.xml</t>
   </si>
   <si>
-    <t>uiPopupTest.robot/staleStatePrevention.robot</t>
-  </si>
-  <si>
     <t>vxOverrideUIvaluesTest.robot/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>uiPopupTest.robot</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2069,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2162,7 +2162,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2355,7 +2355,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
@@ -2367,15 +2367,15 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="29">
+    <row r="8" spans="1:15">
       <c r="A8" s="32" t="s">
         <v>223</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>223</v>
@@ -2396,19 +2396,19 @@
         <v>116</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M8" s="21" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v/>
+        <v>uiPopup.xml</v>
       </c>
       <c r="N8" s="21" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="87">
+    <row r="9" spans="1:15" ht="72.5">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0103317-BE47-4BE4-9826-73DF9D6B86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD02B38D-D268-467F-9CAD-A13150FCC761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,7 +731,7 @@
     <t>vxOverrideUIvaluesTest.robot/staleStatePrevention.robot</t>
   </si>
   <si>
-    <t>uiPopupTest.robot</t>
+    <t>uiPopupTest.robot/staleStatePrevention.robot</t>
   </si>
 </sst>
 </file>
@@ -2069,8 +2069,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2367,15 +2367,15 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="29">
       <c r="A8" s="32" t="s">
         <v>223</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>124</v>
+      <c r="C8" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>223</v>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="72.5">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD02B38D-D268-467F-9CAD-A13150FCC761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E88539F-9951-41F4-95ED-D1257C174B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="228">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -2069,8 +2069,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2462,6 +2462,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2524,10 +2525,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2545,7 +2546,7 @@
     <col min="11" max="12" width="8.81640625" style="15"/>
     <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
@@ -2618,8 +2619,8 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -2824,56 +2825,97 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="72.5">
-      <c r="A8" s="20" t="s">
-        <v>119</v>
+    <row r="8" spans="1:15" ht="29">
+      <c r="A8" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="G8" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="M8" s="21" t="str">
+        <f>IF($B$8="Yes",$G$8,"")</f>
+        <v>uiPopup.xml</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2888,13 +2930,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I7</xm:sqref>
+          <xm:sqref>I3:I8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H7 H9</xm:sqref>
+          <xm:sqref>H10 H2:H8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
@@ -2930,7 +2972,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2941,10 +2983,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2962,7 +3004,7 @@
     <col min="11" max="12" width="8.81640625" style="15"/>
     <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
@@ -3035,8 +3077,8 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -3241,56 +3283,97 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="72.5">
-      <c r="A8" s="20" t="s">
-        <v>119</v>
+    <row r="8" spans="1:15" ht="29">
+      <c r="A8" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="G8" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="M8" s="21" t="str">
+        <f>IF($B$8="Yes",$G$8,"")</f>
+        <v>uiPopup.xml</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3306,13 +3389,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H9 H2:H7</xm:sqref>
+          <xm:sqref>H10 H2:H8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I7</xm:sqref>
+          <xm:sqref>I3:I8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
           <x14:formula1>
@@ -3348,7 +3431,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3634,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3715,6 +3798,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E88539F-9951-41F4-95ED-D1257C174B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BD82F3-4E91-41B8-917B-CEB948C52E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="229">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -732,6 +732,9 @@
   </si>
   <si>
     <t>uiPopupTest.robot/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Popup' --reporttitle "Popups" --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
   </si>
 </sst>
 </file>
@@ -2069,8 +2072,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2985,7 +2988,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -3579,9 +3582,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3646,63 +3649,71 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="58">
+    <row r="8" spans="1:2" ht="43.5">
       <c r="A8" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58">
+      <c r="A9" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B9" s="24" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29">
+      <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B11" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-    </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B13" s="26" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29">
       <c r="A14" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29">
       <c r="A15" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29">
+      <c r="A16" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B16" s="24" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3717,7 +3728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BD82F3-4E91-41B8-917B-CEB948C52E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21962AC-1E12-421C-BDAC-1EC47398D4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="224">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -719,22 +719,7 @@
     <t>Restore notifications for all alarms?</t>
   </si>
   <si>
-    <t>Popup</t>
-  </si>
-  <si>
-    <t>Popups</t>
-  </si>
-  <si>
-    <t>uiPopup.xml</t>
-  </si>
-  <si>
     <t>vxOverrideUIvaluesTest.robot/staleStatePrevention.robot</t>
-  </si>
-  <si>
-    <t>uiPopupTest.robot/staleStatePrevention.robot</t>
-  </si>
-  <si>
-    <t>sudo pabot --pabotlib --processes 2 --name 'Popup' --reporttitle "Popups" --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
   </si>
 </sst>
 </file>
@@ -835,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -921,10 +906,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2070,10 +2051,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2164,8 +2145,8 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2358,7 +2339,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
@@ -2370,97 +2351,56 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="29">
-      <c r="A8" s="32" t="s">
-        <v>223</v>
+    <row r="8" spans="1:15" ht="87">
+      <c r="A8" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="M8" s="21" t="str">
-        <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
-      </c>
-      <c r="N8" s="21" t="str">
-        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" ht="87">
+      <c r="G8" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>177</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-      <c r="H9" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17" t="s">
+      <c r="J9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2499,7 +2439,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H8</xm:sqref>
+          <xm:sqref>H9 H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
           <x14:formula1>
@@ -2511,13 +2451,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I8</xm:sqref>
+          <xm:sqref>I3:I7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EEF3ED2-772E-4D4C-844E-E25E0DF81A1E}">
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2528,10 +2468,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2622,8 +2562,8 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -2828,97 +2768,56 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="29">
-      <c r="A8" s="32" t="s">
-        <v>223</v>
+    <row r="8" spans="1:15" ht="87">
+      <c r="A8" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="M8" s="21" t="str">
-        <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
-      </c>
-      <c r="N8" s="21" t="str">
-        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" ht="87">
+      <c r="G8" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>134</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-      <c r="H9" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17" t="s">
+      <c r="J9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2933,13 +2832,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I8</xm:sqref>
+          <xm:sqref>I3:I7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H8</xm:sqref>
+          <xm:sqref>H9 H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
@@ -2975,7 +2874,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2986,10 +2885,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3080,8 +2979,8 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -3286,97 +3185,56 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="29">
-      <c r="A8" s="32" t="s">
-        <v>223</v>
+    <row r="8" spans="1:15" ht="87">
+      <c r="A8" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="M8" s="21" t="str">
-        <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
-      </c>
-      <c r="N8" s="21" t="str">
-        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" ht="87">
+      <c r="G8" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>130</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-      <c r="H9" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17" t="s">
+      <c r="J9" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3392,13 +3250,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H8</xm:sqref>
+          <xm:sqref>H9 H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I8</xm:sqref>
+          <xm:sqref>I3:I7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
           <x14:formula1>
@@ -3434,7 +3292,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3582,7 +3440,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3649,71 +3507,63 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.5">
+    <row r="8" spans="1:2" ht="58">
       <c r="A8" s="24" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="58">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29">
       <c r="A9" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="29">
-      <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B10" s="25" t="s">
         <v>181</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+    </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="26" t="s">
+      <c r="A12" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B12" s="26" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="29">
+      <c r="A13" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29">
       <c r="A14" s="24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29">
       <c r="A15" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="29">
-      <c r="A16" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="24" t="s">
         <v>199</v>
       </c>
     </row>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21962AC-1E12-421C-BDAC-1EC47398D4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88049604-4EEF-4DC6-A5FB-9892AA27EEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="228">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -720,6 +720,18 @@
   </si>
   <si>
     <t>vxOverrideUIvaluesTest.robot/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>Popup</t>
+  </si>
+  <si>
+    <t>Popups</t>
+  </si>
+  <si>
+    <t>uiPopup.xml</t>
+  </si>
+  <si>
+    <t>uiPopupTest.robot</t>
   </si>
 </sst>
 </file>
@@ -820,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -906,6 +918,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2051,9 +2070,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -2145,8 +2164,8 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2351,56 +2370,94 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="87">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="M8" s="21" t="str">
+        <f>IF($B$8="Yes",$G$8,"")</f>
+        <v>uiPopup.xml</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="72.5">
+      <c r="A9" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="20" t="s">
-        <v>120</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2439,7 +2496,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H9 H2:H7</xm:sqref>
+          <xm:sqref>H10 H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
           <x14:formula1>
@@ -2457,7 +2514,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B7 B9:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2768,7 +2825,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="87">
+    <row r="8" spans="1:15" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
@@ -3185,7 +3242,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="87">
+    <row r="8" spans="1:15" ht="72.5">
       <c r="A8" s="20" t="s">
         <v>119</v>
       </c>
@@ -3442,7 +3499,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88049604-4EEF-4DC6-A5FB-9892AA27EEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C956490-1920-4880-9F36-EAA01071CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="230">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -617,9 +617,6 @@
     <t>sudo robot --outputdir Reports/cleanReports --output moveReports.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/moveReports.robot</t>
   </si>
   <si>
-    <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml</t>
-  </si>
-  <si>
     <t>commands to be executed from AuQA folder</t>
   </si>
   <si>
@@ -732,6 +729,15 @@
   </si>
   <si>
     <t>uiPopupTest.robot</t>
+  </si>
+  <si>
+    <t>robot --name 'Popup'  --reporttitle "Popups"  --outputdir Reports --output uiPopup.xml --variable environment:config91 /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
+  </si>
+  <si>
+    <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml /home/fc/automation/AuQA/Testcases/UITests/uiPopup.xml</t>
+  </si>
+  <si>
+    <t>UITestPopup</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -925,6 +931,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2072,8 +2082,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2100,7 +2110,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>90</v>
@@ -2127,13 +2137,13 @@
         <v>98</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2141,7 +2151,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>124</v>
@@ -2173,7 +2183,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2211,7 +2221,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2252,7 +2262,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2293,7 +2303,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -2334,7 +2344,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2358,7 +2368,7 @@
         <v>116</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
@@ -2372,32 +2382,34 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="32" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>224</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>225</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="J8" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M8" s="21" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
@@ -2408,12 +2420,12 @@
         <v>/</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="72.5">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>121</v>
@@ -2440,7 +2452,7 @@
         <v>120</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>124</v>
@@ -2508,7 +2520,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I7</xm:sqref>
+          <xm:sqref>I3:I8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EEF3ED2-772E-4D4C-844E-E25E0DF81A1E}">
           <x14:formula1>
@@ -2525,10 +2537,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2555,7 +2567,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>90</v>
@@ -2582,13 +2594,13 @@
         <v>98</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2596,7 +2608,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>124</v>
@@ -2628,7 +2640,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2666,7 +2678,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2707,7 +2719,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2748,7 +2760,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -2789,7 +2801,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2825,61 +2837,75 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="72.5">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="17"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" ht="72.5">
+      <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B9" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="G9" s="17" t="str">
         <f>$O$2</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="20" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B10" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2889,13 +2915,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I7</xm:sqref>
+          <xm:sqref>I3:I8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H9 H2:H7</xm:sqref>
+          <xm:sqref>H10 H2:H8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
@@ -2925,13 +2951,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D7</xm:sqref>
+          <xm:sqref>D7:D8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE359760-DBB1-446F-9D96-28A7C4B1C13D}">
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2945,7 +2971,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2972,7 +2998,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>90</v>
@@ -2999,13 +3025,13 @@
         <v>98</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3013,7 +3039,7 @@
         <v>91</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>124</v>
@@ -3045,7 +3071,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -3083,7 +3109,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -3124,7 +3150,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -3165,7 +3191,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -3206,7 +3232,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -3247,7 +3273,7 @@
         <v>119</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>121</v>
@@ -3274,7 +3300,7 @@
         <v>120</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>124</v>
@@ -3296,7 +3322,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3399,7 +3424,7 @@
         <v>169</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3425,7 +3450,7 @@
         <v>170</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3451,7 +3476,7 @@
         <v>171</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3497,9 +3522,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3513,7 +3540,7 @@
         <v>83</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
@@ -3564,68 +3591,75 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="58">
+    <row r="8" spans="1:2" ht="29">
       <c r="A8" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58">
+      <c r="A9" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29">
-      <c r="A9" s="24" t="s">
-        <v>179</v>
-      </c>
       <c r="B9" s="24" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29">
+      <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B11" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-    </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="24" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>197</v>
+      <c r="B13" s="26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29">
       <c r="A14" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29">
       <c r="A15" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29">
+      <c r="A16" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3647,72 +3681,72 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>214</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C956490-1920-4880-9F36-EAA01071CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B194CF72-3ADA-4387-9532-942B5F7DD807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="230">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -731,13 +731,13 @@
     <t>uiPopupTest.robot</t>
   </si>
   <si>
-    <t>robot --name 'Popup'  --reporttitle "Popups"  --outputdir Reports --output uiPopup.xml --variable environment:config91 /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
-  </si>
-  <si>
     <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml /home/fc/automation/AuQA/Testcases/UITests/uiPopup.xml</t>
   </si>
   <si>
     <t>UITestPopup</t>
+  </si>
+  <si>
+    <t>robot --name 'Popup'  --reporttitle "Popups"  --outputdir Reports --output uiPopup.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -931,10 +931,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2082,8 +2078,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2382,7 +2378,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>200</v>
@@ -2419,6 +2415,7 @@
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
         <v>/</v>
       </c>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
@@ -2540,7 +2537,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2631,8 +2628,8 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -2838,19 +2835,45 @@
       <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="17"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="36"/>
+      <c r="A8" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="M8" s="21" t="str">
+        <f>IF($B$8="Yes",$G$8,"")</f>
+        <v>uiPopup.xml</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="72.5">
       <c r="A9" s="20" t="s">
@@ -2873,7 +2896,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -2906,6 +2929,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2921,7 +2945,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H8</xm:sqref>
+          <xm:sqref>H10 H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
@@ -2951,13 +2975,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D7:D8</xm:sqref>
+          <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE359760-DBB1-446F-9D96-28A7C4B1C13D}">
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B7 B9:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2968,10 +2992,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3062,8 +3086,8 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -3268,60 +3292,102 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="72.5">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="M8" s="21" t="str">
+        <f>IF($B$8="Yes",$G$8,"")</f>
+        <v>uiPopup.xml</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" ht="72.5">
+      <c r="A9" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="20" t="s">
-        <v>120</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3332,13 +3398,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H9 H2:H7</xm:sqref>
+          <xm:sqref>H10 H2:H8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I7</xm:sqref>
+          <xm:sqref>I3:I8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
           <x14:formula1>
@@ -3374,7 +3440,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B9</xm:sqref>
+          <xm:sqref>B2:B7 B9:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3524,8 +3590,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3593,10 +3659,10 @@
     </row>
     <row r="8" spans="1:2" ht="29">
       <c r="A8" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>229</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
@@ -3604,7 +3670,7 @@
         <v>182</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
@@ -3660,6 +3726,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3669,9 +3736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B194CF72-3ADA-4387-9532-942B5F7DD807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1309837E-1158-465C-8ED0-B8B6005DC271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -737,7 +737,7 @@
     <t>UITestPopup</t>
   </si>
   <si>
-    <t>robot --name 'Popup'  --reporttitle "Popups"  --outputdir Reports --output uiPopup.xml --variable environment:config37 /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
+    <t>robot --name 'Popup'  --reporttitle "Popups"  --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -925,9 +925,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2079,7 +2076,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2380,7 +2377,7 @@
       <c r="A8" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2389,13 +2386,13 @@
       <c r="D8" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>224</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>225</v>
       </c>
       <c r="H8" s="19" t="s">
@@ -2523,7 +2520,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7 B9:B10</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2537,7 +2534,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2838,7 +2835,7 @@
       <c r="A8" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2847,13 +2844,13 @@
       <c r="D8" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>224</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>225</v>
       </c>
       <c r="H8" s="19" t="s">
@@ -2875,7 +2872,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="72.5">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -2981,7 +2978,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7 B9:B10</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2995,7 +2992,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3296,7 +3293,7 @@
       <c r="A8" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -3305,13 +3302,13 @@
       <c r="D8" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>224</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>225</v>
       </c>
       <c r="H8" s="19" t="s">
@@ -3333,7 +3330,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="72.5">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3440,7 +3437,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7 B9:B10</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3590,8 +3587,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3726,7 +3723,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3736,7 +3732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1309837E-1158-465C-8ED0-B8B6005DC271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3B4737-9E46-4CAF-942D-57C96BA71E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3723,6 +3723,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3B4737-9E46-4CAF-942D-57C96BA71E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767665CB-4840-41A3-965B-3C64DE42B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="260">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -738,6 +740,96 @@
   </si>
   <si>
     <t>robot --name 'Popup'  --reporttitle "Popups"  --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
+  </si>
+  <si>
+    <t>minOnNoBindings Test</t>
+  </si>
+  <si>
+    <t>config_allow_num_exceedences_guard</t>
+  </si>
+  <si>
+    <t>config_allow_num_exceedences_control</t>
+  </si>
+  <si>
+    <t>grp_property_alg_name</t>
+  </si>
+  <si>
+    <t>"DASHAM_MIX"</t>
+  </si>
+  <si>
+    <t>config_num_minutes_start_timer</t>
+  </si>
+  <si>
+    <t>rack_tempF</t>
+  </si>
+  <si>
+    <t>power_monitor_pwr_kW</t>
+  </si>
+  <si>
+    <t>min_required_ahu_on_0</t>
+  </si>
+  <si>
+    <t>min_required_ahu_on_9</t>
+  </si>
+  <si>
+    <t>min_required_ahu_on_2</t>
+  </si>
+  <si>
+    <t>config_num_minutes_start_timer_default</t>
+  </si>
+  <si>
+    <t>expected_ahu_turn_ON_order</t>
+  </si>
+  <si>
+    <t>NB-AHU-14,NB-AHU-13,NB-AHU-15,NB-AHU-17,NB-AHU-16,NB-AHU-12,NB-AHU-11,NB-AHU-10</t>
+  </si>
+  <si>
+    <t>ahu_name_0</t>
+  </si>
+  <si>
+    <t>NB-AHU-10</t>
+  </si>
+  <si>
+    <t>ahu_name_1</t>
+  </si>
+  <si>
+    <t>NB-AHU-11</t>
+  </si>
+  <si>
+    <t>ahu_name_2</t>
+  </si>
+  <si>
+    <t>NB-AHU-12</t>
+  </si>
+  <si>
+    <t>ahu_name_3</t>
+  </si>
+  <si>
+    <t>NB-AHU-13</t>
+  </si>
+  <si>
+    <t>ahu_name_4</t>
+  </si>
+  <si>
+    <t>NB-AHU-14</t>
+  </si>
+  <si>
+    <t>ahu_name_5</t>
+  </si>
+  <si>
+    <t>NB-AHU-15</t>
+  </si>
+  <si>
+    <t>ahu_name_6</t>
+  </si>
+  <si>
+    <t>NB-AHU-16</t>
+  </si>
+  <si>
+    <t>ahu_name_7</t>
+  </si>
+  <si>
+    <t>NB-AHU-17</t>
   </si>
 </sst>
 </file>
@@ -1215,19 +1307,19 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1256,7 +1348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1282,7 +1374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29">
+    <row r="3" spans="1:11" ht="28.8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29">
+    <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29">
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1504,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29">
+    <row r="8" spans="1:11" ht="28.8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29">
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1556,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29">
+    <row r="10" spans="1:11" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1490,7 +1582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29">
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1608,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +1634,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.65" customHeight="1">
+    <row r="13" spans="1:11" ht="57.6" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1568,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29">
+    <row r="14" spans="1:11" ht="28.8">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.5">
+    <row r="15" spans="1:11" ht="43.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29">
+    <row r="16" spans="1:11" ht="28.8">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1666,7 +1758,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1680,7 +1772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1694,7 +1786,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1708,7 +1800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1722,7 +1814,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="29">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1736,7 +1828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1750,7 +1842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="29">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1764,7 +1856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1778,7 +1870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1843,17 +1935,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D5FF25-CB93-4FF5-B7D2-AA3922F37E97}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1863,7 +1957,9 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="14"/>
       <c r="G1" s="3"/>
@@ -1879,6 +1975,12 @@
       <c r="B2" s="4">
         <v>99</v>
       </c>
+      <c r="D2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="21" t="s">
@@ -1887,6 +1989,12 @@
       <c r="B3" s="4">
         <v>50</v>
       </c>
+      <c r="D3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="21" t="s">
@@ -1895,6 +2003,12 @@
       <c r="B4" s="4">
         <v>100</v>
       </c>
+      <c r="D4" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="21" t="s">
@@ -1903,6 +2017,12 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
+      <c r="D5" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="21" t="s">
@@ -1911,6 +2031,12 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
+      <c r="D6" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="21" t="s">
@@ -1919,6 +2045,12 @@
       <c r="B7" s="4">
         <v>20</v>
       </c>
+      <c r="D7" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="21" t="s">
@@ -1927,6 +2059,12 @@
       <c r="B8" s="4">
         <v>80.599999999999994</v>
       </c>
+      <c r="D8" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="21" t="s">
@@ -1935,6 +2073,12 @@
       <c r="B9" s="4">
         <v>64.400000000000006</v>
       </c>
+      <c r="D9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="4">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="21" t="s">
@@ -1943,6 +2087,12 @@
       <c r="B10" s="4">
         <v>66</v>
       </c>
+      <c r="D10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="4">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="21" t="s">
@@ -1951,6 +2101,12 @@
       <c r="B11" s="4">
         <v>68</v>
       </c>
+      <c r="D11" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="21" t="s">
@@ -1959,6 +2115,12 @@
       <c r="B12" s="4">
         <v>53</v>
       </c>
+      <c r="D12" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="21" t="s">
@@ -1967,6 +2129,12 @@
       <c r="B13" s="4">
         <v>72</v>
       </c>
+      <c r="D13" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="21" t="s">
@@ -1975,6 +2143,12 @@
       <c r="B14" s="4">
         <v>88</v>
       </c>
+      <c r="D14" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="21" t="s">
@@ -1983,6 +2157,12 @@
       <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="D15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="21" t="s">
@@ -1991,81 +2171,156 @@
       <c r="B16" s="4">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="72">
       <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="21" t="s">
         <v>160</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="21" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="21" t="s">
         <v>162</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="21" t="s">
         <v>164</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="4">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="D25" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27" s="21"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="D28" s="21"/>
+      <c r="E28" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2079,23 +2334,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="15"/>
+    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="15"/>
+    <col min="15" max="15" width="87.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2171,7 +2426,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.5">
+    <row r="3" spans="1:15" ht="43.2">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2209,7 +2464,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2250,7 +2505,7 @@
       </c>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -2291,7 +2546,7 @@
       </c>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -2332,7 +2587,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -2414,7 +2669,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="87">
+    <row r="9" spans="1:15" ht="86.4">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -2537,23 +2792,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="15"/>
+    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="15"/>
+    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2629,7 +2884,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2667,7 +2922,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2708,7 +2963,7 @@
       </c>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -2749,7 +3004,7 @@
       </c>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -2790,7 +3045,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -2872,7 +3127,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="87">
+    <row r="9" spans="1:15" ht="86.4">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -2995,23 +3250,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="15"/>
+    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="15"/>
+    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3087,7 +3342,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -3125,7 +3380,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -3166,7 +3421,7 @@
       </c>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -3207,7 +3462,7 @@
       </c>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -3248,7 +3503,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3330,7 +3585,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="87">
+    <row r="9" spans="1:15" ht="72">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3455,13 +3710,13 @@
       <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3587,15 +3842,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.36328125" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="27"/>
+    <col min="1" max="1" width="20.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.33203125" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3606,7 +3861,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29">
+    <row r="2" spans="1:2" ht="28.8">
       <c r="A2" s="24" t="s">
         <v>178</v>
       </c>
@@ -3614,7 +3869,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="58">
+    <row r="3" spans="1:2" ht="57.6">
       <c r="A3" s="24" t="s">
         <v>89</v>
       </c>
@@ -3622,7 +3877,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58">
+    <row r="4" spans="1:2" ht="57.6">
       <c r="A4" s="24" t="s">
         <v>101</v>
       </c>
@@ -3630,7 +3885,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.5">
+    <row r="5" spans="1:2" ht="43.2">
       <c r="A5" s="24" t="s">
         <v>108</v>
       </c>
@@ -3638,7 +3893,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="58">
+    <row r="6" spans="1:2" ht="43.2">
       <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
@@ -3646,7 +3901,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="58">
+    <row r="7" spans="1:2" ht="57.6">
       <c r="A7" s="24" t="s">
         <v>168</v>
       </c>
@@ -3654,7 +3909,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29">
+    <row r="8" spans="1:2" ht="28.8">
       <c r="A8" s="24" t="s">
         <v>228</v>
       </c>
@@ -3662,7 +3917,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58">
+    <row r="9" spans="1:2" ht="57.6">
       <c r="A9" s="24" t="s">
         <v>182</v>
       </c>
@@ -3670,7 +3925,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29">
+    <row r="10" spans="1:2" ht="28.8">
       <c r="A10" s="24" t="s">
         <v>179</v>
       </c>
@@ -3678,7 +3933,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29">
+    <row r="11" spans="1:2" ht="28.8">
       <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
@@ -3698,7 +3953,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="29">
+    <row r="14" spans="1:2" ht="28.8">
       <c r="A14" s="24" t="s">
         <v>192</v>
       </c>
@@ -3706,7 +3961,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="29">
+    <row r="15" spans="1:2" ht="28.8">
       <c r="A15" s="24" t="s">
         <v>194</v>
       </c>
@@ -3714,7 +3969,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29">
+    <row r="16" spans="1:2" ht="28.8">
       <c r="A16" s="24" t="s">
         <v>195</v>
       </c>
@@ -3735,10 +3990,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3B4737-9E46-4CAF-942D-57C96BA71E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B5CEF-C963-4220-88C2-06DB078EFE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="599" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1212,7 +1214,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1833,7 +1835,6 @@
       <c r="K34" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1845,8 +1846,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2076,7 +2077,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2168,7 +2169,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2176,7 +2177,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2204,7 +2205,7 @@
       </c>
       <c r="M3" s="21" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
+        <v/>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
@@ -2214,7 +2215,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2242,11 +2243,11 @@
       </c>
       <c r="M4" s="21" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
+        <v/>
       </c>
       <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O4" s="21"/>
     </row>
@@ -2287,7 +2288,7 @@
       </c>
       <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O5" s="21"/>
     </row>
@@ -2435,7 +2436,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -2468,7 +2469,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2533,8 +2533,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2626,7 +2626,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>deadSensorGuard.xml/guardOrderMIX.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -2634,7 +2634,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="M3" s="21" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
+        <v/>
       </c>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O4" s="21"/>
     </row>
@@ -2713,7 +2713,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2741,11 +2741,11 @@
       </c>
       <c r="M5" s="21" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v>hotGuard.xml</v>
+        <v/>
       </c>
       <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O5" s="21"/>
     </row>
@@ -2795,7 +2795,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="M7" s="21" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
+        <v/>
       </c>
       <c r="N7" s="21" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>deadSensorGuard.xml/guardOrderMIX.xml/uiPopup.xml</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -2926,7 +2926,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -3452,7 +3451,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3587,8 +3586,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3733,7 +3732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3B4737-9E46-4CAF-942D-57C96BA71E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD91A1-DFF5-46AD-8C32-43A36D93BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="thursdaysuite" sheetId="2" r:id="rId5"/>
     <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
     <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
-    <sheet name="popuptitlesmessages" sheetId="10" r:id="rId8"/>
+    <sheet name="uitest" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -43,8 +43,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>abhij</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{5A7C0B0A-8C5C-4AA4-9C8C-1C865208E710}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Do not change</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="275">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -695,9 +718,6 @@
     <t>Suppressed Alarms</t>
   </si>
   <si>
-    <t>suppressed_alarm_popup_message</t>
-  </si>
-  <si>
     <t>restore_suppressed_alarm_title</t>
   </si>
   <si>
@@ -738,6 +758,145 @@
   </si>
   <si>
     <t>robot --name 'Popup'  --reporttitle "Popups"  --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
+  </si>
+  <si>
+    <t>minOnNoBindings Test</t>
+  </si>
+  <si>
+    <t>config_allow_num_exceedences_guard</t>
+  </si>
+  <si>
+    <t>config_allow_num_exceedences_control</t>
+  </si>
+  <si>
+    <t>grp_property_alg_name</t>
+  </si>
+  <si>
+    <t>"DASHAM_MIX"</t>
+  </si>
+  <si>
+    <t>config_num_minutes_start_timer</t>
+  </si>
+  <si>
+    <t>rack_tempF</t>
+  </si>
+  <si>
+    <t>power_monitor_pwr_kW</t>
+  </si>
+  <si>
+    <t>min_required_ahu_on_0</t>
+  </si>
+  <si>
+    <t>min_required_ahu_on_9</t>
+  </si>
+  <si>
+    <t>min_required_ahu_on_2</t>
+  </si>
+  <si>
+    <t>config_num_minutes_start_timer_default</t>
+  </si>
+  <si>
+    <t>expected_ahu_turn_ON_order</t>
+  </si>
+  <si>
+    <t>NB-AHU-14,NB-AHU-13,NB-AHU-15,NB-AHU-17,NB-AHU-16,NB-AHU-12,NB-AHU-11,NB-AHU-10</t>
+  </si>
+  <si>
+    <t>ahu_name_0</t>
+  </si>
+  <si>
+    <t>NB-AHU-10</t>
+  </si>
+  <si>
+    <t>ahu_name_1</t>
+  </si>
+  <si>
+    <t>NB-AHU-11</t>
+  </si>
+  <si>
+    <t>ahu_name_2</t>
+  </si>
+  <si>
+    <t>NB-AHU-12</t>
+  </si>
+  <si>
+    <t>ahu_name_3</t>
+  </si>
+  <si>
+    <t>NB-AHU-13</t>
+  </si>
+  <si>
+    <t>ahu_name_4</t>
+  </si>
+  <si>
+    <t>NB-AHU-14</t>
+  </si>
+  <si>
+    <t>ahu_name_5</t>
+  </si>
+  <si>
+    <t>NB-AHU-15</t>
+  </si>
+  <si>
+    <t>ahu_name_6</t>
+  </si>
+  <si>
+    <t>NB-AHU-16</t>
+  </si>
+  <si>
+    <t>ahu_name_7</t>
+  </si>
+  <si>
+    <t>NB-AHU-17</t>
+  </si>
+  <si>
+    <t>set_overrides_popup_title</t>
+  </si>
+  <si>
+    <t>Set Overrides</t>
+  </si>
+  <si>
+    <t>set_overrides_popup_message</t>
+  </si>
+  <si>
+    <t>Select equipment to override.</t>
+  </si>
+  <si>
+    <t>clear_overrides_popup_title</t>
+  </si>
+  <si>
+    <t>Clear Overrides</t>
+  </si>
+  <si>
+    <t>clear_overrides_popup_message</t>
+  </si>
+  <si>
+    <t>Select equipment to clear.</t>
+  </si>
+  <si>
+    <t>show_trends_popup_title</t>
+  </si>
+  <si>
+    <t>Show Trends</t>
+  </si>
+  <si>
+    <t>show_trends_popup_message</t>
+  </si>
+  <si>
+    <t>No equipment selected.</t>
+  </si>
+  <si>
+    <t>bypass_popup_title</t>
+  </si>
+  <si>
+    <t>Bypass Control Group</t>
+  </si>
+  <si>
+    <t>bypass_popup_message</t>
+  </si>
+  <si>
+    <t>Note: AHUs will be set to maximum cooling in random order. This will occur over 300 seconds. Existing manual overrides will not be affected.
+Override all equipment for group General-test to the configured maximum cooling level?</t>
   </si>
 </sst>
 </file>
@@ -747,7 +906,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +925,12 @@
       <color rgb="FF0073BF"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -915,19 +1080,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1843,17 +2003,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D5FF25-CB93-4FF5-B7D2-AA3922F37E97}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="30.08984375" customWidth="1"/>
     <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
     <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1863,7 +2023,9 @@
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="E1" s="5"/>
       <c r="F1" s="14"/>
       <c r="G1" s="3"/>
@@ -1879,6 +2041,12 @@
       <c r="B2" s="4">
         <v>99</v>
       </c>
+      <c r="D2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="4">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="21" t="s">
@@ -1887,6 +2055,12 @@
       <c r="B3" s="4">
         <v>50</v>
       </c>
+      <c r="D3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="21" t="s">
@@ -1895,6 +2069,12 @@
       <c r="B4" s="4">
         <v>100</v>
       </c>
+      <c r="D4" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="21" t="s">
@@ -1903,6 +2083,12 @@
       <c r="B5" s="4">
         <v>1</v>
       </c>
+      <c r="D5" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="21" t="s">
@@ -1911,6 +2097,12 @@
       <c r="B6" s="4">
         <v>1</v>
       </c>
+      <c r="D6" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="21" t="s">
@@ -1919,6 +2111,12 @@
       <c r="B7" s="4">
         <v>20</v>
       </c>
+      <c r="D7" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="21" t="s">
@@ -1927,6 +2125,12 @@
       <c r="B8" s="4">
         <v>80.599999999999994</v>
       </c>
+      <c r="D8" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="21" t="s">
@@ -1935,6 +2139,12 @@
       <c r="B9" s="4">
         <v>64.400000000000006</v>
       </c>
+      <c r="D9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="4">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="21" t="s">
@@ -1943,6 +2153,12 @@
       <c r="B10" s="4">
         <v>66</v>
       </c>
+      <c r="D10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="4">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="21" t="s">
@@ -1951,6 +2167,12 @@
       <c r="B11" s="4">
         <v>68</v>
       </c>
+      <c r="D11" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="21" t="s">
@@ -1959,6 +2181,12 @@
       <c r="B12" s="4">
         <v>53</v>
       </c>
+      <c r="D12" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="21" t="s">
@@ -1967,6 +2195,12 @@
       <c r="B13" s="4">
         <v>72</v>
       </c>
+      <c r="D13" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="21" t="s">
@@ -1975,6 +2209,12 @@
       <c r="B14" s="4">
         <v>88</v>
       </c>
+      <c r="D14" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="21" t="s">
@@ -1983,6 +2223,12 @@
       <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="D15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="21" t="s">
@@ -1991,78 +2237,154 @@
       <c r="B16" s="4">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="72.5">
       <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="21" t="s">
         <v>160</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="21" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="4">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="21" t="s">
         <v>162</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="21" t="s">
         <v>164</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="4">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="D24" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="D25" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27" s="21"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="D28" s="21"/>
+      <c r="E28" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2071,18 +2393,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
     <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
@@ -2092,7 +2414,7 @@
     <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
     <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.81640625" style="15"/>
@@ -2129,13 +2451,13 @@
       <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="30" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2143,7 +2465,7 @@
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2164,19 +2486,19 @@
       <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="21" t="str">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>200</v>
+      <c r="B3" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2202,18 +2524,18 @@
       <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="21" t="str">
+      <c r="M3" s="31" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+        <v/>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -2240,21 +2562,21 @@
       <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="21" t="str">
+      <c r="M4" s="31" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="N4" s="31" t="str">
+      <c r="N4" s="32" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O4" s="21"/>
+        <v/>
+      </c>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2281,21 +2603,21 @@
       <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="21" t="str">
+      <c r="M5" s="31" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="N5" s="31" t="str">
+      <c r="N5" s="32" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -2322,21 +2644,21 @@
       <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="21" t="str">
+      <c r="M6" s="31" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
-      <c r="N6" s="21" t="str">
+      <c r="N6" s="31" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -2361,39 +2683,39 @@
         <v>116</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="M7" s="21" t="str">
+        <v>221</v>
+      </c>
+      <c r="M7" s="31" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
         <v>vxOverrideUIvalues.xml</v>
       </c>
-      <c r="N7" s="21" t="str">
+      <c r="N7" s="31" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O7" s="30"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="17" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="F8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>225</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>135</v>
@@ -2401,24 +2723,24 @@
       <c r="I8" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" s="21" t="str">
+      <c r="J8" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="31" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
         <v>uiPopup.xml</v>
       </c>
-      <c r="N8" s="21" t="str">
+      <c r="N8" s="31" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O8" s="30"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2435,7 +2757,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -2445,7 +2767,7 @@
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -2471,6 +2793,7 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -2534,13 +2857,13 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
     <col min="5" max="5" width="19.6328125" style="15" customWidth="1"/>
@@ -2550,7 +2873,7 @@
     <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
     <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.81640625" style="15"/>
@@ -2587,13 +2910,13 @@
       <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="30" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2601,7 +2924,7 @@
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2622,18 +2945,18 @@
       <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="21" t="str">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -2660,18 +2983,18 @@
       <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="21" t="str">
+      <c r="M3" s="31" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -2698,21 +3021,21 @@
       <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="21" t="str">
+      <c r="M4" s="31" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="N4" s="31" t="str">
+      <c r="N4" s="32" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
-      <c r="O4" s="21"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2739,21 +3062,21 @@
       <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="21" t="str">
+      <c r="M5" s="31" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="N5" s="31" t="str">
+      <c r="N5" s="32" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -2780,22 +3103,22 @@
       <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="21" t="str">
+      <c r="M6" s="31" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
-      <c r="N6" s="21" t="str">
+      <c r="N6" s="31" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>200</v>
+      <c r="B7" s="33" t="s">
+        <v>201</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -2821,37 +3144,37 @@
       <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="21" t="str">
+      <c r="M7" s="31" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="N7" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N7" s="31" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O7" s="30"/>
+        <v/>
+      </c>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="17" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="F8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>225</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>135</v>
@@ -2859,24 +3182,24 @@
       <c r="I8" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" s="21" t="str">
+      <c r="J8" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="31" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
         <v>uiPopup.xml</v>
       </c>
-      <c r="N8" s="21" t="str">
+      <c r="N8" s="31" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O8" s="30"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2893,7 +3216,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/uiPopup.xml</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -2903,7 +3226,7 @@
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -2992,13 +3315,13 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" style="15" customWidth="1"/>
@@ -3008,7 +3331,7 @@
     <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
     <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.81640625" style="15"/>
@@ -3045,13 +3368,13 @@
       <c r="J1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="30" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3059,7 +3382,7 @@
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3080,9 +3403,9 @@
       <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="21" t="str">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
@@ -3091,7 +3414,7 @@
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -3118,18 +3441,18 @@
       <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="21" t="str">
+      <c r="M3" s="31" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -3156,21 +3479,21 @@
       <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="21" t="str">
+      <c r="M4" s="31" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="N4" s="31" t="str">
+      <c r="N4" s="32" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
-      <c r="O4" s="21"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -3197,21 +3520,21 @@
       <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="21" t="str">
+      <c r="M5" s="31" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="N5" s="31" t="str">
+      <c r="N5" s="32" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3238,21 +3561,21 @@
       <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="21" t="str">
+      <c r="M6" s="31" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
-      <c r="N6" s="21" t="str">
+      <c r="N6" s="31" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -3279,37 +3602,37 @@
       <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="21" t="str">
+      <c r="M7" s="31" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
         <v>vxOverrideUIvalues.xml</v>
       </c>
-      <c r="N7" s="21" t="str">
+      <c r="N7" s="31" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O7" s="30"/>
+      <c r="O7" s="31"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="17" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="F8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>225</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>129</v>
@@ -3317,24 +3640,24 @@
       <c r="I8" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="M8" s="21" t="str">
+      <c r="J8" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="31" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
         <v>uiPopup.xml</v>
       </c>
-      <c r="N8" s="21" t="str">
+      <c r="N8" s="31" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O8" s="30"/>
+      <c r="O8" s="31"/>
     </row>
     <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -3361,7 +3684,7 @@
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -3587,15 +3910,15 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.90625" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="123.36328125" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="27"/>
+    <col min="3" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3656,10 +3979,10 @@
     </row>
     <row r="8" spans="1:2" ht="29">
       <c r="A8" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>228</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
@@ -3667,7 +3990,7 @@
         <v>182</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29">
@@ -3731,14 +4054,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3785,30 +4108,88 @@
       <c r="A6" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>221</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="101.5">
+      <c r="A16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD91A1-DFF5-46AD-8C32-43A36D93BC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50163C55-8F51-4BB3-8FBC-91B9BE213CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -66,6 +66,54 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>abhij</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{C8B7DE47-C6B2-4998-AD62-11533B356378}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Do not change</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>abhij</author>
+  </authors>
+  <commentList>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{304B6EA5-12B1-49A8-AD04-2EE4555E1271}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Do not change</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="275">
   <si>
@@ -906,7 +954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,8 +980,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +1016,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,12 +1143,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,8 +2458,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2465,7 +2526,7 @@
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2486,19 +2547,19 @@
       <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31" t="str">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>201</v>
+      <c r="B3" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2524,18 +2585,18 @@
       <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="31" t="str">
+      <c r="M3" s="32" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v/>
-      </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -2562,21 +2623,21 @@
       <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="31" t="str">
+      <c r="M4" s="32" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="N4" s="32" t="str">
+      <c r="N4" s="33" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v/>
-      </c>
-      <c r="O4" s="31"/>
+        <v>/</v>
+      </c>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2603,21 +2664,21 @@
       <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="32" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="N5" s="32" t="str">
+      <c r="N5" s="33" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O5" s="31"/>
+      <c r="O5" s="32"/>
     </row>
     <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -2644,21 +2705,21 @@
       <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="32" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
-      <c r="N6" s="31" t="str">
+      <c r="N6" s="32" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="32"/>
     </row>
     <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -2685,21 +2746,21 @@
       <c r="J7" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="M7" s="31" t="str">
+      <c r="M7" s="32" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
         <v>vxOverrideUIvalues.xml</v>
       </c>
-      <c r="N7" s="31" t="str">
+      <c r="N7" s="32" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O7" s="31"/>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -2726,21 +2787,21 @@
       <c r="J8" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="31" t="str">
+      <c r="M8" s="32" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
         <v>uiPopup.xml</v>
       </c>
-      <c r="N8" s="31" t="str">
+      <c r="N8" s="32" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" ht="87">
+      <c r="O8" s="32"/>
+    </row>
+    <row r="9" spans="1:15" ht="72.5">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -2757,7 +2818,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$O$2</f>
-        <v>deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -2767,7 +2828,7 @@
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -2852,12 +2913,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2924,7 +2985,7 @@
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -2945,18 +3006,18 @@
       <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31" t="str">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/uiPopup.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -2983,18 +3044,18 @@
       <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="31" t="str">
+      <c r="M3" s="32" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -3021,21 +3082,21 @@
       <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="31" t="str">
+      <c r="M4" s="32" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="N4" s="32" t="str">
+      <c r="N4" s="33" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
-      <c r="O4" s="31"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -3062,21 +3123,21 @@
       <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="32" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="N5" s="32" t="str">
+      <c r="N5" s="33" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O5" s="31"/>
+      <c r="O5" s="32"/>
     </row>
     <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3103,22 +3164,22 @@
       <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="32" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
-      <c r="N6" s="31" t="str">
+      <c r="N6" s="32" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="32"/>
     </row>
     <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>201</v>
+      <c r="B7" s="31" t="s">
+        <v>200</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -3144,21 +3205,21 @@
       <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="31" t="str">
+      <c r="M7" s="32" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="31" t="str">
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="N7" s="32" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O7" s="31"/>
+        <v>/</v>
+      </c>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -3185,21 +3246,21 @@
       <c r="J8" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="31" t="str">
+      <c r="M8" s="32" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
         <v>uiPopup.xml</v>
       </c>
-      <c r="N8" s="31" t="str">
+      <c r="N8" s="32" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" ht="87">
+      <c r="O8" s="32"/>
+    </row>
+    <row r="9" spans="1:15" ht="72.5">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -3216,7 +3277,7 @@
       </c>
       <c r="G9" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/uiPopup.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -3226,7 +3287,7 @@
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -3252,6 +3313,7 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -3310,12 +3372,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3382,7 +3444,7 @@
       <c r="A2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -3403,9 +3465,9 @@
       <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31" t="str">
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
@@ -3414,7 +3476,7 @@
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -3441,18 +3503,18 @@
       <c r="J3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="31" t="str">
+      <c r="M3" s="32" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
     </row>
     <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -3479,21 +3541,21 @@
       <c r="J4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="31" t="str">
+      <c r="M4" s="32" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="N4" s="32" t="str">
+      <c r="N4" s="33" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
-      <c r="O4" s="31"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -3520,21 +3582,21 @@
       <c r="J5" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="31" t="str">
+      <c r="M5" s="32" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="N5" s="32" t="str">
+      <c r="N5" s="33" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O5" s="31"/>
+      <c r="O5" s="32"/>
     </row>
     <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -3561,21 +3623,21 @@
       <c r="J6" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="31" t="str">
+      <c r="M6" s="32" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
-      <c r="N6" s="31" t="str">
+      <c r="N6" s="32" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="31"/>
+      <c r="O6" s="32"/>
     </row>
     <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -3602,21 +3664,21 @@
       <c r="J7" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="31" t="str">
+      <c r="M7" s="32" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
         <v>vxOverrideUIvalues.xml</v>
       </c>
-      <c r="N7" s="31" t="str">
+      <c r="N7" s="32" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O7" s="31"/>
+      <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -3643,21 +3705,21 @@
       <c r="J8" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="31" t="str">
+      <c r="M8" s="32" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
         <v>uiPopup.xml</v>
       </c>
-      <c r="N8" s="31" t="str">
+      <c r="N8" s="32" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O8" s="31"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -3684,7 +3746,7 @@
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -3711,6 +3773,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -4056,7 +4119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50163C55-8F51-4BB3-8FBC-91B9BE213CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A916A119-F4A7-4EB4-A0AD-59A8BCFA0898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -805,9 +805,6 @@
     <t>UITestPopup</t>
   </si>
   <si>
-    <t>robot --name 'Popup'  --reporttitle "Popups"  --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
-  </si>
-  <si>
     <t>minOnNoBindings Test</t>
   </si>
   <si>
@@ -945,6 +942,9 @@
   <si>
     <t>Note: AHUs will be set to maximum cooling in random order. This will occur over 300 seconds. Existing manual overrides will not be affected.
 Override all equipment for group General-test to the configured maximum cooling level?</t>
+  </si>
+  <si>
+    <t>sudo robot --name 'Popup' --reporttitle "Popups" --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="14"/>
@@ -2131,7 +2131,7 @@
         <v>100</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
@@ -2145,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2173,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
@@ -2229,7 +2229,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" s="4">
         <v>0.4</v>
@@ -2243,7 +2243,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" s="4">
         <v>9</v>
@@ -2271,7 +2271,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -2313,7 +2313,7 @@
         <v>157</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E17" s="4">
         <v>15</v>
@@ -2327,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2341,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2355,10 +2355,10 @@
         <v>72</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2369,10 +2369,10 @@
         <v>79</v>
       </c>
       <c r="D21" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2383,10 +2383,10 @@
         <v>163</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2397,10 +2397,10 @@
         <v>74</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2411,10 +2411,10 @@
         <v>81</v>
       </c>
       <c r="D24" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2425,18 +2425,18 @@
         <v>167</v>
       </c>
       <c r="D25" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="72.5">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="72.5">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3376,7 +3376,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3973,9 +3973,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -4045,7 +4043,7 @@
         <v>227</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
@@ -4193,66 +4191,66 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>261</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>263</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>265</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>267</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>269</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>271</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="101.5">
       <c r="A16" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767665CB-4840-41A3-965B-3C64DE42B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC3370-5800-460F-8072-346369328A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="270">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -830,6 +830,36 @@
   </si>
   <si>
     <t>NB-AHU-17</t>
+  </si>
+  <si>
+    <t>minOnGeneralTest</t>
+  </si>
+  <si>
+    <t>CAC_14,CAC_13,CAC_15,CAC_17,CAC_16,CAC_12,CAC_11,CAC_10</t>
+  </si>
+  <si>
+    <t>CHW,200000,4.13</t>
+  </si>
+  <si>
+    <t>CHW,190000,4.13</t>
+  </si>
+  <si>
+    <t>CHW,180000,4.13</t>
+  </si>
+  <si>
+    <t>DX,190000,4.13</t>
+  </si>
+  <si>
+    <t>DX,190000,4.16</t>
+  </si>
+  <si>
+    <t>DX,190000,4.12</t>
+  </si>
+  <si>
+    <t>DX,190000,4.08</t>
+  </si>
+  <si>
+    <t>DX,190000,4.09</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1333,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1935,10 +1965,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D5FF25-CB93-4FF5-B7D2-AA3922F37E97}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1948,6 +1978,8 @@
     <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1962,7 +1994,9 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="H1" s="5"/>
       <c r="I1" s="14"/>
       <c r="J1" s="3"/>
@@ -1981,6 +2015,12 @@
       <c r="E2" s="4">
         <v>55</v>
       </c>
+      <c r="G2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="21" t="s">
@@ -1995,6 +2035,12 @@
       <c r="E3" s="4">
         <v>45</v>
       </c>
+      <c r="G3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="21" t="s">
@@ -2009,6 +2055,12 @@
       <c r="E4" s="4">
         <v>9</v>
       </c>
+      <c r="G4" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="21" t="s">
@@ -2023,6 +2075,12 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
+      <c r="G5" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="21" t="s">
@@ -2037,6 +2095,12 @@
       <c r="E6" s="4" t="s">
         <v>234</v>
       </c>
+      <c r="G6" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="21" t="s">
@@ -2051,6 +2115,12 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
+      <c r="G7" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="21" t="s">
@@ -2065,6 +2135,12 @@
       <c r="E8" s="4">
         <v>50</v>
       </c>
+      <c r="G8" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="21" t="s">
@@ -2079,6 +2155,12 @@
       <c r="E9" s="4">
         <v>68</v>
       </c>
+      <c r="G9" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="21" t="s">
@@ -2093,6 +2175,12 @@
       <c r="E10" s="4">
         <v>53</v>
       </c>
+      <c r="G10" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="21" t="s">
@@ -2107,6 +2195,12 @@
       <c r="E11" s="4">
         <v>0.4</v>
       </c>
+      <c r="G11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="21" t="s">
@@ -2121,6 +2215,12 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
+      <c r="G12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="21" t="s">
@@ -2135,8 +2235,14 @@
       <c r="E13" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="G13" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.2">
       <c r="A14" s="21" t="s">
         <v>153</v>
       </c>
@@ -2148,6 +2254,12 @@
       </c>
       <c r="E14" s="4">
         <v>2</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2163,6 +2275,12 @@
       <c r="E15" s="4">
         <v>90</v>
       </c>
+      <c r="G15" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="21" t="s">
@@ -2177,8 +2295,14 @@
       <c r="E16" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="21" t="s">
         <v>156</v>
       </c>
@@ -2191,8 +2315,14 @@
       <c r="E17" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="72">
+      <c r="G17" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72">
       <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
@@ -2205,8 +2335,14 @@
       <c r="E18" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
         <v>159</v>
       </c>
@@ -2219,8 +2355,14 @@
       <c r="E19" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
         <v>160</v>
       </c>
@@ -2233,8 +2375,14 @@
       <c r="E20" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="21" t="s">
         <v>161</v>
       </c>
@@ -2247,8 +2395,14 @@
       <c r="E21" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="21" t="s">
         <v>162</v>
       </c>
@@ -2261,8 +2415,14 @@
       <c r="E22" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
         <v>164</v>
       </c>
@@ -2275,8 +2435,14 @@
       <c r="E23" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="21" t="s">
         <v>165</v>
       </c>
@@ -2289,8 +2455,14 @@
       <c r="E24" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="21" t="s">
         <v>166</v>
       </c>
@@ -2303,25 +2475,67 @@
       <c r="E25" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="D26" s="21" t="s">
         <v>258</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="D27" s="21"/>
       <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="D28" s="21"/>
       <c r="E28" s="8"/>
+      <c r="G28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="G29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="G30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A916A119-F4A7-4EB4-A0AD-59A8BCFA0898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D892D6EB-377A-40DA-9DA2-652DDA1CD411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="279">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -945,6 +945,18 @@
   </si>
   <si>
     <t>sudo robot --name 'Popup' --reporttitle "Popups" --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
+  </si>
+  <si>
+    <t>Alarm subject 00-17-0D-00-00-1A-C8-A0 is not bound to any assets.</t>
+  </si>
+  <si>
+    <t>DustMoteLinePower 00-17-0D-00-00-1A-C8-A0</t>
+  </si>
+  <si>
+    <t>dustmotelinepower_popup_message</t>
+  </si>
+  <si>
+    <t>dustmotelinepower_popup_title</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1149,6 +1161,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3973,7 +3986,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -4115,9 +4128,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -4253,8 +4266,23 @@
         <v>273</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="29">
+      <c r="A17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767665CB-4840-41A3-965B-3C64DE42B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3F9B3-3FC4-4573-B7D0-43C290E3AE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="268">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -830,6 +828,30 @@
   </si>
   <si>
     <t>NB-AHU-17</t>
+  </si>
+  <si>
+    <t>Override2</t>
+  </si>
+  <si>
+    <t>Override2_General-test</t>
+  </si>
+  <si>
+    <t>Override2_name</t>
+  </si>
+  <si>
+    <t>Overide2_Imputes-test</t>
+  </si>
+  <si>
+    <t>Overide2_RSP-test</t>
+  </si>
+  <si>
+    <t>MinOnNoBindings</t>
+  </si>
+  <si>
+    <t>minOnNoBindingsTest.robot/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>minOnNoBindings.xml</t>
   </si>
 </sst>
 </file>
@@ -1307,19 +1329,19 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1348,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8">
+    <row r="2" spans="1:11" ht="29">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1374,7 +1396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8">
+    <row r="3" spans="1:11" ht="29">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
+    <row r="4" spans="1:11" ht="43.5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1426,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8">
+    <row r="5" spans="1:11" ht="29">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1452,7 +1474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8">
+    <row r="6" spans="1:11" ht="29">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8">
+    <row r="7" spans="1:11" ht="29">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1526,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8">
+    <row r="8" spans="1:11" ht="29">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8">
+    <row r="9" spans="1:11" ht="29">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1578,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8">
+    <row r="10" spans="1:11" ht="29">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1604,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8">
+    <row r="11" spans="1:11" ht="29">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1630,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8">
+    <row r="12" spans="1:11" ht="29">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1656,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.6" customHeight="1">
+    <row r="13" spans="1:11" ht="57.65" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1660,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8">
+    <row r="14" spans="1:11" ht="29">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.2">
+    <row r="15" spans="1:11" ht="43.5">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1712,7 +1734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8">
+    <row r="16" spans="1:11" ht="29">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1758,7 +1780,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:11" ht="29">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1772,7 +1794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8">
+    <row r="19" spans="1:11" ht="29">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +1808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8">
+    <row r="20" spans="1:11" ht="29">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1800,7 +1822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8">
+    <row r="21" spans="1:11" ht="29">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1814,7 +1836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8">
+    <row r="22" spans="1:11" ht="29">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1828,7 +1850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8">
+    <row r="23" spans="1:11" ht="29">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8">
+    <row r="24" spans="1:11" ht="29">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1856,7 +1878,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8">
+    <row r="25" spans="1:11" ht="29">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1870,7 +1892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8">
+    <row r="26" spans="1:11" ht="29">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1937,17 +1959,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2192,7 +2214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72">
+    <row r="18" spans="1:5" ht="72.5">
       <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
@@ -2328,29 +2350,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.77734375" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="15"/>
-    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="15"/>
+    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2422,11 +2442,11 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="43.2">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.5">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2464,7 +2484,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2505,7 +2525,7 @@
       </c>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -2546,7 +2566,7 @@
       </c>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8">
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -2587,7 +2607,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8">
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -2669,56 +2689,97 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="86.4">
+    <row r="9" spans="1:15" ht="29">
       <c r="A9" s="20" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>177</v>
+        <v>125</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="G9" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f>IF($B$9="Yes",$G$9,"")</f>
+        <v>minOnNoBindings.xml</v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" ht="87">
       <c r="A10" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2728,7 +2789,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{2A443C34-7F60-4D1A-BEE9-2B2B19B10624}">
           <x14:formula1>
             <xm:f>commandinputdata!$E$2:$E$4</xm:f>
@@ -2757,7 +2818,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H7</xm:sqref>
+          <xm:sqref>H11 H2:H7 H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
           <x14:formula1>
@@ -2769,13 +2830,19 @@
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I8</xm:sqref>
+          <xm:sqref>I3:I9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EEF3ED2-772E-4D4C-844E-E25E0DF81A1E}">
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{DC233813-36D5-4139-AA70-1BDBD0D2A0CC}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2786,29 +2853,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="15"/>
-    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="15"/>
+    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2880,11 +2947,11 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="28.8">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2922,7 +2989,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2963,7 +3030,7 @@
       </c>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -3004,7 +3071,7 @@
       </c>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8">
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -3045,7 +3112,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8">
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3127,56 +3194,97 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="86.4">
+    <row r="9" spans="1:15" ht="29">
       <c r="A9" s="20" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="G9" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f>IF($B$9="Yes",$G$9,"")</f>
+        <v>minOnNoBindings.xml</v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" ht="87">
       <c r="A10" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3186,18 +3294,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{B0AA5AB9-597C-4DB1-A986-300FC9C6A1CB}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I8</xm:sqref>
+          <xm:sqref>I3:I9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{5BD409E9-D297-4950-9F42-71743EE745AC}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H7</xm:sqref>
+          <xm:sqref>H11 H2:H7 H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
@@ -3233,7 +3341,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{8697F16A-6E14-4684-B13B-7C6C6F627C65}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3244,29 +3358,27 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="15"/>
-    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="15"/>
+    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3338,11 +3450,11 @@
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
       <c r="O2" s="21" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="28.8">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -3380,7 +3492,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -3421,7 +3533,7 @@
       </c>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -3462,7 +3574,7 @@
       </c>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8">
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -3503,7 +3615,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8">
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3585,56 +3697,97 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="72">
+    <row r="9" spans="1:15" ht="29">
       <c r="A9" s="20" t="s">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="17" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="G9" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f>IF($B$9="Yes",$G$9,"")</f>
+        <v>minOnNoBindings.xml</v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" ht="87">
       <c r="A10" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="17" t="str">
+        <f>$O$2</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H11" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3645,18 +3798,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Environment" xr:uid="{DE91018C-5078-4E02-9DE9-776D1975C9B1}">
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H8</xm:sqref>
+          <xm:sqref>H11 H2:H9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
             <xm:f>commandinputdata!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I8</xm:sqref>
+          <xm:sqref>I3:I9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{33ED629C-6055-48FE-A7BD-AD3E2483F050}">
           <x14:formula1>
@@ -3692,7 +3845,13 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{56912AEA-1B93-49CF-8DAF-EEB422DF764F}">
+          <x14:formula1>
+            <xm:f>commandinputdata!$I$2:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3703,23 +3862,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -3744,8 +3904,11 @@
       <c r="H1" s="22" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
@@ -3770,8 +3933,11 @@
       <c r="H2" s="17" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -3796,8 +3962,11 @@
       <c r="H3" s="17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
@@ -3819,19 +3988,21 @@
       <c r="G4" s="17" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3846,11 +4017,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.33203125" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="27"/>
+    <col min="1" max="1" width="20.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.36328125" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3861,7 +4032,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
         <v>178</v>
       </c>
@@ -3869,7 +4040,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6">
+    <row r="3" spans="1:2" ht="58">
       <c r="A3" s="24" t="s">
         <v>89</v>
       </c>
@@ -3877,7 +4048,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57.6">
+    <row r="4" spans="1:2" ht="58">
       <c r="A4" s="24" t="s">
         <v>101</v>
       </c>
@@ -3885,7 +4056,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2">
+    <row r="5" spans="1:2" ht="43.5">
       <c r="A5" s="24" t="s">
         <v>108</v>
       </c>
@@ -3893,7 +4064,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.2">
+    <row r="6" spans="1:2" ht="58">
       <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
@@ -3901,7 +4072,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="57.6">
+    <row r="7" spans="1:2" ht="58">
       <c r="A7" s="24" t="s">
         <v>168</v>
       </c>
@@ -3909,7 +4080,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8">
+    <row r="8" spans="1:2" ht="29">
       <c r="A8" s="24" t="s">
         <v>228</v>
       </c>
@@ -3917,7 +4088,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6">
+    <row r="9" spans="1:2" ht="58">
       <c r="A9" s="24" t="s">
         <v>182</v>
       </c>
@@ -3925,7 +4096,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8">
+    <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
         <v>179</v>
       </c>
@@ -3933,7 +4104,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8">
+    <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
@@ -3953,7 +4124,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8">
+    <row r="14" spans="1:2" ht="29">
       <c r="A14" s="24" t="s">
         <v>192</v>
       </c>
@@ -3961,7 +4132,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8">
+    <row r="15" spans="1:2" ht="29">
       <c r="A15" s="24" t="s">
         <v>194</v>
       </c>
@@ -3969,7 +4140,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8">
+    <row r="16" spans="1:2" ht="29">
       <c r="A16" s="24" t="s">
         <v>195</v>
       </c>
@@ -3990,10 +4161,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AC3370-5800-460F-8072-346369328A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1AE669-E6F8-4E2E-B2FE-FE222CFDA8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="271">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>DX,190000,4.09</t>
+  </si>
+  <si>
+    <t>DASHAM_MIX</t>
   </si>
 </sst>
 </file>
@@ -1967,8 +1970,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1980,6 +1983,7 @@
     <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="35.33203125" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1998,7 +2002,6 @@
         <v>260</v>
       </c>
       <c r="H1" s="5"/>
-      <c r="I1" s="14"/>
       <c r="J1" s="3"/>
       <c r="K1" s="5"/>
     </row>
@@ -2099,7 +2102,7 @@
         <v>233</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2478,7 +2481,7 @@
       <c r="G25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -2492,7 +2495,7 @@
       <c r="G26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="4" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2502,7 +2505,7 @@
       <c r="G27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="4" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2512,7 +2515,7 @@
       <c r="G28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="4" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2520,7 +2523,7 @@
       <c r="G29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="4" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2528,11 +2531,12 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="4" t="s">
         <v>269</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D892D6EB-377A-40DA-9DA2-652DDA1CD411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8512CD-7337-4D2D-A2F9-3A65B37C0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4283,6 +4283,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8512CD-7337-4D2D-A2F9-3A65B37C0B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B084E-9D87-4B00-AA69-F23F95300850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -115,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="289">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -817,9 +819,6 @@
     <t>grp_property_alg_name</t>
   </si>
   <si>
-    <t>"DASHAM_MIX"</t>
-  </si>
-  <si>
     <t>config_num_minutes_start_timer</t>
   </si>
   <si>
@@ -957,6 +956,39 @@
   </si>
   <si>
     <t>dustmotelinepower_popup_title</t>
+  </si>
+  <si>
+    <t>minOnGeneralTest</t>
+  </si>
+  <si>
+    <t>CAC_14,CAC_13,CAC_15,CAC_17,CAC_16,CAC_12,CAC_11,CAC_10</t>
+  </si>
+  <si>
+    <t>CHW,200000,4.13</t>
+  </si>
+  <si>
+    <t>CHW,190000,4.13</t>
+  </si>
+  <si>
+    <t>CHW,180000,4.13</t>
+  </si>
+  <si>
+    <t>DX,190000,4.13</t>
+  </si>
+  <si>
+    <t>DX,190000,4.16</t>
+  </si>
+  <si>
+    <t>DX,190000,4.12</t>
+  </si>
+  <si>
+    <t>DX,190000,4.08</t>
+  </si>
+  <si>
+    <t>DX,190000,4.09</t>
+  </si>
+  <si>
+    <t>DASHAM_MIX</t>
   </si>
 </sst>
 </file>
@@ -1449,19 +1481,19 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1490,7 +1522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1516,7 +1548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29">
+    <row r="3" spans="1:11" ht="28.8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1568,7 +1600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29">
+    <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1594,7 +1626,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29">
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1646,7 +1678,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29">
+    <row r="8" spans="1:11" ht="28.8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1672,7 +1704,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29">
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1730,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29">
+    <row r="10" spans="1:11" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1724,7 +1756,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29">
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1782,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.65" customHeight="1">
+    <row r="13" spans="1:11" ht="57.6" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29">
+    <row r="14" spans="1:11" ht="28.8">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1828,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.5">
+    <row r="15" spans="1:11" ht="43.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1854,7 +1886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29">
+    <row r="16" spans="1:11" ht="28.8">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1900,7 +1932,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1914,7 +1946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1928,7 +1960,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1942,7 +1974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1956,7 +1988,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="29">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +2002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1984,7 +2016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="29">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1998,7 +2030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2012,7 +2044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -2077,17 +2109,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D5FF25-CB93-4FF5-B7D2-AA3922F37E97}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2100,11 +2138,15 @@
       <c r="D1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="14"/>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="5"/>
     </row>
@@ -2121,6 +2163,12 @@
       <c r="E2" s="4">
         <v>55</v>
       </c>
+      <c r="G2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="4">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="21" t="s">
@@ -2135,6 +2183,12 @@
       <c r="E3" s="4">
         <v>45</v>
       </c>
+      <c r="G3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="21" t="s">
@@ -2149,6 +2203,12 @@
       <c r="E4" s="4">
         <v>9</v>
       </c>
+      <c r="G4" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="21" t="s">
@@ -2163,6 +2223,12 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
+      <c r="G5" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="21" t="s">
@@ -2175,7 +2241,13 @@
         <v>231</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>232</v>
+        <v>288</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2186,9 +2258,15 @@
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2200,10 +2278,16 @@
         <v>80.599999999999994</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2219,6 +2303,12 @@
       <c r="E9" s="4">
         <v>68</v>
       </c>
+      <c r="G9" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="21" t="s">
@@ -2233,6 +2323,12 @@
       <c r="E10" s="4">
         <v>53</v>
       </c>
+      <c r="G10" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="21" t="s">
@@ -2242,10 +2338,16 @@
         <v>68</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" s="4">
         <v>0.4</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2256,10 +2358,16 @@
         <v>53</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2270,13 +2378,19 @@
         <v>72</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E13" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="G13" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.2">
       <c r="A14" s="21" t="s">
         <v>153</v>
       </c>
@@ -2284,10 +2398,16 @@
         <v>88</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2303,6 +2423,12 @@
       <c r="E15" s="4">
         <v>90</v>
       </c>
+      <c r="G15" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="21" t="s">
@@ -2317,8 +2443,14 @@
       <c r="E16" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="21" t="s">
         <v>156</v>
       </c>
@@ -2326,13 +2458,19 @@
         <v>157</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E17" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="72.5">
+      <c r="G17" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="72">
       <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
@@ -2340,13 +2478,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
         <v>159</v>
       </c>
@@ -2354,13 +2498,19 @@
         <v>0</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
         <v>160</v>
       </c>
@@ -2368,13 +2518,19 @@
         <v>72</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="21" t="s">
         <v>161</v>
       </c>
@@ -2382,13 +2538,19 @@
         <v>79</v>
       </c>
       <c r="D21" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="21" t="s">
         <v>162</v>
       </c>
@@ -2396,13 +2558,19 @@
         <v>163</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
         <v>164</v>
       </c>
@@ -2410,13 +2578,19 @@
         <v>74</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="21" t="s">
         <v>165</v>
       </c>
@@ -2424,13 +2598,19 @@
         <v>81</v>
       </c>
       <c r="D24" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="21" t="s">
         <v>166</v>
       </c>
@@ -2438,27 +2618,67 @@
         <v>167</v>
       </c>
       <c r="D25" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="G25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="D26" s="21" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="D26" s="21" t="s">
+      <c r="E26" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="D27" s="21"/>
       <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="D28" s="21"/>
       <c r="E28" s="8"/>
+      <c r="G28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="G29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="G30" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>287</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -2475,23 +2695,23 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="15"/>
+    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="15"/>
+    <col min="15" max="15" width="87.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2567,7 +2787,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.5">
+    <row r="3" spans="1:15" ht="43.2">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2605,7 +2825,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2646,7 +2866,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -2687,7 +2907,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -2728,7 +2948,7 @@
       </c>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -2810,7 +3030,7 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="87">
+    <row r="9" spans="1:15" ht="86.4">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -2934,23 +3154,23 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="15"/>
+    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="15"/>
+    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3026,7 +3246,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -3064,7 +3284,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -3105,7 +3325,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -3146,7 +3366,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -3187,7 +3407,7 @@
       </c>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3269,7 +3489,7 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="87">
+    <row r="9" spans="1:15" ht="86.4">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3393,23 +3613,23 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="15"/>
+    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="15"/>
+    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3485,7 +3705,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -3523,7 +3743,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -3564,7 +3784,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -3605,7 +3825,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -3646,7 +3866,7 @@
       </c>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3728,7 +3948,7 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="87">
+    <row r="9" spans="1:15" ht="72">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3854,13 +4074,13 @@
       <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3988,11 +4208,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.36328125" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="20.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.33203125" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4003,7 +4223,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29">
+    <row r="2" spans="1:2" ht="28.8">
       <c r="A2" s="24" t="s">
         <v>178</v>
       </c>
@@ -4011,7 +4231,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="58">
+    <row r="3" spans="1:2" ht="57.6">
       <c r="A3" s="24" t="s">
         <v>89</v>
       </c>
@@ -4019,7 +4239,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58">
+    <row r="4" spans="1:2" ht="57.6">
       <c r="A4" s="24" t="s">
         <v>101</v>
       </c>
@@ -4027,7 +4247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.5">
+    <row r="5" spans="1:2" ht="43.2">
       <c r="A5" s="24" t="s">
         <v>108</v>
       </c>
@@ -4035,7 +4255,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="58">
+    <row r="6" spans="1:2" ht="43.2">
       <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
@@ -4043,7 +4263,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="58">
+    <row r="7" spans="1:2" ht="57.6">
       <c r="A7" s="24" t="s">
         <v>168</v>
       </c>
@@ -4051,15 +4271,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29">
+    <row r="8" spans="1:2" ht="28.8">
       <c r="A8" s="24" t="s">
         <v>227</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="58">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6">
       <c r="A9" s="24" t="s">
         <v>182</v>
       </c>
@@ -4067,7 +4287,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29">
+    <row r="10" spans="1:2" ht="28.8">
       <c r="A10" s="24" t="s">
         <v>179</v>
       </c>
@@ -4075,7 +4295,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29">
+    <row r="11" spans="1:2" ht="28.8">
       <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
@@ -4095,7 +4315,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="29">
+    <row r="14" spans="1:2" ht="28.8">
       <c r="A14" s="24" t="s">
         <v>192</v>
       </c>
@@ -4103,7 +4323,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="29">
+    <row r="15" spans="1:2" ht="28.8">
       <c r="A15" s="24" t="s">
         <v>194</v>
       </c>
@@ -4111,7 +4331,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29">
+    <row r="16" spans="1:2" ht="28.8">
       <c r="A16" s="24" t="s">
         <v>195</v>
       </c>
@@ -4130,12 +4350,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4204,82 +4424,82 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>258</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>262</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>264</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>266</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>268</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B15" s="29" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="86.4">
+      <c r="A16" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="101.5">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29">
+    </row>
+    <row r="17" spans="1:2" ht="28.8">
       <c r="A17" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767665CB-4840-41A3-965B-3C64DE42B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B137F7CC-6ADD-4527-8715-2F1ACEE78A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
     <sheet name="overrideTest" sheetId="7" r:id="rId2"/>
-    <sheet name="tuesdaysuite" sheetId="8" r:id="rId3"/>
-    <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
-    <sheet name="thursdaysuite" sheetId="2" r:id="rId5"/>
-    <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
-    <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
-    <sheet name="popuptitlesmessages" sheetId="10" r:id="rId8"/>
+    <sheet name="alarmTest" sheetId="11" r:id="rId3"/>
+    <sheet name="tuesdaysuite" sheetId="8" r:id="rId4"/>
+    <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
+    <sheet name="thursdaysuite" sheetId="2" r:id="rId6"/>
+    <sheet name="commandinputdata" sheetId="6" r:id="rId7"/>
+    <sheet name="testexecutioncommands" sheetId="9" r:id="rId8"/>
+    <sheet name="popuptitlesmessages" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="265">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -830,6 +833,21 @@
   </si>
   <si>
     <t>NB-AHU-17</t>
+  </si>
+  <si>
+    <t>Alarm1TestInputs</t>
+  </si>
+  <si>
+    <t>allow_num_exceedences_guard</t>
+  </si>
+  <si>
+    <t>cat_guard_band_range</t>
+  </si>
+  <si>
+    <t>ahu_property_onpwrlvl</t>
+  </si>
+  <si>
+    <t>ahu_change_onpwrlvl</t>
   </si>
 </sst>
 </file>
@@ -1303,23 +1321,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1348,7 +1366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8">
+    <row r="2" spans="1:11" ht="29">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1374,7 +1392,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8">
+    <row r="3" spans="1:11" ht="29">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
+    <row r="4" spans="1:11" ht="43.5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1426,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8">
+    <row r="5" spans="1:11" ht="29">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1452,7 +1470,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8">
+    <row r="6" spans="1:11" ht="29">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1478,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8">
+    <row r="7" spans="1:11" ht="29">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1522,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8">
+    <row r="8" spans="1:11" ht="29">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1530,7 +1548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8">
+    <row r="9" spans="1:11" ht="29">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1556,7 +1574,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8">
+    <row r="10" spans="1:11" ht="29">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8">
+    <row r="11" spans="1:11" ht="29">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1626,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8">
+    <row r="12" spans="1:11" ht="29">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.6" customHeight="1">
+    <row r="13" spans="1:11" ht="57.65" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8">
+    <row r="14" spans="1:11" ht="29">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.2">
+    <row r="15" spans="1:11" ht="43.5">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1712,7 +1730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8">
+    <row r="16" spans="1:11" ht="29">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1758,7 +1776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:11" ht="29">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1772,7 +1790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8">
+    <row r="19" spans="1:11" ht="29">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +1804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8">
+    <row r="20" spans="1:11" ht="29">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1800,7 +1818,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8">
+    <row r="21" spans="1:11" ht="29">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1814,7 +1832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8">
+    <row r="22" spans="1:11" ht="29">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1828,7 +1846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8">
+    <row r="23" spans="1:11" ht="29">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8">
+    <row r="24" spans="1:11" ht="29">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -1856,7 +1874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8">
+    <row r="25" spans="1:11" ht="29">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1870,7 +1888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8">
+    <row r="26" spans="1:11" ht="29">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -1932,22 +1950,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16432A7E-DE74-419B-B504-C492A70C346D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31877481-218E-4979-ACB0-DB3B656BD161}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D5FF25-CB93-4FF5-B7D2-AA3922F37E97}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2192,7 +2234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72">
+    <row r="18" spans="1:5" ht="72.5">
       <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
@@ -2326,6 +2368,230 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82315C4B-3999-46D7-A97A-FAB22387512D}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="21"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="21"/>
+      <c r="B9" s="4"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="21"/>
+      <c r="B10" s="4"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="21"/>
+      <c r="B11" s="4"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="21"/>
+      <c r="B12" s="4"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="21"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="21"/>
+      <c r="B14" s="4"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="21"/>
+      <c r="B15" s="4"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="21"/>
+      <c r="B16" s="4"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="21"/>
+      <c r="B17" s="4"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="21"/>
+      <c r="B18" s="4"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="21"/>
+      <c r="B19" s="4"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21"/>
+      <c r="B20" s="4"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21"/>
+      <c r="B21" s="4"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="21"/>
+      <c r="B22" s="4"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="21"/>
+      <c r="B23" s="4"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="21"/>
+      <c r="B24" s="4"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="21"/>
+      <c r="B25" s="4"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="21"/>
+      <c r="B26" s="4"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27" s="21"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="D28" s="21"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="21"/>
+      <c r="E29" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O10"/>
@@ -2334,23 +2600,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.77734375" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="15"/>
-    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="15"/>
+    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2426,7 +2692,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.2">
+    <row r="3" spans="1:15" ht="43.5">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2464,7 +2730,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2505,7 +2771,7 @@
       </c>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -2546,7 +2812,7 @@
       </c>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8">
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -2587,7 +2853,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8">
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -2669,7 +2935,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="86.4">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -2783,7 +3049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O10"/>
@@ -2792,23 +3058,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="15"/>
-    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="15"/>
+    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2884,7 +3150,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8">
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2922,7 +3188,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2963,7 +3229,7 @@
       </c>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -3004,7 +3270,7 @@
       </c>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8">
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -3045,7 +3311,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8">
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3127,7 +3393,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="86.4">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3241,7 +3507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O10"/>
@@ -3250,23 +3516,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="15"/>
-    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="15"/>
+    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3342,7 +3608,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8">
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -3380,7 +3646,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -3421,7 +3687,7 @@
       </c>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -3462,7 +3728,7 @@
       </c>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8">
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -3503,7 +3769,7 @@
       </c>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8">
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3585,7 +3851,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="72">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3700,7 +3966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H6"/>
@@ -3710,13 +3976,13 @@
       <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3837,7 +4103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
@@ -3846,11 +4112,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.33203125" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="27"/>
+    <col min="1" max="1" width="20.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.36328125" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3861,7 +4127,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
         <v>178</v>
       </c>
@@ -3869,7 +4135,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6">
+    <row r="3" spans="1:2" ht="58">
       <c r="A3" s="24" t="s">
         <v>89</v>
       </c>
@@ -3877,7 +4143,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57.6">
+    <row r="4" spans="1:2" ht="58">
       <c r="A4" s="24" t="s">
         <v>101</v>
       </c>
@@ -3885,7 +4151,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2">
+    <row r="5" spans="1:2" ht="43.5">
       <c r="A5" s="24" t="s">
         <v>108</v>
       </c>
@@ -3893,7 +4159,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.2">
+    <row r="6" spans="1:2" ht="58">
       <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
@@ -3901,7 +4167,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="57.6">
+    <row r="7" spans="1:2" ht="58">
       <c r="A7" s="24" t="s">
         <v>168</v>
       </c>
@@ -3909,7 +4175,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8">
+    <row r="8" spans="1:2" ht="29">
       <c r="A8" s="24" t="s">
         <v>228</v>
       </c>
@@ -3917,7 +4183,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6">
+    <row r="9" spans="1:2" ht="58">
       <c r="A9" s="24" t="s">
         <v>182</v>
       </c>
@@ -3925,7 +4191,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8">
+    <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
         <v>179</v>
       </c>
@@ -3933,7 +4199,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8">
+    <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
@@ -3953,7 +4219,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8">
+    <row r="14" spans="1:2" ht="29">
       <c r="A14" s="24" t="s">
         <v>192</v>
       </c>
@@ -3961,7 +4227,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8">
+    <row r="15" spans="1:2" ht="29">
       <c r="A15" s="24" t="s">
         <v>194</v>
       </c>
@@ -3969,7 +4235,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8">
+    <row r="16" spans="1:2" ht="29">
       <c r="A16" s="24" t="s">
         <v>195</v>
       </c>
@@ -3984,16 +4250,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B084E-9D87-4B00-AA69-F23F95300850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A50A0-FC31-4152-965A-CE6DF4DA8B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -117,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="299">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -989,6 +987,36 @@
   </si>
   <si>
     <t>DASHAM_MIX</t>
+  </si>
+  <si>
+    <t>Override2</t>
+  </si>
+  <si>
+    <t>MinOnNoBindings</t>
+  </si>
+  <si>
+    <t>minOnNoBindings.xml</t>
+  </si>
+  <si>
+    <t>minOnNoBindingsTest.robot/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>Override3</t>
+  </si>
+  <si>
+    <t>Override2_NoBindings-test</t>
+  </si>
+  <si>
+    <t>Override3_General-test</t>
+  </si>
+  <si>
+    <t>minOnGeneralTest.robot</t>
+  </si>
+  <si>
+    <t>minOnGeneral.xml</t>
+  </si>
+  <si>
+    <t>MinOnGeneral</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1194,6 +1222,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1481,19 +1519,19 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1522,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8">
+    <row r="2" spans="1:11" ht="29">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1548,7 +1586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8">
+    <row r="3" spans="1:11" ht="29">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +1612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
+    <row r="4" spans="1:11" ht="43.5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1600,7 +1638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8">
+    <row r="5" spans="1:11" ht="29">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1626,7 +1664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8">
+    <row r="6" spans="1:11" ht="29">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.8">
+    <row r="7" spans="1:11" ht="29">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8">
+    <row r="8" spans="1:11" ht="29">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +1742,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.8">
+    <row r="9" spans="1:11" ht="29">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1768,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.8">
+    <row r="10" spans="1:11" ht="29">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1756,7 +1794,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8">
+    <row r="11" spans="1:11" ht="29">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1782,7 +1820,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8">
+    <row r="12" spans="1:11" ht="29">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1808,7 +1846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.6" customHeight="1">
+    <row r="13" spans="1:11" ht="57.65" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1834,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8">
+    <row r="14" spans="1:11" ht="29">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.2">
+    <row r="15" spans="1:11" ht="43.5">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1886,7 +1924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8">
+    <row r="16" spans="1:11" ht="29">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1932,7 +1970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:11" ht="29">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1946,7 +1984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8">
+    <row r="19" spans="1:11" ht="29">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1960,7 +1998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8">
+    <row r="20" spans="1:11" ht="29">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1974,7 +2012,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8">
+    <row r="21" spans="1:11" ht="29">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1988,7 +2026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8">
+    <row r="22" spans="1:11" ht="29">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.8">
+    <row r="23" spans="1:11" ht="29">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -2016,7 +2054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8">
+    <row r="24" spans="1:11" ht="29">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -2030,7 +2068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8">
+    <row r="25" spans="1:11" ht="29">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2044,7 +2082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8">
+    <row r="26" spans="1:11" ht="29">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -2111,21 +2149,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2390,7 +2428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.2">
+    <row r="14" spans="1:11" ht="43.5">
       <c r="A14" s="21" t="s">
         <v>153</v>
       </c>
@@ -2470,7 +2508,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="72">
+    <row r="18" spans="1:8" ht="72.5">
       <c r="A18" s="21" t="s">
         <v>158</v>
       </c>
@@ -2689,29 +2727,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.77734375" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="15"/>
-    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="15"/>
+    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2783,11 +2821,11 @@
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
       <c r="O2" s="32" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="43.2">
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.5">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -2825,7 +2863,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -2866,7 +2904,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -2907,7 +2945,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8">
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -2948,7 +2986,7 @@
       </c>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8">
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3030,61 +3068,142 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="86.4">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:15" ht="29">
+      <c r="A9" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f>IF($B$9="Yes",$G$9,"")</f>
+        <v>minOnNoBindings.xml</v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="M10" s="21" t="str">
+        <f>IF($B$10="Yes",$G$10,"")</f>
+        <v>minOnGeneral.xml</v>
+      </c>
+      <c r="N10" s="21" t="str">
+        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" spans="1:15" ht="87">
+      <c r="A11" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B11" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G11" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="20" t="s">
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B12" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3119,7 +3238,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H7</xm:sqref>
+          <xm:sqref>H12 H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{0EB62EF6-1A00-44DA-A84D-00E569387EB6}">
           <x14:formula1>
@@ -3137,7 +3256,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B8 B11:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3154,23 +3273,23 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="15"/>
-    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="15"/>
+    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3246,7 +3365,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8">
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -3284,7 +3403,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -3325,7 +3444,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -3366,7 +3485,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8">
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -3407,7 +3526,7 @@
       </c>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8">
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3489,7 +3608,7 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="86.4">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -3613,23 +3732,23 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5546875" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.77734375" style="15"/>
-    <col min="13" max="13" width="20.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="15"/>
+    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3705,7 +3824,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8">
+    <row r="3" spans="1:15" ht="29">
       <c r="A3" s="20" t="s">
         <v>89</v>
       </c>
@@ -3743,7 +3862,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" ht="28.8">
+    <row r="4" spans="1:15" ht="29">
       <c r="A4" s="20" t="s">
         <v>101</v>
       </c>
@@ -3784,7 +3903,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" ht="28.8">
+    <row r="5" spans="1:15" ht="29">
       <c r="A5" s="20" t="s">
         <v>108</v>
       </c>
@@ -3825,7 +3944,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" ht="28.8">
+    <row r="6" spans="1:15" ht="29">
       <c r="A6" s="20" t="s">
         <v>109</v>
       </c>
@@ -3866,7 +3985,7 @@
       </c>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8">
+    <row r="7" spans="1:15" ht="29">
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
@@ -3948,7 +4067,7 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="72">
+    <row r="9" spans="1:15" ht="87">
       <c r="A9" s="20" t="s">
         <v>119</v>
       </c>
@@ -4074,13 +4193,13 @@
       <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4208,11 +4327,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.33203125" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.77734375" style="27"/>
+    <col min="1" max="1" width="20.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.36328125" style="27" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4223,7 +4342,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8">
+    <row r="2" spans="1:2" ht="29">
       <c r="A2" s="24" t="s">
         <v>178</v>
       </c>
@@ -4231,7 +4350,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6">
+    <row r="3" spans="1:2" ht="58">
       <c r="A3" s="24" t="s">
         <v>89</v>
       </c>
@@ -4239,7 +4358,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="57.6">
+    <row r="4" spans="1:2" ht="58">
       <c r="A4" s="24" t="s">
         <v>101</v>
       </c>
@@ -4247,7 +4366,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.2">
+    <row r="5" spans="1:2" ht="43.5">
       <c r="A5" s="24" t="s">
         <v>108</v>
       </c>
@@ -4255,7 +4374,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.2">
+    <row r="6" spans="1:2" ht="58">
       <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
@@ -4263,7 +4382,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="57.6">
+    <row r="7" spans="1:2" ht="58">
       <c r="A7" s="24" t="s">
         <v>168</v>
       </c>
@@ -4271,7 +4390,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8">
+    <row r="8" spans="1:2" ht="29">
       <c r="A8" s="24" t="s">
         <v>227</v>
       </c>
@@ -4279,7 +4398,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6">
+    <row r="9" spans="1:2" ht="58">
       <c r="A9" s="24" t="s">
         <v>182</v>
       </c>
@@ -4287,7 +4406,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8">
+    <row r="10" spans="1:2" ht="29">
       <c r="A10" s="24" t="s">
         <v>179</v>
       </c>
@@ -4295,7 +4414,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8">
+    <row r="11" spans="1:2" ht="29">
       <c r="A11" s="24" t="s">
         <v>180</v>
       </c>
@@ -4315,7 +4434,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8">
+    <row r="14" spans="1:2" ht="29">
       <c r="A14" s="24" t="s">
         <v>192</v>
       </c>
@@ -4323,7 +4442,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.8">
+    <row r="15" spans="1:2" ht="29">
       <c r="A15" s="24" t="s">
         <v>194</v>
       </c>
@@ -4331,7 +4450,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8">
+    <row r="16" spans="1:2" ht="29">
       <c r="A16" s="24" t="s">
         <v>195</v>
       </c>
@@ -4352,10 +4471,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4478,7 +4597,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="86.4">
+    <row r="16" spans="1:2" ht="101.5">
       <c r="A16" s="2" t="s">
         <v>271</v>
       </c>
@@ -4486,7 +4605,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8">
+    <row r="17" spans="1:2" ht="29">
       <c r="A17" s="2" t="s">
         <v>276</v>
       </c>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44A50A0-FC31-4152-965A-CE6DF4DA8B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ED851F-A6F0-427D-8F6D-B780324144D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="299">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -989,9 +989,6 @@
     <t>DASHAM_MIX</t>
   </si>
   <si>
-    <t>Override2</t>
-  </si>
-  <si>
     <t>MinOnNoBindings</t>
   </si>
   <si>
@@ -1001,9 +998,6 @@
     <t>minOnNoBindingsTest.robot/staleStatePrevention.robot</t>
   </si>
   <si>
-    <t>Override3</t>
-  </si>
-  <si>
     <t>Override2_NoBindings-test</t>
   </si>
   <si>
@@ -1017,6 +1011,12 @@
   </si>
   <si>
     <t>MinOnGeneral</t>
+  </si>
+  <si>
+    <t>Override_minOnNoBindings</t>
+  </si>
+  <si>
+    <t>MinOnGeneralTest</t>
   </si>
 </sst>
 </file>
@@ -2729,13 +2729,13 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
@@ -2822,7 +2822,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2830,7 +2830,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="M3" s="32" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
+        <v/>
       </c>
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
@@ -2868,7 +2868,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2896,11 +2896,11 @@
       </c>
       <c r="M4" s="32" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
+        <v/>
       </c>
       <c r="N4" s="33" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O4" s="32"/>
     </row>
@@ -2909,7 +2909,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2937,11 +2937,11 @@
       </c>
       <c r="M5" s="32" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v>hotGuard.xml</v>
+        <v/>
       </c>
       <c r="N5" s="33" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2950,7 +2950,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -2978,11 +2978,11 @@
       </c>
       <c r="M6" s="32" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
+        <v/>
       </c>
       <c r="N6" s="32" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O6" s="32"/>
     </row>
@@ -2991,7 +2991,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -3019,11 +3019,11 @@
       </c>
       <c r="M7" s="32" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
+        <v/>
       </c>
       <c r="N7" s="32" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O7" s="32"/>
     </row>
@@ -3032,7 +3032,7 @@
         <v>227</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>124</v>
@@ -3060,35 +3060,35 @@
       </c>
       <c r="M8" s="32" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
+        <v/>
       </c>
       <c r="N8" s="32" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>200</v>
+        <v>297</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>201</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>138</v>
@@ -3097,39 +3097,39 @@
         <v>116</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M9" s="21" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
-        <v>minOnNoBindings.xml</v>
+        <v/>
       </c>
       <c r="N9" s="21" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>200</v>
+        <v>298</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>201</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>138</v>
@@ -3138,24 +3138,24 @@
         <v>116</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
-        <v>minOnGeneral.xml</v>
+        <v/>
       </c>
       <c r="N10" s="21" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O10" s="38"/>
     </row>
-    <row r="11" spans="1:15" ht="87">
+    <row r="11" spans="1:15" ht="116">
       <c r="A11" s="20" t="s">
         <v>119</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>121</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G11" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v/>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
@@ -3182,7 +3182,7 @@
         <v>120</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>124</v>
@@ -3256,7 +3256,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B8 B11:B12</xm:sqref>
+          <xm:sqref>B2:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3267,10 +3267,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3361,8 +3361,8 @@
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
       <c r="O2" s="32" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -3608,61 +3608,142 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="87">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:15" ht="29">
+      <c r="A9" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f>IF($B$9="Yes",$G$9,"")</f>
+        <v>minOnNoBindings.xml</v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="21" t="str">
+        <f>IF($B$10="Yes",$G$10,"")</f>
+        <v>minOnGeneral.xml</v>
+      </c>
+      <c r="N10" s="21" t="str">
+        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" spans="1:15" ht="116">
+      <c r="A11" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B11" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G11" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="20" t="s">
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B12" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3679,7 +3760,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H7</xm:sqref>
+          <xm:sqref>H12 H2:H7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Name" xr:uid="{83BA2D7F-7AFE-464A-A8A6-0351BFE13AF0}">
           <x14:formula1>
@@ -3715,7 +3796,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B8 B11:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3726,10 +3807,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3820,8 +3901,8 @@
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
       <c r="O2" s="32" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
+        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -4067,61 +4148,142 @@
       </c>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" ht="87">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:15" ht="29">
+      <c r="A9" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="M9" s="21" t="str">
+        <f>IF($B$9="Yes",$G$9,"")</f>
+        <v>minOnNoBindings.xml</v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="M10" s="21" t="str">
+        <f>IF($B$10="Yes",$G$10,"")</f>
+        <v>minOnGeneral.xml</v>
+      </c>
+      <c r="N10" s="21" t="str">
+        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <v>/</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" spans="1:15" ht="116">
+      <c r="A11" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B11" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G11" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="20" t="s">
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B12" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="17" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4133,7 +4295,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H10 H2:H8</xm:sqref>
+          <xm:sqref>H12 H2:H8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a value from drop down list" prompt="Select Group" xr:uid="{7B904523-E04A-4BBE-BEE8-FE5E9BFAB573}">
           <x14:formula1>
@@ -4175,7 +4337,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B8 B11:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4325,7 +4487,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ED851F-A6F0-427D-8F6D-B780324144D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631F7136-DE8B-4065-A0F8-E2AE934E1C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2729,8 +2729,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2822,7 +2822,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v/>
+        <v>basichotGuard.xml/deadSensorGuard.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2830,7 +2830,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="M3" s="32" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v/>
+        <v>basichotGuard.xml</v>
       </c>
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
@@ -2868,7 +2868,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2896,11 +2896,11 @@
       </c>
       <c r="M4" s="32" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
-        <v/>
+        <v>deadSensorGuard.xml</v>
       </c>
       <c r="N4" s="33" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O4" s="32"/>
     </row>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="O10" s="38"/>
     </row>
-    <row r="11" spans="1:15" ht="116">
+    <row r="11" spans="1:15" ht="29">
       <c r="A11" s="20" t="s">
         <v>119</v>
       </c>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G11" s="17" t="str">
         <f>$O$2</f>
-        <v/>
+        <v>basichotGuard.xml/deadSensorGuard.xml</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631F7136-DE8B-4065-A0F8-E2AE934E1C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B83BDFD-A8DB-4B6C-B5F5-212190A04C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2730,7 +2730,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2822,7 +2822,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2909,7 +2909,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2937,11 +2937,11 @@
       </c>
       <c r="M5" s="32" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v/>
+        <v>hotGuard.xml</v>
       </c>
       <c r="N5" s="33" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2950,7 +2950,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -2978,11 +2978,11 @@
       </c>
       <c r="M6" s="32" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v/>
+        <v>guardOrderMIX.xml</v>
       </c>
       <c r="N6" s="32" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O6" s="32"/>
     </row>
@@ -2991,7 +2991,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -3019,11 +3019,11 @@
       </c>
       <c r="M7" s="32" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v/>
+        <v>vxOverrideUIvalues.xml</v>
       </c>
       <c r="N7" s="32" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O7" s="32"/>
     </row>
@@ -3032,7 +3032,7 @@
         <v>227</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>124</v>
@@ -3060,11 +3060,11 @@
       </c>
       <c r="M8" s="32" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v/>
+        <v>uiPopup.xml</v>
       </c>
       <c r="N8" s="32" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O8" s="32"/>
     </row>
@@ -3073,7 +3073,7 @@
         <v>297</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>125</v>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="M9" s="21" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
-        <v/>
+        <v>minOnNoBindings.xml</v>
       </c>
       <c r="N9" s="21" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O9" s="38"/>
     </row>
@@ -3114,7 +3114,7 @@
         <v>298</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>124</v>
@@ -3142,11 +3142,11 @@
       </c>
       <c r="M10" s="21" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
-        <v/>
+        <v>minOnGeneral.xml</v>
       </c>
       <c r="N10" s="21" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -3155,7 +3155,7 @@
         <v>119</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>121</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G11" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
@@ -3182,7 +3182,7 @@
         <v>120</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>124</v>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B83BDFD-A8DB-4B6C-B5F5-212190A04C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20730E2-3941-47D1-B91D-559501429155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -998,12 +998,6 @@
     <t>minOnNoBindingsTest.robot/staleStatePrevention.robot</t>
   </si>
   <si>
-    <t>Override2_NoBindings-test</t>
-  </si>
-  <si>
-    <t>Override3_General-test</t>
-  </si>
-  <si>
     <t>minOnGeneralTest.robot</t>
   </si>
   <si>
@@ -1017,6 +1011,12 @@
   </si>
   <si>
     <t>MinOnGeneralTest</t>
+  </si>
+  <si>
+    <t>Override_NoBindings-test</t>
+  </si>
+  <si>
+    <t>Override_General-test</t>
   </si>
 </sst>
 </file>
@@ -2729,8 +2729,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>200</v>
@@ -3079,7 +3079,7 @@
         <v>125</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>289</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>200</v>
@@ -3120,16 +3120,16 @@
         <v>124</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>138</v>
@@ -3138,7 +3138,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="O10" s="38"/>
     </row>
-    <row r="11" spans="1:15" ht="29">
+    <row r="11" spans="1:15" ht="116">
       <c r="A11" s="20" t="s">
         <v>119</v>
       </c>
@@ -3269,8 +3269,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>200</v>
@@ -3619,7 +3619,7 @@
         <v>125</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>289</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>200</v>
@@ -3660,16 +3660,16 @@
         <v>124</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>138</v>
@@ -3678,7 +3678,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
@@ -3809,8 +3809,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>200</v>
@@ -4159,7 +4159,7 @@
         <v>125</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>289</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>200</v>
@@ -4200,16 +4200,16 @@
         <v>124</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>138</v>
@@ -4218,7 +4218,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20730E2-3941-47D1-B91D-559501429155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3692A1D1-85A3-4D41-9617-3AB6D80F6AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -1013,10 +1013,10 @@
     <t>MinOnGeneralTest</t>
   </si>
   <si>
-    <t>Override_NoBindings-test</t>
-  </si>
-  <si>
-    <t>Override_General-test</t>
+    <t>Override_MinOnNoBindings-test</t>
+  </si>
+  <si>
+    <t>Override_MinOnGeneral-test</t>
   </si>
 </sst>
 </file>
@@ -2729,8 +2729,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3269,8 +3269,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3809,8 +3809,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3692A1D1-85A3-4D41-9617-3AB6D80F6AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B7310-A04A-447F-8813-539895342B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B7310-A04A-447F-8813-539895342B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10CB174-22FA-4A32-A8F8-59D065CEFCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="300">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1017,6 +1017,9 @@
   </si>
   <si>
     <t>Override_MinOnGeneral-test</t>
+  </si>
+  <si>
+    <t>NoBindings</t>
   </si>
 </sst>
 </file>
@@ -2729,8 +2732,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3094,7 +3097,7 @@
         <v>138</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>116</v>
+        <v>299</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>291</v>
@@ -3270,7 +3273,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3634,7 +3637,7 @@
         <v>138</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>116</v>
+        <v>299</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>291</v>
@@ -3810,7 +3813,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4174,7 +4177,7 @@
         <v>138</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>116</v>
+        <v>299</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>291</v>
@@ -4487,7 +4490,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10CB174-22FA-4A32-A8F8-59D065CEFCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF0BDD8-8D60-4FBD-B59F-8489C0714364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -2732,8 +2732,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3812,7 +3812,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -4490,8 +4490,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF0BDD8-8D60-4FBD-B59F-8489C0714364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B845318C-F23E-4BDD-9193-B44CCC98F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="301">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -799,9 +799,6 @@
     <t>uiPopupTest.robot</t>
   </si>
   <si>
-    <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml /home/fc/automation/AuQA/Testcases/UITests/uiPopup.xml</t>
-  </si>
-  <si>
     <t>UITestPopup</t>
   </si>
   <si>
@@ -1020,6 +1017,12 @@
   </si>
   <si>
     <t>NoBindings</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 2 --name 'Override_MinOnNoBindings-test'  --reporttitle "MinOnNoBindings"  --outputdir Reports --output minOnNoBindings.xml --variable environment:config146 -v groupname:NoBindings -T /home/fc/automation/AuQA/Testcases/OverrideTests/minOnNoBindingsTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
+  </si>
+  <si>
+    <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml /home/fc/automation/AuQA/Testcases/UITests/uiPopup.xml /home/fc/automation/AuQA/Testcases/OverrideTests/minOnNoBindingsTest.robot</t>
   </si>
 </sst>
 </file>
@@ -2177,13 +2180,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>17</v>
@@ -2239,13 +2242,13 @@
         <v>100</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H4" s="4">
         <v>9</v>
@@ -2259,13 +2262,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -2279,16 +2282,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2299,13 +2302,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -2319,13 +2322,13 @@
         <v>80.599999999999994</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -2345,7 +2348,7 @@
         <v>68</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H9" s="4">
         <v>9</v>
@@ -2365,7 +2368,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H10" s="4">
         <v>2</v>
@@ -2379,7 +2382,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E11" s="4">
         <v>0.4</v>
@@ -2399,7 +2402,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -2419,13 +2422,13 @@
         <v>72</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="4">
         <v>9</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H13" s="4">
         <v>15</v>
@@ -2439,16 +2442,16 @@
         <v>88</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2465,7 +2468,7 @@
         <v>90</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>69</v>
@@ -2485,7 +2488,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>70</v>
@@ -2499,13 +2502,13 @@
         <v>157</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17" s="4">
         <v>15</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>71</v>
@@ -2519,13 +2522,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>240</v>
-      </c>
       <c r="G18" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>72</v>
@@ -2539,13 +2542,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="G19" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>73</v>
@@ -2559,13 +2562,13 @@
         <v>72</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="G20" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>74</v>
@@ -2579,13 +2582,13 @@
         <v>79</v>
       </c>
       <c r="D21" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="G21" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>75</v>
@@ -2599,13 +2602,13 @@
         <v>163</v>
       </c>
       <c r="D22" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="G22" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>76</v>
@@ -2619,16 +2622,16 @@
         <v>74</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2639,16 +2642,16 @@
         <v>81</v>
       </c>
       <c r="D24" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2659,30 +2662,30 @@
         <v>167</v>
       </c>
       <c r="D25" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="D26" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2692,7 +2695,7 @@
         <v>73</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2702,7 +2705,7 @@
         <v>74</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2710,7 +2713,7 @@
         <v>75</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2718,7 +2721,7 @@
         <v>76</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2732,8 +2735,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2825,7 +2828,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>minOnNoBindings.xmlminOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2833,7 +2836,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -2861,7 +2864,7 @@
       </c>
       <c r="M3" s="32" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
+        <v/>
       </c>
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
@@ -2871,7 +2874,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>125</v>
@@ -2899,11 +2902,11 @@
       </c>
       <c r="M4" s="32" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
+        <v/>
       </c>
       <c r="N4" s="33" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O4" s="32"/>
     </row>
@@ -2912,7 +2915,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>125</v>
@@ -2940,11 +2943,11 @@
       </c>
       <c r="M5" s="32" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v>hotGuard.xml</v>
+        <v/>
       </c>
       <c r="N5" s="33" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2953,7 +2956,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>125</v>
@@ -2981,11 +2984,11 @@
       </c>
       <c r="M6" s="32" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
+        <v/>
       </c>
       <c r="N6" s="32" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O6" s="32"/>
     </row>
@@ -2994,7 +2997,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>125</v>
@@ -3022,20 +3025,20 @@
       </c>
       <c r="M7" s="32" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
+        <v/>
       </c>
       <c r="N7" s="32" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O7" s="32"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>124</v>
@@ -3063,17 +3066,17 @@
       </c>
       <c r="M8" s="32" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
+        <v/>
       </c>
       <c r="N8" s="32" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>200</v>
@@ -3082,25 +3085,25 @@
         <v>125</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>138</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M9" s="21" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
@@ -3108,13 +3111,13 @@
       </c>
       <c r="N9" s="21" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>200</v>
@@ -3123,16 +3126,16 @@
         <v>124</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>138</v>
@@ -3141,7 +3144,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
@@ -3149,7 +3152,7 @@
       </c>
       <c r="N10" s="21" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O10" s="38"/>
     </row>
@@ -3174,7 +3177,7 @@
       </c>
       <c r="G11" s="17" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>minOnNoBindings.xmlminOnGeneral.xml</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
@@ -3572,7 +3575,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>200</v>
@@ -3613,7 +3616,7 @@
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>200</v>
@@ -3622,25 +3625,25 @@
         <v>125</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>138</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M9" s="21" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
@@ -3654,7 +3657,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>200</v>
@@ -3663,16 +3666,16 @@
         <v>124</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>138</v>
@@ -3681,7 +3684,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
@@ -4112,7 +4115,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>200</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>200</v>
@@ -4162,25 +4165,25 @@
         <v>125</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>138</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M9" s="21" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
@@ -4194,7 +4197,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>200</v>
@@ -4203,16 +4206,16 @@
         <v>124</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>138</v>
@@ -4221,7 +4224,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M10" s="21" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
@@ -4488,10 +4491,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4559,74 +4562,87 @@
     </row>
     <row r="8" spans="1:2" ht="29">
       <c r="A8" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:2" ht="72.5">
+      <c r="A11" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="24" t="s">
+      <c r="B11" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29">
+      <c r="A12" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B12" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29">
-      <c r="A11" s="24" t="s">
+    <row r="13" spans="1:2" ht="29">
+      <c r="A13" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B13" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="26" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B15" s="26" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="29">
-      <c r="A14" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29">
-      <c r="A15" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29">
       <c r="A16" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29">
+      <c r="A17" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29">
+      <c r="A18" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B18" s="24" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4710,82 +4726,82 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>259</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>261</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>263</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>265</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>269</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="101.5">
       <c r="A16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B845318C-F23E-4BDD-9193-B44CCC98F700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F999B596-E919-4C6F-A2ED-CF6840CC416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="302">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1022,7 +1022,10 @@
     <t>sudo pabot --pabotlib --processes 2 --name 'Override_MinOnNoBindings-test'  --reporttitle "MinOnNoBindings"  --outputdir Reports --output minOnNoBindings.xml --variable environment:config146 -v groupname:NoBindings -T /home/fc/automation/AuQA/Testcases/OverrideTests/minOnNoBindingsTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
   </si>
   <si>
-    <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml /home/fc/automation/AuQA/Testcases/UITests/uiPopup.xml /home/fc/automation/AuQA/Testcases/OverrideTests/minOnNoBindingsTest.robot</t>
+    <t>sudo robot --name 'Override_MinOnGeneral-test'  --reporttitle "MinOnGeneral"  --outputdir Reports --output minOnGeneral.xml --variable environment:config146 -v groupname:General-test /home/fc/automation/AuQA/Testcases/OverrideTests/minOnGeneralTest.robot</t>
+  </si>
+  <si>
+    <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml /home/fc/automation/AuQA/Testcases/UITests/uiPopup.xml /home/fc/automation/AuQA/Testcases/OverrideTests/minOnNoBindingsTest.robot /home/fc/automation/AuQA/Testcases/OverrideTests/minOnGeneralTest.robot</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1180,13 +1183,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1228,15 +1224,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2195,19 +2187,19 @@
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>99</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="4">
         <v>55</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>50</v>
       </c>
       <c r="H2" s="4">
@@ -2215,19 +2207,19 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B3" s="4">
         <v>50</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="4">
         <v>45</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="19" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="4">
@@ -2235,19 +2227,19 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>228</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>228</v>
       </c>
       <c r="H4" s="4">
@@ -2255,19 +2247,19 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>229</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>229</v>
       </c>
       <c r="H5" s="4">
@@ -2275,19 +2267,19 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>230</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>230</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -2295,19 +2287,19 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B7" s="4">
         <v>20</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>231</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="19" t="s">
         <v>231</v>
       </c>
       <c r="H7" s="4">
@@ -2315,19 +2307,19 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4">
         <v>80.599999999999994</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>232</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="19" t="s">
         <v>234</v>
       </c>
       <c r="H8" s="4">
@@ -2335,19 +2327,19 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="4">
         <v>64.400000000000006</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>150</v>
       </c>
       <c r="E9" s="4">
         <v>68</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>235</v>
       </c>
       <c r="H9" s="4">
@@ -2355,19 +2347,19 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B10" s="4">
         <v>66</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>151</v>
       </c>
       <c r="E10" s="4">
         <v>53</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="19" t="s">
         <v>236</v>
       </c>
       <c r="H10" s="4">
@@ -2375,19 +2367,19 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="4">
         <v>68</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>233</v>
       </c>
       <c r="E11" s="4">
         <v>0.4</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="4">
@@ -2395,19 +2387,19 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B12" s="4">
         <v>53</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>234</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="4">
@@ -2415,19 +2407,19 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>152</v>
       </c>
       <c r="B13" s="4">
         <v>72</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>235</v>
       </c>
       <c r="E13" s="4">
         <v>9</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="19" t="s">
         <v>237</v>
       </c>
       <c r="H13" s="4">
@@ -2435,19 +2427,19 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="43.5">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>153</v>
       </c>
       <c r="B14" s="4">
         <v>88</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>236</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="19" t="s">
         <v>238</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -2455,19 +2447,19 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="4">
         <v>90</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="19" t="s">
         <v>240</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -2475,19 +2467,19 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="4">
         <v>77</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="4">
         <v>90</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="19" t="s">
         <v>242</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -2495,19 +2487,19 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>237</v>
       </c>
       <c r="E17" s="4">
         <v>15</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="19" t="s">
         <v>244</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -2515,19 +2507,19 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="72.5">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>238</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="19" t="s">
         <v>246</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -2535,19 +2527,19 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>240</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="19" t="s">
         <v>248</v>
       </c>
       <c r="H19" s="4" t="s">
@@ -2555,19 +2547,19 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>242</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="19" t="s">
         <v>250</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -2575,19 +2567,19 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="4">
         <v>79</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>244</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="19" t="s">
         <v>252</v>
       </c>
       <c r="H21" s="4" t="s">
@@ -2595,19 +2587,19 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="19" t="s">
         <v>246</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="19" t="s">
         <v>254</v>
       </c>
       <c r="H22" s="4" t="s">
@@ -2615,13 +2607,13 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>164</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="19" t="s">
         <v>248</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2635,13 +2627,13 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="4">
         <v>81</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>250</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -2655,13 +2647,13 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="19" t="s">
         <v>166</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>252</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -2675,7 +2667,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="19" t="s">
         <v>254</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -2689,7 +2681,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="D27" s="21"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="8"/>
       <c r="G27" s="4" t="s">
         <v>73</v>
@@ -2699,7 +2691,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="D28" s="21"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="8"/>
       <c r="G28" s="4" t="s">
         <v>74</v>
@@ -2735,481 +2727,480 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.90625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="15"/>
+    <col min="1" max="1" width="27.36328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" style="34" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="34"/>
+    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="87.90625" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32" t="str">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>minOnNoBindings.xmlminOnGeneral.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="32" t="str">
+      <c r="M3" s="30" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v/>
-      </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+        <v>basichotGuard.xml</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="29">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="32" t="str">
+      <c r="M4" s="30" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
-        <v/>
-      </c>
-      <c r="N4" s="33" t="str">
+        <v>deadSensorGuard.xml</v>
+      </c>
+      <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v/>
-      </c>
-      <c r="O4" s="32"/>
+        <v>/</v>
+      </c>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="29">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="32" t="str">
+      <c r="M5" s="30" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v/>
-      </c>
-      <c r="N5" s="33" t="str">
+        <v>hotGuard.xml</v>
+      </c>
+      <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O5" s="32"/>
+        <v>/</v>
+      </c>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="29">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="32" t="str">
+      <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v/>
-      </c>
-      <c r="N6" s="32" t="str">
+        <v>guardOrderMIX.xml</v>
+      </c>
+      <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O6" s="32"/>
+        <v>/</v>
+      </c>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" ht="29">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="M7" s="32" t="str">
+      <c r="M7" s="30" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="32" t="str">
+        <v>vxOverrideUIvalues.xml</v>
+      </c>
+      <c r="N7" s="30" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O7" s="32"/>
+        <v>/</v>
+      </c>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="32" t="str">
+      <c r="M8" s="30" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v/>
-      </c>
-      <c r="N8" s="32" t="str">
+        <v>uiPopup.xml</v>
+      </c>
+      <c r="N8" s="30" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O8" s="32"/>
+        <v>/</v>
+      </c>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="29">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="M9" s="21" t="str">
+      <c r="M9" s="35" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
         <v>minOnNoBindings.xml</v>
       </c>
-      <c r="N9" s="21" t="str">
+      <c r="N9" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O9" s="38"/>
+        <v>/</v>
+      </c>
+      <c r="O9" s="35"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="M10" s="21" t="str">
+      <c r="M10" s="35" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
         <v>minOnGeneral.xml</v>
       </c>
-      <c r="N10" s="21" t="str">
+      <c r="N10" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="38"/>
+        <v>/</v>
+      </c>
+      <c r="O10" s="35"/>
     </row>
     <row r="11" spans="1:15" ht="116">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>minOnNoBindings.xmlminOnGeneral.xml</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="15" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3275,481 +3266,480 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="15"/>
+    <col min="1" max="1" width="15.08984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" style="34" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="34"/>
+    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.453125" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32" t="str">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="32" t="str">
+      <c r="M3" s="30" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="29">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="32" t="str">
+      <c r="M4" s="30" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="N4" s="33" t="str">
+      <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
-      <c r="O4" s="32"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="29">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="32" t="str">
+      <c r="M5" s="30" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="N5" s="33" t="str">
+      <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O5" s="32"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="29">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="32" t="str">
+      <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
-      <c r="N6" s="32" t="str">
+      <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="32"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" ht="29">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="32" t="str">
+      <c r="M7" s="30" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
         <v>vxOverrideUIvalues.xml</v>
       </c>
-      <c r="N7" s="32" t="str">
+      <c r="N7" s="30" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O7" s="32"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="32" t="str">
+      <c r="M8" s="30" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
         <v>uiPopup.xml</v>
       </c>
-      <c r="N8" s="32" t="str">
+      <c r="N8" s="30" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O8" s="32"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="29">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="M9" s="21" t="str">
+      <c r="M9" s="35" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
         <v>minOnNoBindings.xml</v>
       </c>
-      <c r="N9" s="21" t="str">
+      <c r="N9" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O9" s="38"/>
+      <c r="O9" s="35"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="M10" s="21" t="str">
+      <c r="M10" s="35" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
         <v>minOnGeneral.xml</v>
       </c>
-      <c r="N10" s="21" t="str">
+      <c r="N10" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O10" s="38"/>
+      <c r="O10" s="35"/>
     </row>
     <row r="11" spans="1:15" ht="116">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="15" t="str">
         <f>$O$2</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="15" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3802,7 +3792,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B8 B11:B12</xm:sqref>
+          <xm:sqref>B2:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3815,481 +3805,482 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" style="15" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="15"/>
-    <col min="13" max="13" width="20.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="15"/>
+    <col min="1" max="1" width="15.08984375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="34" customWidth="1"/>
+    <col min="11" max="12" width="8.81640625" style="34"/>
+    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.453125" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="28" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32" t="str">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="32" t="str">
+      <c r="M3" s="30" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
         <v>basichotGuard.xml</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" ht="29">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="32" t="str">
+      <c r="M4" s="30" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
         <v>deadSensorGuard.xml</v>
       </c>
-      <c r="N4" s="33" t="str">
+      <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
         <v>/</v>
       </c>
-      <c r="O4" s="32"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" ht="29">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="32" t="str">
+      <c r="M5" s="30" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
         <v>hotGuard.xml</v>
       </c>
-      <c r="N5" s="33" t="str">
+      <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O5" s="32"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" ht="29">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="32" t="str">
+      <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
         <v>guardOrderMIX.xml</v>
       </c>
-      <c r="N6" s="32" t="str">
+      <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O6" s="32"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" ht="29">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="32" t="str">
+      <c r="M7" s="30" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
         <v>vxOverrideUIvalues.xml</v>
       </c>
-      <c r="N7" s="32" t="str">
+      <c r="N7" s="30" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O7" s="32"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="M8" s="32" t="str">
+      <c r="M8" s="30" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
         <v>uiPopup.xml</v>
       </c>
-      <c r="N8" s="32" t="str">
+      <c r="N8" s="30" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O8" s="32"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" ht="29">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="M9" s="21" t="str">
+      <c r="M9" s="35" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
         <v>minOnNoBindings.xml</v>
       </c>
-      <c r="N9" s="21" t="str">
+      <c r="N9" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O9" s="38"/>
+      <c r="O9" s="35"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="M10" s="21" t="str">
+      <c r="M10" s="35" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
         <v>minOnGeneral.xml</v>
       </c>
-      <c r="N10" s="21" t="str">
+      <c r="N10" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O10" s="38"/>
+      <c r="O10" s="35"/>
     </row>
     <row r="11" spans="1:15" ht="116">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="15" t="str">
         <f>$O$2</f>
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="15" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4343,7 +4334,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B8 B11:B12</xm:sqref>
+          <xm:sqref>B2:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4358,7 +4349,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4389,10 +4380,10 @@
       <c r="F1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4403,22 +4394,22 @@
       <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4429,22 +4420,22 @@
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4455,25 +4446,28 @@
       <c r="B4" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>129</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4493,156 +4487,157 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.90625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.36328125" style="27" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="27"/>
+    <col min="1" max="1" width="20.90625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.36328125" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="58">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="29">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:2" ht="29">
+      <c r="A10" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="24"/>
-    </row>
-    <row r="11" spans="1:2" ht="72.5">
-      <c r="A11" s="24" t="s">
+      <c r="B10" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="87">
+      <c r="A11" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>300</v>
+      <c r="B11" s="22" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="29">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="22" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4688,7 +4683,7 @@
       <c r="A4" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4696,7 +4691,7 @@
       <c r="A5" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4704,7 +4699,7 @@
       <c r="A6" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4712,7 +4707,7 @@
       <c r="A7" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4720,7 +4715,7 @@
       <c r="A8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4728,7 +4723,7 @@
       <c r="A9" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4736,7 +4731,7 @@
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4744,7 +4739,7 @@
       <c r="A11" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4752,7 +4747,7 @@
       <c r="A12" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4760,7 +4755,7 @@
       <c r="A13" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="27" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4768,7 +4763,7 @@
       <c r="A14" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4776,7 +4771,7 @@
       <c r="A15" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4800,7 +4795,7 @@
       <c r="A18" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>274</v>
       </c>
     </row>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F999B596-E919-4C6F-A2ED-CF6840CC416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD2287-E05F-4003-94AE-81BBE57AF94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -56,7 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Do not change</t>
         </r>
@@ -80,7 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Do not change</t>
         </r>
@@ -104,7 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Do not change</t>
         </r>
@@ -1059,14 +1061,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1517,19 +1519,19 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1558,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29">
+    <row r="3" spans="1:11" ht="28.8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29">
+    <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1662,7 +1664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29">
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29">
+    <row r="8" spans="1:11" ht="28.8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29">
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1766,7 +1768,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29">
+    <row r="10" spans="1:11" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1794,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29">
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +1820,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.65" customHeight="1">
+    <row r="13" spans="1:11" ht="57.6" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29">
+    <row r="14" spans="1:11" ht="28.8">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.5">
+    <row r="15" spans="1:11" ht="43.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1922,7 +1924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29">
+    <row r="16" spans="1:11" ht="28.8">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1996,7 +1998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="29">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="29">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2080,7 +2082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -2151,17 +2153,17 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="35.36328125" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2426,7 +2428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.5">
+    <row r="14" spans="1:11" ht="43.2">
       <c r="A14" s="19" t="s">
         <v>153</v>
       </c>
@@ -2506,7 +2508,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="72.5">
+    <row r="18" spans="1:8" ht="72">
       <c r="A18" s="19" t="s">
         <v>158</v>
       </c>
@@ -2729,23 +2731,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" style="34" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="34"/>
-    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" style="34" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="34"/>
+    <col min="13" max="13" width="20.77734375" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.90625" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="34"/>
+    <col min="15" max="15" width="87.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2818,10 +2820,10 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="43.5">
+        <v>basichotGuard.xml/uiPopup.xmlminOnGeneral.xml</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.2">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
@@ -2859,12 +2861,12 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>125</v>
@@ -2892,20 +2894,20 @@
       </c>
       <c r="M4" s="30" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
+        <v/>
       </c>
       <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>125</v>
@@ -2933,20 +2935,20 @@
       </c>
       <c r="M5" s="30" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v>hotGuard.xml</v>
+        <v/>
       </c>
       <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>125</v>
@@ -2974,20 +2976,20 @@
       </c>
       <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
+        <v/>
       </c>
       <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>125</v>
@@ -3015,11 +3017,11 @@
       </c>
       <c r="M7" s="30" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
+        <v/>
       </c>
       <c r="N7" s="30" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -3064,12 +3066,12 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="29">
+    <row r="9" spans="1:15" ht="28.8">
       <c r="A9" s="18" t="s">
         <v>294</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
@@ -3097,11 +3099,11 @@
       </c>
       <c r="M9" s="35" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
-        <v>minOnNoBindings.xml</v>
+        <v/>
       </c>
       <c r="N9" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O9" s="35"/>
     </row>
@@ -3142,11 +3144,11 @@
       </c>
       <c r="N10" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="116">
+    <row r="11" spans="1:15" ht="115.2">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -3167,7 +3169,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>basichotGuard.xml/uiPopup.xmlminOnGeneral.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
@@ -3268,23 +3270,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="34" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="34"/>
-    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="34" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="34"/>
+    <col min="13" max="13" width="20.77734375" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="34"/>
+    <col min="15" max="15" width="99.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3360,7 +3362,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
@@ -3398,7 +3400,7 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
@@ -3439,7 +3441,7 @@
       </c>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
@@ -3480,7 +3482,7 @@
       </c>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
@@ -3521,7 +3523,7 @@
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
@@ -3603,7 +3605,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="29">
+    <row r="9" spans="1:15" ht="28.8">
       <c r="A9" s="18" t="s">
         <v>294</v>
       </c>
@@ -3685,7 +3687,7 @@
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="116">
+    <row r="11" spans="1:15" ht="115.2">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -3809,23 +3811,23 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" style="34" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="34"/>
-    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" style="34" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="34"/>
+    <col min="13" max="13" width="20.77734375" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="34"/>
+    <col min="15" max="15" width="99.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3901,7 +3903,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
@@ -3939,7 +3941,7 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
@@ -3980,7 +3982,7 @@
       </c>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
@@ -4021,7 +4023,7 @@
       </c>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
@@ -4062,7 +4064,7 @@
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
@@ -4144,7 +4146,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="29">
+    <row r="9" spans="1:15" ht="28.8">
       <c r="A9" s="18" t="s">
         <v>294</v>
       </c>
@@ -4226,7 +4228,7 @@
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="116">
+    <row r="11" spans="1:15" ht="100.8">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -4352,13 +4354,13 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4489,11 +4491,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.90625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.36328125" style="25" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="25"/>
+    <col min="1" max="1" width="20.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.33203125" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4504,7 +4506,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29">
+    <row r="2" spans="1:2" ht="28.8">
       <c r="A2" s="22" t="s">
         <v>178</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="58">
+    <row r="3" spans="1:2" ht="57.6">
       <c r="A3" s="22" t="s">
         <v>89</v>
       </c>
@@ -4520,7 +4522,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58">
+    <row r="4" spans="1:2" ht="57.6">
       <c r="A4" s="22" t="s">
         <v>101</v>
       </c>
@@ -4528,7 +4530,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.5">
+    <row r="5" spans="1:2" ht="43.2">
       <c r="A5" s="22" t="s">
         <v>108</v>
       </c>
@@ -4536,7 +4538,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="58">
+    <row r="6" spans="1:2" ht="43.2">
       <c r="A6" s="22" t="s">
         <v>109</v>
       </c>
@@ -4544,7 +4546,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="58">
+    <row r="7" spans="1:2" ht="57.6">
       <c r="A7" s="22" t="s">
         <v>168</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29">
+    <row r="8" spans="1:2" ht="28.8">
       <c r="A8" s="22" t="s">
         <v>226</v>
       </c>
@@ -4560,7 +4562,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58">
+    <row r="9" spans="1:2" ht="57.6">
       <c r="A9" s="33" t="s">
         <v>296</v>
       </c>
@@ -4568,7 +4570,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29">
+    <row r="10" spans="1:2" ht="28.8">
       <c r="A10" s="33" t="s">
         <v>297</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="87">
+    <row r="11" spans="1:2" ht="86.4">
       <c r="A11" s="22" t="s">
         <v>182</v>
       </c>
@@ -4584,7 +4586,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29">
+    <row r="12" spans="1:2" ht="28.8">
       <c r="A12" s="22" t="s">
         <v>179</v>
       </c>
@@ -4592,7 +4594,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="29">
+    <row r="13" spans="1:2" ht="28.8">
       <c r="A13" s="22" t="s">
         <v>180</v>
       </c>
@@ -4612,7 +4614,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29">
+    <row r="16" spans="1:2" ht="28.8">
       <c r="A16" s="22" t="s">
         <v>192</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29">
+    <row r="17" spans="1:2" ht="28.8">
       <c r="A17" s="22" t="s">
         <v>194</v>
       </c>
@@ -4628,7 +4630,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="29">
+    <row r="18" spans="1:2" ht="28.8">
       <c r="A18" s="22" t="s">
         <v>195</v>
       </c>
@@ -4649,10 +4651,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4775,7 +4777,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="101.5">
+    <row r="16" spans="1:2" ht="86.4">
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
@@ -4783,7 +4785,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29">
+    <row r="17" spans="1:2" ht="28.8">
       <c r="A17" s="2" t="s">
         <v>275</v>
       </c>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B137F7CC-6ADD-4527-8715-2F1ACEE78A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E255444-D465-488C-8D29-170D2B74E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="267">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -848,6 +848,12 @@
   </si>
   <si>
     <t>ahu_change_onpwrlvl</t>
+  </si>
+  <si>
+    <t>power_monitor_pwr1_kW</t>
+  </si>
+  <si>
+    <t>power_monitor_pwr2_kW</t>
   </si>
 </sst>
 </file>
@@ -1979,8 +1985,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2372,13 +2378,13 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="71.1796875" style="7" customWidth="1"/>
     <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
     <col min="4" max="4" width="35.36328125" customWidth="1"/>
     <col min="5" max="5" width="19.54296875" style="7" customWidth="1"/>
@@ -2461,80 +2467,84 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="21"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="4">
+        <v>80.599999999999994</v>
+      </c>
       <c r="D8" s="21"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="21"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="4">
+        <v>86</v>
+      </c>
       <c r="D9" s="21"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="21"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="4">
+        <v>76</v>
+      </c>
       <c r="D10" s="21"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D11" s="21"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="21"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
       <c r="D12" s="21"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="21"/>
-      <c r="B13" s="4"/>
       <c r="D13" s="21"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="21"/>
-      <c r="B14" s="4"/>
       <c r="D14" s="21"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="21"/>
-      <c r="B15" s="4"/>
       <c r="D15" s="21"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="21"/>
-      <c r="B16" s="4"/>
       <c r="D16" s="21"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="21"/>
-      <c r="B17" s="4"/>
       <c r="D17" s="21"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="21"/>
-      <c r="B18" s="4"/>
       <c r="D18" s="21"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="4"/>
       <c r="D19" s="21"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="21"/>
-      <c r="B20" s="4"/>
       <c r="D20" s="21"/>
       <c r="E20" s="4"/>
     </row>
@@ -2597,7 +2607,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4108,8 +4118,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFD2287-E05F-4003-94AE-81BBE57AF94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FEDEAE-B8F2-4C14-A761-FD71EB9560E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2729,7 +2729,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -2820,7 +2822,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/uiPopup.xmlminOnGeneral.xml</v>
+        <v>hotGuard.xml/guardOrderMIX.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.2">
@@ -2828,7 +2830,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>125</v>
@@ -2856,7 +2858,7 @@
       </c>
       <c r="M3" s="30" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
+        <v/>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
@@ -2907,7 +2909,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>125</v>
@@ -2935,7 +2937,7 @@
       </c>
       <c r="M5" s="30" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v/>
+        <v>hotGuard.xml</v>
       </c>
       <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
@@ -2948,7 +2950,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>125</v>
@@ -2976,11 +2978,11 @@
       </c>
       <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v/>
+        <v>guardOrderMIX.xml</v>
       </c>
       <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O6" s="30"/>
     </row>
@@ -3071,7 +3073,7 @@
         <v>294</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
@@ -3099,11 +3101,11 @@
       </c>
       <c r="M9" s="35" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
-        <v/>
+        <v>minOnNoBindings.xml</v>
       </c>
       <c r="N9" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O9" s="35"/>
     </row>
@@ -3144,11 +3146,11 @@
       </c>
       <c r="N10" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="115.2">
+    <row r="11" spans="1:15" ht="43.2">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -3169,7 +3171,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/uiPopup.xmlminOnGeneral.xml</v>
+        <v>hotGuard.xml/guardOrderMIX.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
@@ -3807,8 +3809,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -3900,7 +3902,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>deadSensorGuard.xml/vxOverrideUIvalues.xml/uiPopup.xmlminOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="28.8">
@@ -3908,7 +3910,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>125</v>
@@ -3936,7 +3938,7 @@
       </c>
       <c r="M3" s="30" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
+        <v/>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
@@ -3978,7 +3980,7 @@
       </c>
       <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O4" s="30"/>
     </row>
@@ -3987,7 +3989,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>125</v>
@@ -4015,11 +4017,11 @@
       </c>
       <c r="M5" s="30" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v>hotGuard.xml</v>
+        <v/>
       </c>
       <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O5" s="30"/>
     </row>
@@ -4028,7 +4030,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>125</v>
@@ -4056,11 +4058,11 @@
       </c>
       <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
+        <v/>
       </c>
       <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O6" s="30"/>
     </row>
@@ -4151,7 +4153,7 @@
         <v>294</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
@@ -4179,11 +4181,11 @@
       </c>
       <c r="M9" s="35" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
-        <v>minOnNoBindings.xml</v>
+        <v/>
       </c>
       <c r="N9" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O9" s="35"/>
     </row>
@@ -4224,7 +4226,7 @@
       </c>
       <c r="N10" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O10" s="35"/>
     </row>
@@ -4249,7 +4251,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>deadSensorGuard.xml/vxOverrideUIvalues.xml/uiPopup.xmlminOnGeneral.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FEDEAE-B8F2-4C14-A761-FD71EB9560E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C10AD9-1FD7-4FE9-BA10-16B517BC523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2730,7 +2730,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -2822,7 +2822,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>hotGuard.xml/guardOrderMIX.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>hotGuard.xml/guardOrderMIX.xml/uiPopup.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.2">
@@ -3073,7 +3073,7 @@
         <v>294</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="M9" s="35" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
-        <v>minOnNoBindings.xml</v>
+        <v/>
       </c>
       <c r="N9" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O9" s="35"/>
     </row>
@@ -3114,7 +3114,7 @@
         <v>295</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>124</v>
@@ -3142,11 +3142,11 @@
       </c>
       <c r="M10" s="35" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
-        <v>minOnGeneral.xml</v>
+        <v/>
       </c>
       <c r="N10" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O10" s="35"/>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>hotGuard.xml/guardOrderMIX.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>hotGuard.xml/guardOrderMIX.xml/uiPopup.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="100.8">
+    <row r="11" spans="1:15" ht="57.6">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F999B596-E919-4C6F-A2ED-CF6840CC416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF72619-ECB6-446C-8D6A-2AE6A4DBC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -2727,7 +2727,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -3141,7 +3143,7 @@
         <v>minOnGeneral.xml</v>
       </c>
       <c r="N10" s="35" t="str">
-        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
         <v>/</v>
       </c>
       <c r="O10" s="35"/>
@@ -3680,7 +3682,7 @@
         <v>minOnGeneral.xml</v>
       </c>
       <c r="N10" s="35" t="str">
-        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
         <v>/</v>
       </c>
       <c r="O10" s="35"/>
@@ -3805,9 +3807,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -4221,7 +4221,7 @@
         <v>minOnGeneral.xml</v>
       </c>
       <c r="N10" s="35" t="str">
-        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
+        <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
         <v>/</v>
       </c>
       <c r="O10" s="35"/>
@@ -4647,7 +4647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF72619-ECB6-446C-8D6A-2AE6A4DBC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F2A2C-E2B4-4D65-B95E-40322F15357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -2727,8 +2727,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2820,7 +2820,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>basichotGuard.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2866,7 +2866,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>125</v>
@@ -2894,11 +2894,11 @@
       </c>
       <c r="M4" s="30" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
+        <v/>
       </c>
       <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O4" s="30"/>
     </row>
@@ -2907,7 +2907,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>125</v>
@@ -2935,11 +2935,11 @@
       </c>
       <c r="M5" s="30" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v>hotGuard.xml</v>
+        <v/>
       </c>
       <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O5" s="30"/>
     </row>
@@ -2948,7 +2948,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>125</v>
@@ -2976,11 +2976,11 @@
       </c>
       <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
+        <v/>
       </c>
       <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O6" s="30"/>
     </row>
@@ -2989,7 +2989,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>125</v>
@@ -3017,11 +3017,11 @@
       </c>
       <c r="M7" s="30" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
+        <v/>
       </c>
       <c r="N7" s="30" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>basichotGuard.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
@@ -3807,7 +3807,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568F2A2C-E2B4-4D65-B95E-40322F15357B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D81C0D-9CB3-42B3-BA86-3A68E9CD4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -2727,7 +2727,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="116">
+    <row r="11" spans="1:15" ht="58">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -3268,7 +3268,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -3359,7 +3361,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>deadSensorGuard.xml/hotGuard.xml/vxOverrideUIvalues.xml/minOnNoBindings.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -3367,7 +3369,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>125</v>
@@ -3395,7 +3397,7 @@
       </c>
       <c r="M3" s="30" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
+        <v/>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
@@ -3437,7 +3439,7 @@
       </c>
       <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O4" s="30"/>
     </row>
@@ -3487,7 +3489,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>125</v>
@@ -3515,11 +3517,11 @@
       </c>
       <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
+        <v/>
       </c>
       <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O6" s="30"/>
     </row>
@@ -3569,7 +3571,7 @@
         <v>226</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>124</v>
@@ -3597,11 +3599,11 @@
       </c>
       <c r="M8" s="30" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
+        <v/>
       </c>
       <c r="N8" s="30" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -3651,7 +3653,7 @@
         <v>295</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>124</v>
@@ -3679,11 +3681,11 @@
       </c>
       <c r="M10" s="35" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
-        <v>minOnGeneral.xml</v>
+        <v/>
       </c>
       <c r="N10" s="35" t="str">
         <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O10" s="35"/>
     </row>
@@ -3708,7 +3710,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>deadSensorGuard.xml/hotGuard.xml/vxOverrideUIvalues.xml/minOnNoBindings.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D81C0D-9CB3-42B3-BA86-3A68E9CD4F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA14C6-605E-4AF6-9466-92547DD48B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="303">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1026,6 +1026,9 @@
   </si>
   <si>
     <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml /home/fc/automation/AuQA/Testcases/UITests/uiPopup.xml /home/fc/automation/AuQA/Testcases/OverrideTests/minOnNoBindingsTest.robot /home/fc/automation/AuQA/Testcases/OverrideTests/minOnGeneralTest.robot</t>
+  </si>
+  <si>
+    <t>pabot --pabotlib --processes 1</t>
   </si>
 </sst>
 </file>
@@ -2727,8 +2730,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3025,7 +3028,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="29">
       <c r="A8" s="18" t="s">
         <v>226</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>222</v>
@@ -3107,7 +3110,7 @@
       </c>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="29">
       <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>297</v>
@@ -3268,8 +3271,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3689,7 +3692,7 @@
       </c>
       <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:15" ht="116">
+    <row r="11" spans="1:15" ht="58">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAA14C6-605E-4AF6-9466-92547DD48B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8C505-C48D-4E3C-8F70-5F44383A4299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -2730,8 +2730,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3271,9 +3271,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -3569,7 +3567,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="29">
       <c r="A8" s="18" t="s">
         <v>226</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>201</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>222</v>
@@ -3651,7 +3649,7 @@
       </c>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="29">
       <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
@@ -3659,7 +3657,7 @@
         <v>201</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>297</v>
@@ -3812,7 +3810,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="29">
       <c r="A8" s="18" t="s">
         <v>226</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>222</v>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="29">
       <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>200</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>297</v>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8C505-C48D-4E3C-8F70-5F44383A4299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA77A9E-DB6B-4EF9-9234-508C2EAFE992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -3271,7 +3271,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -3810,8 +3812,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3903,7 +3905,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -4113,7 +4115,7 @@
         <v>226</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>302</v>
@@ -4141,11 +4143,11 @@
       </c>
       <c r="M8" s="30" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
+        <v/>
       </c>
       <c r="N8" s="30" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -4154,7 +4156,7 @@
         <v>294</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
@@ -4182,11 +4184,11 @@
       </c>
       <c r="M9" s="35" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
-        <v>minOnNoBindings.xml</v>
+        <v/>
       </c>
       <c r="N9" s="35" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O9" s="35"/>
     </row>
@@ -4195,7 +4197,7 @@
         <v>295</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>302</v>
@@ -4223,11 +4225,11 @@
       </c>
       <c r="M10" s="35" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
-        <v>minOnGeneral.xml</v>
+        <v/>
       </c>
       <c r="N10" s="35" t="str">
         <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
-        <v>/</v>
+        <v/>
       </c>
       <c r="O10" s="35"/>
     </row>
@@ -4252,7 +4254,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA77A9E-DB6B-4EF9-9234-508C2EAFE992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162FC50C-47DD-45E0-954E-4B880A2CC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -1148,7 +1148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1229,7 +1229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2730,16 +2729,14 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="35" customWidth="1"/>
     <col min="5" max="5" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
@@ -2823,7 +2820,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5">
@@ -2869,7 +2866,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>125</v>
@@ -2897,11 +2894,11 @@
       </c>
       <c r="M4" s="30" t="str">
         <f>IF($B$4="Yes",$G$4,"")</f>
-        <v/>
+        <v>deadSensorGuard.xml</v>
       </c>
       <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O4" s="30"/>
     </row>
@@ -2910,7 +2907,7 @@
         <v>108</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>125</v>
@@ -2938,11 +2935,11 @@
       </c>
       <c r="M5" s="30" t="str">
         <f>IF($B$5="Yes",$G$5,"")</f>
-        <v/>
+        <v>hotGuard.xml</v>
       </c>
       <c r="N5" s="31" t="str">
         <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O5" s="30"/>
     </row>
@@ -2951,7 +2948,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>125</v>
@@ -2979,11 +2976,11 @@
       </c>
       <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v/>
+        <v>guardOrderMIX.xml</v>
       </c>
       <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O6" s="30"/>
     </row>
@@ -2992,7 +2989,7 @@
         <v>168</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>125</v>
@@ -3020,11 +3017,11 @@
       </c>
       <c r="M7" s="30" t="str">
         <f>IF($B$7="Yes",$G$7,"")</f>
-        <v/>
+        <v>vxOverrideUIvalues.xml</v>
       </c>
       <c r="N7" s="30" t="str">
         <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O7" s="30"/>
     </row>
@@ -3100,15 +3097,15 @@
       <c r="J9" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="M9" s="35" t="str">
+      <c r="M9" s="30" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
         <v>minOnNoBindings.xml</v>
       </c>
-      <c r="N9" s="35" t="str">
+      <c r="N9" s="30" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O9" s="35"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" ht="29">
       <c r="A10" s="18" t="s">
@@ -3141,15 +3138,15 @@
       <c r="J10" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="M10" s="35" t="str">
+      <c r="M10" s="30" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
         <v>minOnGeneral.xml</v>
       </c>
-      <c r="N10" s="35" t="str">
+      <c r="N10" s="30" t="str">
         <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O10" s="35"/>
+      <c r="O10" s="30"/>
     </row>
     <row r="11" spans="1:15" ht="58">
       <c r="A11" s="18" t="s">
@@ -3172,7 +3169,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
@@ -3271,16 +3268,14 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="35" customWidth="1"/>
     <col min="5" max="5" width="19.6328125" style="34" customWidth="1"/>
     <col min="6" max="6" width="19.08984375" style="34" customWidth="1"/>
     <col min="7" max="7" width="19.6328125" style="34" customWidth="1"/>
@@ -3364,7 +3359,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>deadSensorGuard.xml/hotGuard.xml/vxOverrideUIvalues.xml/minOnNoBindings.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -3372,7 +3367,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>125</v>
@@ -3400,7 +3395,7 @@
       </c>
       <c r="M3" s="30" t="str">
         <f>IF($B$3="Yes",$G$3,"")</f>
-        <v/>
+        <v>basichotGuard.xml</v>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
@@ -3442,7 +3437,7 @@
       </c>
       <c r="N4" s="31" t="str">
         <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O4" s="30"/>
     </row>
@@ -3492,7 +3487,7 @@
         <v>109</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>125</v>
@@ -3520,11 +3515,11 @@
       </c>
       <c r="M6" s="30" t="str">
         <f>IF($B$6="Yes",$G$6,"")</f>
-        <v/>
+        <v>guardOrderMIX.xml</v>
       </c>
       <c r="N6" s="30" t="str">
         <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O6" s="30"/>
     </row>
@@ -3574,7 +3569,7 @@
         <v>226</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>302</v>
@@ -3602,11 +3597,11 @@
       </c>
       <c r="M8" s="30" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v/>
+        <v>uiPopup.xml</v>
       </c>
       <c r="N8" s="30" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -3641,22 +3636,22 @@
       <c r="J9" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="M9" s="35" t="str">
+      <c r="M9" s="30" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
         <v>minOnNoBindings.xml</v>
       </c>
-      <c r="N9" s="35" t="str">
+      <c r="N9" s="30" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
         <v>/</v>
       </c>
-      <c r="O9" s="35"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" ht="29">
       <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>302</v>
@@ -3682,15 +3677,15 @@
       <c r="J10" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="M10" s="35" t="str">
+      <c r="M10" s="30" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="35" t="str">
+        <v>minOnGeneral.xml</v>
+      </c>
+      <c r="N10" s="30" t="str">
         <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="35"/>
+        <v>/</v>
+      </c>
+      <c r="O10" s="30"/>
     </row>
     <row r="11" spans="1:15" ht="58">
       <c r="A11" s="18" t="s">
@@ -3713,7 +3708,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>deadSensorGuard.xml/hotGuard.xml/vxOverrideUIvalues.xml/minOnNoBindings.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
@@ -3812,16 +3807,14 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="36" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="35" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" style="34" customWidth="1"/>
     <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.1796875" style="34" customWidth="1"/>
@@ -3905,7 +3898,7 @@
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="str">
         <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29">
@@ -4115,7 +4108,7 @@
         <v>226</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>302</v>
@@ -4143,11 +4136,11 @@
       </c>
       <c r="M8" s="30" t="str">
         <f>IF($B$8="Yes",$G$8,"")</f>
-        <v/>
+        <v>uiPopup.xml</v>
       </c>
       <c r="N8" s="30" t="str">
         <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v/>
+        <v>/</v>
       </c>
       <c r="O8" s="30"/>
     </row>
@@ -4156,7 +4149,7 @@
         <v>294</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
@@ -4182,22 +4175,22 @@
       <c r="J9" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="M9" s="35" t="str">
+      <c r="M9" s="30" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="35" t="str">
+        <v>minOnNoBindings.xml</v>
+      </c>
+      <c r="N9" s="30" t="str">
         <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O9" s="35"/>
+        <v>/</v>
+      </c>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" ht="29">
       <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>302</v>
@@ -4223,17 +4216,17 @@
       <c r="J10" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="M10" s="35" t="str">
+      <c r="M10" s="30" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="35" t="str">
+        <v>minOnGeneral.xml</v>
+      </c>
+      <c r="N10" s="30" t="str">
         <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="35"/>
-    </row>
-    <row r="11" spans="1:15" ht="116">
+        <v>/</v>
+      </c>
+      <c r="O10" s="30"/>
+    </row>
+    <row r="11" spans="1:15" ht="72.5">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -4254,7 +4247,7 @@
       </c>
       <c r="G11" s="15" t="str">
         <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml</v>
+        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
@@ -4356,7 +4349,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4494,7 +4487,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -4654,7 +4647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E255444-D465-488C-8D29-170D2B74E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992408EB-6E08-446C-A37D-51D7F40D5D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="271">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -854,6 +854,18 @@
   </si>
   <si>
     <t>power_monitor_pwr2_kW</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>NoBindings</t>
+  </si>
+  <si>
+    <t>expected_ahu_state_off</t>
+  </si>
+  <si>
+    <t>Off</t>
   </si>
 </sst>
 </file>
@@ -954,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1044,6 +1056,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2375,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82315C4B-3999-46D7-A97A-FAB22387512D}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2517,84 +2530,66 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:11">
+      <c r="A13" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="D13" s="21"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:11">
+      <c r="A14" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="D14" s="21"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:11">
+      <c r="A15" s="21"/>
+      <c r="B15" s="4"/>
       <c r="D15" s="21"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:11">
+      <c r="A16" s="21"/>
+      <c r="B16" s="4"/>
       <c r="D16" s="21"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
+      <c r="A17" s="21"/>
+      <c r="B17" s="4"/>
       <c r="D17" s="21"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
+      <c r="A18" s="21"/>
+      <c r="B18" s="4"/>
       <c r="D18" s="21"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
+      <c r="A19" s="21"/>
+      <c r="B19" s="4"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="21"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="21"/>
-      <c r="B21" s="4"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="21"/>
-      <c r="B22" s="4"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="21"/>
-      <c r="B23" s="4"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="21"/>
-      <c r="B24" s="4"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="21"/>
-      <c r="B25" s="4"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="21"/>
-      <c r="B26" s="4"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="D27" s="21"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="D28" s="21"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="D29" s="21"/>
-      <c r="E29" s="8"/>
+      <c r="E22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,22 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162FC50C-47DD-45E0-954E-4B880A2CC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB89C878-8870-4F38-B99C-E6436BC0B5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
     <sheet name="overrideTest" sheetId="7" r:id="rId2"/>
-    <sheet name="tuesdaysuite" sheetId="8" r:id="rId3"/>
-    <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
-    <sheet name="thursdaysuite" sheetId="2" r:id="rId5"/>
-    <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
-    <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
-    <sheet name="uitest" sheetId="10" r:id="rId8"/>
+    <sheet name="alarmTest" sheetId="11" r:id="rId3"/>
+    <sheet name="tuesdaysuite" sheetId="8" r:id="rId4"/>
+    <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
+    <sheet name="thursdaysuite" sheetId="2" r:id="rId6"/>
+    <sheet name="commandinputdata" sheetId="6" r:id="rId7"/>
+    <sheet name="testexecutioncommands" sheetId="9" r:id="rId8"/>
+    <sheet name="uitest" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -35,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -115,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="313">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1029,6 +1032,36 @@
   </si>
   <si>
     <t>pabot --pabotlib --processes 1</t>
+  </si>
+  <si>
+    <t>allow_num_exceedences_guard</t>
+  </si>
+  <si>
+    <t>cat_guard_band_range</t>
+  </si>
+  <si>
+    <t>ahu_change_onpwrlvl</t>
+  </si>
+  <si>
+    <t>ahu_property_onpwrlvl</t>
+  </si>
+  <si>
+    <t>power_monitor_pwr1_kW</t>
+  </si>
+  <si>
+    <t>power_monitor_pwr2_kW</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>expected_ahu_state_off</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>alarm1TestInputs</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2182,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -2725,6 +2758,158 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213F30C-9986-413F-9139-B40DA43E91F9}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O12"/>
@@ -3148,7 +3333,7 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="58">
+    <row r="11" spans="1:15" ht="116">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -3263,7 +3448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O12"/>
@@ -3687,7 +3872,7 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="58">
+    <row r="11" spans="1:15" ht="116">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -3802,7 +3987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O12"/>
@@ -4226,7 +4411,7 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="72.5">
+    <row r="11" spans="1:15" ht="116">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -4342,7 +4527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DEF5F6-4C46-448A-BFCD-A11C30C672D9}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H6"/>
@@ -4482,12 +4667,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A3A767-0CFD-401F-B941-49299B692B06}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -4643,7 +4828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B18"/>
   <sheetViews>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162FC50C-47DD-45E0-954E-4B880A2CC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DA141-A154-44FC-B4AC-399826A364A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Do not change</t>
         </r>
@@ -80,7 +80,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Do not change</t>
         </r>
@@ -104,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Do not change</t>
         </r>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="317">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1029,6 +1029,48 @@
   </si>
   <si>
     <t>pabot --pabotlib --processes 1</t>
+  </si>
+  <si>
+    <t>validation_error_popup_title</t>
+  </si>
+  <si>
+    <t>Validation Error</t>
+  </si>
+  <si>
+    <t>sfcmin_popup_message</t>
+  </si>
+  <si>
+    <t>SYSTEM.SFCMin: The value must not be blank.</t>
+  </si>
+  <si>
+    <t>save_popup_title</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>save_popup_message</t>
+  </si>
+  <si>
+    <t>Nothing to save.</t>
+  </si>
+  <si>
+    <t>turn_off_limit_24_hr_popup_message</t>
+  </si>
+  <si>
+    <t>DASHM.TurnOffLimit24H: The unsigned integer is below the minimum of 0</t>
+  </si>
+  <si>
+    <t>unsaved_changes_popup_title</t>
+  </si>
+  <si>
+    <t>Unsaved Changes</t>
+  </si>
+  <si>
+    <t>unsaved_changes_popup_message</t>
+  </si>
+  <si>
+    <t>Discard changes before closing this window?</t>
   </si>
 </sst>
 </file>
@@ -1062,14 +1104,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1148,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1231,6 +1273,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2795,7 +2840,7 @@
       <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -3148,11 +3193,11 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="58">
+    <row r="11" spans="1:15" ht="116">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -3179,7 +3224,7 @@
       <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -3255,7 +3300,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B12</xm:sqref>
+          <xm:sqref>B3:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3334,7 +3379,7 @@
       <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -3687,11 +3732,11 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="58">
+    <row r="11" spans="1:15" ht="116">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -3718,7 +3763,7 @@
       <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -3794,7 +3839,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B12</xm:sqref>
+          <xm:sqref>B3:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3873,7 +3918,7 @@
       <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -4226,11 +4271,11 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="72.5">
+    <row r="11" spans="1:15" ht="116">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -4257,7 +4302,7 @@
       <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -4334,7 +4379,7 @@
           <x14:formula1>
             <xm:f>commandinputdata!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B12</xm:sqref>
+          <xm:sqref>B3:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4487,7 +4532,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -4645,9 +4690,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -4799,6 +4844,62 @@
         <v>274</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29">
+      <c r="A23" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB89C878-8870-4F38-B99C-E6436BC0B5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D99CD-1243-40FB-9701-9A6CA358C332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="319">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1052,9 +1052,6 @@
     <t>power_monitor_pwr2_kW</t>
   </si>
   <si>
-    <t>group_name</t>
-  </si>
-  <si>
     <t>expected_ahu_state_off</t>
   </si>
   <si>
@@ -1062,6 +1059,27 @@
   </si>
   <si>
     <t>alarm1TestInputs</t>
+  </si>
+  <si>
+    <t>power_monitor_pwr_kW_default</t>
+  </si>
+  <si>
+    <t>AhuFailToTurnOff</t>
+  </si>
+  <si>
+    <t>alarm_ahu_failed_toturnoff</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>alarm_status</t>
+  </si>
+  <si>
+    <t>ahu_failed_to_turnoFF_alarm_message</t>
+  </si>
+  <si>
+    <t>in Control Group NoBindings is not turning OFF when commanded.</t>
   </si>
 </sst>
 </file>
@@ -2759,21 +2777,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213F30C-9986-413F-9139-B40DA43E91F9}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" customWidth="1"/>
-    <col min="2" max="2" width="14" style="7" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -2872,40 +2890,49 @@
         <v>309</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="4"/>
+      <c r="A16" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="43.5">
+      <c r="A17" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="19"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="4"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492D99CD-1243-40FB-9701-9A6CA358C332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B7CF0-E0D0-448F-86D7-C4D1243FAF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1061,9 +1061,6 @@
     <t>alarm1TestInputs</t>
   </si>
   <si>
-    <t>power_monitor_pwr_kW_default</t>
-  </si>
-  <si>
     <t>AhuFailToTurnOff</t>
   </si>
   <si>
@@ -1080,6 +1077,9 @@
   </si>
   <si>
     <t>in Control Group NoBindings is not turning OFF when commanded.</t>
+  </si>
+  <si>
+    <t>ahu_property_onpwrlvl_default</t>
   </si>
 </sst>
 </file>
@@ -2779,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213F30C-9986-413F-9139-B40DA43E91F9}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H17:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B14" s="4">
         <v>0.4</v>
@@ -2903,26 +2903,26 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.5">
       <c r="A17" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2930,7 +2930,6 @@
       <c r="B18" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B7CF0-E0D0-448F-86D7-C4D1243FAF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B347FC1-0238-490F-8DCA-728EA154489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="318">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1038,9 +1038,6 @@
   </si>
   <si>
     <t>cat_guard_band_range</t>
-  </si>
-  <si>
-    <t>ahu_change_onpwrlvl</t>
   </si>
   <si>
     <t>ahu_property_onpwrlvl</t>
@@ -2777,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213F30C-9986-413F-9139-B40DA43E91F9}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2791,7 +2788,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -2817,56 +2814,56 @@
       <c r="A4" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>247</v>
+      <c r="B4" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="19" t="s">
-        <v>306</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4">
-        <v>0.5</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4">
-        <v>80.599999999999994</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
       <c r="B7" s="4">
-        <v>64.400000000000006</v>
+        <v>80.599999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="19" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="B8" s="4">
-        <v>80.599999999999994</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" s="4">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="19" t="s">
-        <v>151</v>
+        <v>306</v>
       </c>
       <c r="B10" s="4">
-        <v>76</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2874,62 +2871,55 @@
         <v>307</v>
       </c>
       <c r="B11" s="4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="B12" s="4">
-        <v>10</v>
+      <c r="B12" s="4" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>310</v>
+        <v>317</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.4</v>
+        <v>312</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+    </row>
+    <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="43.5">
-      <c r="A17" s="19" t="s">
+      <c r="B16" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DA141-A154-44FC-B4AC-399826A364A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625EFB8-01AC-4056-9028-2E6AF2DD691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -938,9 +938,6 @@
 Override all equipment for group General-test to the configured maximum cooling level?</t>
   </si>
   <si>
-    <t>sudo robot --name 'Popup' --reporttitle "Popups" --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
-  </si>
-  <si>
     <t>Alarm subject 00-17-0D-00-00-1A-C8-A0 is not bound to any assets.</t>
   </si>
   <si>
@@ -1022,9 +1019,6 @@
     <t>sudo pabot --pabotlib --processes 2 --name 'Override_MinOnNoBindings-test'  --reporttitle "MinOnNoBindings"  --outputdir Reports --output minOnNoBindings.xml --variable environment:config146 -v groupname:NoBindings -T /home/fc/automation/AuQA/Testcases/OverrideTests/minOnNoBindingsTest.robot /home/fc/automation/AuQA/Testcases/staleStatePrevention.robot</t>
   </si>
   <si>
-    <t>sudo robot --name 'Override_MinOnGeneral-test'  --reporttitle "MinOnGeneral"  --outputdir Reports --output minOnGeneral.xml --variable environment:config146 -v groupname:General-test /home/fc/automation/AuQA/Testcases/OverrideTests/minOnGeneralTest.robot</t>
-  </si>
-  <si>
     <t>sudo rebot --removekeywords passed --name 'Guard_Override_Test' --reporttitle "Test performed on environment 37" --outputdir Reports --output output.xml /home/fc/automation/AuQA/Reports/basichotGuard.xml /home/fc/automation/AuQA/Reports/deadSensorGuard.xml /home/fc/automation/AuQA/Reports/hotGuard.xml /home/fc/automation/AuQA/Reports/guardOrderMIX.xml /home/fc/automation/AuQA/Reports/vxOverrideUIvalues.xml /home/fc/automation/AuQA/Testcases/UITests/uiPopup.xml /home/fc/automation/AuQA/Testcases/OverrideTests/minOnNoBindingsTest.robot /home/fc/automation/AuQA/Testcases/OverrideTests/minOnGeneralTest.robot</t>
   </si>
   <si>
@@ -1071,6 +1065,12 @@
   </si>
   <si>
     <t>Discard changes before closing this window?</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 1 --name 'Popup' --reporttitle "Popups" --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
+  </si>
+  <si>
+    <t>sudo pabot --pabotlib --processes 1 --name 'Override_MinOnGeneral-test'  --reporttitle "MinOnGeneral"  --outputdir Reports --output minOnGeneral.xml --variable environment:config146 -v groupname:General-test /home/fc/automation/AuQA/Testcases/OverrideTests/minOnGeneralTest.robot</t>
   </si>
 </sst>
 </file>
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>17</v>
@@ -2324,13 +2324,13 @@
         <v>230</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>230</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2490,7 +2490,7 @@
         <v>238</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2670,7 +2670,7 @@
         <v>69</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2690,7 +2690,7 @@
         <v>70</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2710,7 +2710,7 @@
         <v>71</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2724,7 +2724,7 @@
         <v>72</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2734,7 +2734,7 @@
         <v>73</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2744,7 +2744,7 @@
         <v>74</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2752,7 +2752,7 @@
         <v>75</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2760,7 +2760,7 @@
         <v>76</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3078,7 +3078,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>222</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>200</v>
@@ -3122,25 +3122,25 @@
         <v>125</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>138</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M9" s="30" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
@@ -3154,25 +3154,25 @@
     </row>
     <row r="10" spans="1:15" ht="29">
       <c r="A10" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>138</v>
@@ -3181,7 +3181,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M10" s="30" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
@@ -3617,7 +3617,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>222</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>200</v>
@@ -3661,25 +3661,25 @@
         <v>125</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>138</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M9" s="30" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
@@ -3693,25 +3693,25 @@
     </row>
     <row r="10" spans="1:15" ht="29">
       <c r="A10" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>138</v>
@@ -3720,7 +3720,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M10" s="30" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
@@ -4156,7 +4156,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>222</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="9" spans="1:15" ht="29">
       <c r="A9" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>200</v>
@@ -4200,25 +4200,25 @@
         <v>125</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>138</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M9" s="30" t="str">
         <f>IF($B$9="Yes",$G$9,"")</f>
@@ -4232,25 +4232,25 @@
     </row>
     <row r="10" spans="1:15" ht="29">
       <c r="A10" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>138</v>
@@ -4259,7 +4259,7 @@
         <v>116</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M10" s="30" t="str">
         <f>IF($B$10="Yes",$G$10,"")</f>
@@ -4512,7 +4512,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4532,7 +4532,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
@@ -4602,23 +4602,23 @@
         <v>226</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
       <c r="A9" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.5">
+      <c r="A10" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="33" t="s">
-        <v>297</v>
-      </c>
       <c r="B10" s="22" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87">
@@ -4626,7 +4626,7 @@
         <v>182</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
@@ -4692,7 +4692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700C9353-2A30-431F-BC2E-391121D039E2}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -4830,74 +4830,74 @@
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="29">
       <c r="A23" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B347FC1-0238-490F-8DCA-728EA154489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF5C781-C772-47ED-B748-962B013970E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -46,79 +46,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>abhij</author>
-  </authors>
-  <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{5A7C0B0A-8C5C-4AA4-9C8C-1C865208E710}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Do not change</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>abhij</author>
-  </authors>
-  <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{C8B7DE47-C6B2-4998-AD62-11533B356378}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Do not change</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>abhij</author>
-  </authors>
-  <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{304B6EA5-12B1-49A8-AD04-2EE4555E1271}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Do not change</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="316">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -730,15 +659,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>outputxml</t>
-  </si>
-  <si>
-    <t>combineoutputxml</t>
-  </si>
-  <si>
     <t>popups</t>
   </si>
   <si>
@@ -1077,6 +997,9 @@
   </si>
   <si>
     <t>ahu_property_onpwrlvl_default</t>
+  </si>
+  <si>
+    <t>combinexml</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1009,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,21 +1029,8 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1148,12 +1058,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1267,13 +1171,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -2222,13 +2123,13 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>17</v>
@@ -2284,13 +2185,13 @@
         <v>100</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E4" s="4">
         <v>9</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H4" s="4">
         <v>9</v>
@@ -2304,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -2324,16 +2225,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2344,13 +2245,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -2364,13 +2265,13 @@
         <v>80.599999999999994</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E8" s="4">
         <v>50</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -2390,7 +2291,7 @@
         <v>68</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H9" s="4">
         <v>9</v>
@@ -2410,7 +2311,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H10" s="4">
         <v>2</v>
@@ -2424,7 +2325,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E11" s="4">
         <v>0.4</v>
@@ -2444,7 +2345,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -2464,13 +2365,13 @@
         <v>72</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E13" s="4">
         <v>9</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H13" s="4">
         <v>15</v>
@@ -2484,16 +2385,16 @@
         <v>88</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2510,7 +2411,7 @@
         <v>90</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>69</v>
@@ -2530,7 +2431,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>70</v>
@@ -2544,13 +2445,13 @@
         <v>157</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E17" s="4">
         <v>15</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>71</v>
@@ -2564,13 +2465,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>72</v>
@@ -2584,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>73</v>
@@ -2604,13 +2505,13 @@
         <v>72</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>74</v>
@@ -2624,13 +2525,13 @@
         <v>79</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>75</v>
@@ -2644,13 +2545,13 @@
         <v>163</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>76</v>
@@ -2664,16 +2565,16 @@
         <v>74</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2684,16 +2585,16 @@
         <v>81</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2704,30 +2605,30 @@
         <v>167</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>71</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="D26" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2737,7 +2638,7 @@
         <v>73</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2747,7 +2648,7 @@
         <v>74</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2755,7 +2656,7 @@
         <v>75</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2763,7 +2664,7 @@
         <v>76</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213F30C-9986-413F-9139-B40DA43E91F9}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -2788,7 +2689,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
@@ -2796,7 +2697,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2804,7 +2705,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
@@ -2812,7 +2713,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B4" s="4">
         <v>0.5</v>
@@ -2836,7 +2737,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B7" s="4">
         <v>80.599999999999994</v>
@@ -2860,7 +2761,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B10" s="4">
         <v>0.1</v>
@@ -2868,7 +2769,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
@@ -2876,15 +2777,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B13" s="4">
         <v>0.4</v>
@@ -2892,26 +2793,26 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5">
       <c r="A16" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2926,32 +2827,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF68788-F650-423E-ACA9-598F1A76ABAD}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" style="34" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="34"/>
-    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.90625" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="34"/>
+    <col min="1" max="1" width="27.36328125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.81640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10">
       <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
@@ -2982,21 +2881,12 @@
       <c r="J1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -3017,18 +2907,12 @@
       <c r="J2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="43.5">
+    </row>
+    <row r="3" spans="1:10" ht="43.5">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -3055,18 +2939,12 @@
       <c r="J3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="30" t="str">
-        <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
-      </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" ht="29">
+    </row>
+    <row r="4" spans="1:10" ht="29">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -3093,21 +2971,12 @@
       <c r="J4" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="30" t="str">
-        <f>IF($B$4="Yes",$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
-      </c>
-      <c r="N4" s="31" t="str">
-        <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" ht="29">
+    </row>
+    <row r="5" spans="1:10" ht="29">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -3134,21 +3003,12 @@
       <c r="J5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="30" t="str">
-        <f>IF($B$5="Yes",$G$5,"")</f>
-        <v>hotGuard.xml</v>
-      </c>
-      <c r="N5" s="31" t="str">
-        <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" ht="29">
+    </row>
+    <row r="6" spans="1:10" ht="29">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -3175,21 +3035,12 @@
       <c r="J6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="30" t="str">
-        <f>IF($B$6="Yes",$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
-      </c>
-      <c r="N6" s="30" t="str">
-        <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" ht="29">
+    </row>
+    <row r="7" spans="1:10" ht="29">
       <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -3214,39 +3065,30 @@
         <v>116</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="M7" s="30" t="str">
-        <f>IF($B$7="Yes",$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="N7" s="30" t="str">
-        <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" ht="29">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29">
       <c r="A8" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>135</v>
@@ -3255,80 +3097,62 @@
         <v>116</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="M8" s="30" t="str">
-        <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
-      </c>
-      <c r="N8" s="30" t="str">
-        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" ht="29">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29">
       <c r="A9" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>138</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J9" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29">
+      <c r="A10" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="M9" s="30" t="str">
-        <f>IF($B$9="Yes",$G$9,"")</f>
-        <v>minOnNoBindings.xml</v>
-      </c>
-      <c r="N9" s="30" t="str">
-        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" ht="29">
-      <c r="A10" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>293</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>138</v>
@@ -3337,23 +3161,14 @@
         <v>116</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="M10" s="30" t="str">
-        <f>IF($B$10="Yes",$G$10,"")</f>
-        <v>minOnGeneral.xml</v>
-      </c>
-      <c r="N10" s="30" t="str">
-        <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" ht="116">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -3368,19 +3183,18 @@
       <c r="F11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="15" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+      <c r="G11" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -3406,7 +3220,6 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -3465,32 +3278,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42037A05-F46D-4E48-89CA-F63CAC18AB6B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="34" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="34"/>
-    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="34"/>
+    <col min="1" max="1" width="15.08984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.81640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10">
       <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
@@ -3521,21 +3332,12 @@
       <c r="J1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -3556,18 +3358,12 @@
       <c r="J2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="29">
+    </row>
+    <row r="3" spans="1:10" ht="29">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -3594,18 +3390,12 @@
       <c r="J3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="30" t="str">
-        <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
-      </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" ht="29">
+    </row>
+    <row r="4" spans="1:10" ht="29">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -3632,21 +3422,12 @@
       <c r="J4" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="30" t="str">
-        <f>IF($B$4="Yes",$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
-      </c>
-      <c r="N4" s="31" t="str">
-        <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" ht="29">
+    </row>
+    <row r="5" spans="1:10" ht="29">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -3673,21 +3454,12 @@
       <c r="J5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="30" t="str">
-        <f>IF($B$5="Yes",$G$5,"")</f>
-        <v>hotGuard.xml</v>
-      </c>
-      <c r="N5" s="31" t="str">
-        <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" ht="29">
+    </row>
+    <row r="6" spans="1:10" ht="29">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -3714,21 +3486,12 @@
       <c r="J6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="30" t="str">
-        <f>IF($B$6="Yes",$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
-      </c>
-      <c r="N6" s="30" t="str">
-        <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" ht="29">
+    </row>
+    <row r="7" spans="1:10" ht="29">
       <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -3755,37 +3518,28 @@
       <c r="J7" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="30" t="str">
-        <f>IF($B$7="Yes",$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="N7" s="30" t="str">
-        <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" ht="29">
+    </row>
+    <row r="8" spans="1:10" ht="29">
       <c r="A8" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>135</v>
@@ -3794,80 +3548,62 @@
         <v>116</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="M8" s="30" t="str">
-        <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
-      </c>
-      <c r="N8" s="30" t="str">
-        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" ht="29">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29">
       <c r="A9" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>138</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J9" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29">
+      <c r="A10" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="M9" s="30" t="str">
-        <f>IF($B$9="Yes",$G$9,"")</f>
-        <v>minOnNoBindings.xml</v>
-      </c>
-      <c r="N9" s="30" t="str">
-        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" ht="29">
-      <c r="A10" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>293</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>138</v>
@@ -3876,23 +3612,14 @@
         <v>116</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="M10" s="30" t="str">
-        <f>IF($B$10="Yes",$G$10,"")</f>
-        <v>minOnGeneral.xml</v>
-      </c>
-      <c r="N10" s="30" t="str">
-        <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" ht="116">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.5">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -3907,19 +3634,18 @@
       <c r="F11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="15" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+      <c r="G11" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -3945,7 +3671,6 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -4004,32 +3729,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96345453-F080-4B9E-8403-62D273ADBBA7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" style="34" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="34"/>
-    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="34"/>
+    <col min="1" max="1" width="15.08984375" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.54296875" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:10">
       <c r="A1" s="21" t="s">
         <v>83</v>
       </c>
@@ -4060,21 +3783,12 @@
       <c r="J1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -4095,18 +3809,12 @@
       <c r="J2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30" t="str">
-        <f>$M$3&amp;$N$4&amp;$M$4&amp;$N$5&amp;$M$5&amp;$N$6&amp;$M$6&amp;$N$7&amp;$M$7&amp;$N$8&amp;$M$8&amp;$N$9&amp;$M$9&amp;$N$10&amp;$M$10</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="29">
+    </row>
+    <row r="3" spans="1:10" ht="29">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -4133,18 +3841,12 @@
       <c r="J3" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="30" t="str">
-        <f>IF($B$3="Yes",$G$3,"")</f>
-        <v>basichotGuard.xml</v>
-      </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-    </row>
-    <row r="4" spans="1:15" ht="29">
+    </row>
+    <row r="4" spans="1:10" ht="29">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -4171,21 +3873,12 @@
       <c r="J4" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="30" t="str">
-        <f>IF($B$4="Yes",$G$4,"")</f>
-        <v>deadSensorGuard.xml</v>
-      </c>
-      <c r="N4" s="31" t="str">
-        <f>IF(AND($M$4="deadSensorGuard.xml",$M$3="basichotGuard.xml"),"/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O4" s="30"/>
-    </row>
-    <row r="5" spans="1:15" ht="29">
+    </row>
+    <row r="5" spans="1:10" ht="29">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -4212,21 +3905,12 @@
       <c r="J5" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="30" t="str">
-        <f>IF($B$5="Yes",$G$5,"")</f>
-        <v>hotGuard.xml</v>
-      </c>
-      <c r="N5" s="31" t="str">
-        <f>IF(AND($M$5="hotGuard.xml", OR($M$3="basichotGuard.xml",$M$4="deadSensorGuard.xml")), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O5" s="30"/>
-    </row>
-    <row r="6" spans="1:15" ht="29">
+    </row>
+    <row r="6" spans="1:10" ht="29">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -4253,21 +3937,12 @@
       <c r="J6" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="30" t="str">
-        <f>IF($B$6="Yes",$G$6,"")</f>
-        <v>guardOrderMIX.xml</v>
-      </c>
-      <c r="N6" s="30" t="str">
-        <f>IF(AND($M$6="guardOrderMIX.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",$M$5="hotGuard.xml"))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O6" s="30"/>
-    </row>
-    <row r="7" spans="1:15" ht="29">
+    </row>
+    <row r="7" spans="1:10" ht="29">
       <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -4294,37 +3969,28 @@
       <c r="J7" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="M7" s="30" t="str">
-        <f>IF($B$7="Yes",$G$7,"")</f>
-        <v>vxOverrideUIvalues.xml</v>
-      </c>
-      <c r="N7" s="30" t="str">
-        <f>IF(AND($M$7="vxOverrideUIvalues.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",$M$6="guardOrderMIX.xml")))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="1:15" ht="29">
+    </row>
+    <row r="8" spans="1:10" ht="29">
       <c r="A8" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>129</v>
@@ -4333,80 +3999,62 @@
         <v>116</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="M8" s="30" t="str">
-        <f>IF($B$8="Yes",$G$8,"")</f>
-        <v>uiPopup.xml</v>
-      </c>
-      <c r="N8" s="30" t="str">
-        <f>IF(AND($M$8="uiPopup.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",$M$7="vxOverrideUIvalues.xml"))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="1:15" ht="29">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29">
       <c r="A9" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>138</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J9" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29">
+      <c r="A10" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="M9" s="30" t="str">
-        <f>IF($B$9="Yes",$G$9,"")</f>
-        <v>minOnNoBindings.xml</v>
-      </c>
-      <c r="N9" s="30" t="str">
-        <f>IF(AND($M$9="minOnNoBindings.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",$M$8="uiPopup.xml")))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="1:15" ht="29">
-      <c r="A10" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>293</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>138</v>
@@ -4415,23 +4063,14 @@
         <v>116</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="M10" s="30" t="str">
-        <f>IF($B$10="Yes",$G$10,"")</f>
-        <v>minOnGeneral.xml</v>
-      </c>
-      <c r="N10" s="30" t="str">
-        <f>IF(AND($M$10="minOnGeneral.xml", OR($M$3="basichotGuard.xml",OR($M$4="deadSensorGuard.xml",OR($M$5="hotGuard.xml",OR($M$6="guardOrderMIX.xml",OR($M$7="vxOverrideUIvalues.xml",OR($M$8="uiPopup.xml",$M$9="minOnNoBindings.xml"))))))), "/", "")</f>
-        <v>/</v>
-      </c>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" ht="116">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -4446,19 +4085,18 @@
       <c r="F11" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="15" t="str">
-        <f>$O$2</f>
-        <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
+      <c r="G11" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="16"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>200</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -4485,7 +4123,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
@@ -4668,7 +4305,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4755,26 +4392,26 @@
     </row>
     <row r="8" spans="1:2" ht="29">
       <c r="A8" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="10" spans="1:2" ht="29">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87">
@@ -4782,7 +4419,7 @@
         <v>182</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29">
@@ -4858,146 +4495,146 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="101.5">
       <c r="A16" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29">
       <c r="A17" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\home\fc\automation\AuQA\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B347FC1-0238-490F-8DCA-728EA154489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3909B61-A317-4A6B-A423-7E94372F3353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Do not change</t>
         </r>
@@ -83,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Do not change</t>
         </r>
@@ -107,7 +107,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Do not change</t>
         </r>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="326">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1077,6 +1077,30 @@
   </si>
   <si>
     <t>ahu_property_onpwrlvl_default</t>
+  </si>
+  <si>
+    <t>alarm8TestInputs</t>
+  </si>
+  <si>
+    <t>rack_intial_tempF</t>
+  </si>
+  <si>
+    <t>power_monitor_on_pwr_kW</t>
+  </si>
+  <si>
+    <t>rack_cold_tempF</t>
+  </si>
+  <si>
+    <t>alarm_off</t>
+  </si>
+  <si>
+    <t>alarm_on</t>
+  </si>
+  <si>
+    <t>group_cold_alarm</t>
+  </si>
+  <si>
+    <t>GroupCold</t>
   </si>
 </sst>
 </file>
@@ -1110,14 +1134,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1567,19 +1591,19 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.08984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="35.109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1608,7 +1632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1634,7 +1658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29">
+    <row r="3" spans="1:11" ht="28.8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1660,7 +1684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29">
+    <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1712,7 +1736,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29">
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1764,7 +1788,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29">
+    <row r="8" spans="1:11" ht="28.8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1814,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29">
+    <row r="9" spans="1:11" ht="28.8">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1816,7 +1840,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29">
+    <row r="10" spans="1:11" ht="28.8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1842,7 +1866,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29">
+    <row r="11" spans="1:11" ht="28.8">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1868,7 +1892,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1894,7 +1918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="57.65" customHeight="1">
+    <row r="13" spans="1:11" ht="57.6" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1920,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29">
+    <row r="14" spans="1:11" ht="28.8">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1946,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.5">
+    <row r="15" spans="1:11" ht="43.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1972,7 +1996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29">
+    <row r="16" spans="1:11" ht="28.8">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="29">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2032,7 +2056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29">
+    <row r="19" spans="1:11" ht="28.8">
       <c r="G19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2046,7 +2070,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="29">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="G20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2060,7 +2084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="29">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="G21" s="2" t="s">
         <v>23</v>
       </c>
@@ -2074,7 +2098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="29">
+    <row r="22" spans="1:11" ht="28.8">
       <c r="G22" s="2" t="s">
         <v>24</v>
       </c>
@@ -2088,7 +2112,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="29">
+    <row r="23" spans="1:11" ht="28.8">
       <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
@@ -2102,7 +2126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="29">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="G24" s="2" t="s">
         <v>55</v>
       </c>
@@ -2116,7 +2140,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="29">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2130,7 +2154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="29">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="G26" s="2" t="s">
         <v>57</v>
       </c>
@@ -2198,20 +2222,20 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35.36328125" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="35.36328125" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2476,7 +2500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.5">
+    <row r="14" spans="1:11" ht="43.2">
       <c r="A14" s="19" t="s">
         <v>153</v>
       </c>
@@ -2556,7 +2580,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="72.5">
+    <row r="18" spans="1:8" ht="72">
       <c r="A18" s="19" t="s">
         <v>158</v>
       </c>
@@ -2774,123 +2798,205 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213F30C-9986-413F-9139-B40DA43E91F9}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.453125" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
         <v>303</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
         <v>304</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="19" t="s">
         <v>305</v>
       </c>
       <c r="B4" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="4">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="4">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="19" t="s">
         <v>232</v>
       </c>
       <c r="B7" s="4">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="19" t="s">
         <v>150</v>
       </c>
       <c r="B8" s="4">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="19" t="s">
         <v>306</v>
       </c>
       <c r="B10" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E10" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="19" t="s">
         <v>307</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="19" t="s">
         <v>308</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="19" t="s">
         <v>317</v>
       </c>
       <c r="B13" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="19" t="s">
         <v>312</v>
       </c>
@@ -2898,7 +3004,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:5">
       <c r="A15" s="19" t="s">
         <v>314</v>
       </c>
@@ -2906,7 +3012,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="43.5">
+    <row r="16" spans="1:5" ht="28.8">
       <c r="A16" s="19" t="s">
         <v>315</v>
       </c>
@@ -2919,7 +3025,6 @@
       <c r="B17" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2932,23 +3037,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.81640625" style="34" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="34"/>
-    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" style="34" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="34"/>
+    <col min="13" max="13" width="20.77734375" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="87.90625" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="34"/>
+    <col min="15" max="15" width="87.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3024,7 +3129,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.5">
+    <row r="3" spans="1:15" ht="43.2">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
@@ -3062,7 +3167,7 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
@@ -3103,7 +3208,7 @@
       </c>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
@@ -3144,7 +3249,7 @@
       </c>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
@@ -3185,7 +3290,7 @@
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
@@ -3226,7 +3331,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="29">
+    <row r="8" spans="1:15" ht="28.8">
       <c r="A8" s="18" t="s">
         <v>226</v>
       </c>
@@ -3267,7 +3372,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="29">
+    <row r="9" spans="1:15" ht="28.8">
       <c r="A9" s="18" t="s">
         <v>294</v>
       </c>
@@ -3308,7 +3413,7 @@
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" ht="29">
+    <row r="10" spans="1:15" ht="28.8">
       <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
@@ -3349,7 +3454,7 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="116">
+    <row r="11" spans="1:15" ht="115.2">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -3471,23 +3576,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="34" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="34"/>
-    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="34" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="34"/>
+    <col min="13" max="13" width="20.77734375" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="34"/>
+    <col min="15" max="15" width="99.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3563,7 +3668,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
@@ -3601,7 +3706,7 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
@@ -3642,7 +3747,7 @@
       </c>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
@@ -3683,7 +3788,7 @@
       </c>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
@@ -3724,7 +3829,7 @@
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
@@ -3765,7 +3870,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="29">
+    <row r="8" spans="1:15" ht="28.8">
       <c r="A8" s="18" t="s">
         <v>226</v>
       </c>
@@ -3806,7 +3911,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="29">
+    <row r="9" spans="1:15" ht="28.8">
       <c r="A9" s="18" t="s">
         <v>294</v>
       </c>
@@ -3847,7 +3952,7 @@
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" ht="29">
+    <row r="10" spans="1:15" ht="28.8">
       <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
@@ -3888,7 +3993,7 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="116">
+    <row r="11" spans="1:15" ht="115.2">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -4010,23 +4115,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.54296875" style="34" customWidth="1"/>
-    <col min="11" max="12" width="8.81640625" style="34"/>
-    <col min="13" max="13" width="20.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5546875" style="34" customWidth="1"/>
+    <col min="11" max="12" width="8.77734375" style="34"/>
+    <col min="13" max="13" width="20.77734375" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="34"/>
+    <col min="15" max="15" width="99.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -4102,7 +4207,7 @@
         <v>basichotGuard.xml/deadSensorGuard.xml/hotGuard.xml/guardOrderMIX.xml/vxOverrideUIvalues.xml/uiPopup.xml/minOnNoBindings.xml/minOnGeneral.xml</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29">
+    <row r="3" spans="1:15" ht="28.8">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
@@ -4140,7 +4245,7 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="29">
+    <row r="4" spans="1:15" ht="28.8">
       <c r="A4" s="18" t="s">
         <v>101</v>
       </c>
@@ -4181,7 +4286,7 @@
       </c>
       <c r="O4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="29">
+    <row r="5" spans="1:15" ht="28.8">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
@@ -4222,7 +4327,7 @@
       </c>
       <c r="O5" s="30"/>
     </row>
-    <row r="6" spans="1:15" ht="29">
+    <row r="6" spans="1:15" ht="28.8">
       <c r="A6" s="18" t="s">
         <v>109</v>
       </c>
@@ -4263,7 +4368,7 @@
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:15" ht="29">
+    <row r="7" spans="1:15" ht="28.8">
       <c r="A7" s="18" t="s">
         <v>168</v>
       </c>
@@ -4304,7 +4409,7 @@
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="29">
+    <row r="8" spans="1:15" ht="28.8">
       <c r="A8" s="18" t="s">
         <v>226</v>
       </c>
@@ -4345,7 +4450,7 @@
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" ht="29">
+    <row r="9" spans="1:15" ht="28.8">
       <c r="A9" s="18" t="s">
         <v>294</v>
       </c>
@@ -4386,7 +4491,7 @@
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" ht="29">
+    <row r="10" spans="1:15" ht="28.8">
       <c r="A10" s="18" t="s">
         <v>295</v>
       </c>
@@ -4427,7 +4532,7 @@
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" ht="116">
+    <row r="11" spans="1:15" ht="100.8">
       <c r="A11" s="18" t="s">
         <v>119</v>
       </c>
@@ -4553,13 +4658,13 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4690,11 +4795,11 @@
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.90625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.36328125" style="25" customWidth="1"/>
-    <col min="3" max="16384" width="8.81640625" style="25"/>
+    <col min="1" max="1" width="20.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.33203125" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4705,7 +4810,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29">
+    <row r="2" spans="1:2" ht="28.8">
       <c r="A2" s="22" t="s">
         <v>178</v>
       </c>
@@ -4713,7 +4818,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="58">
+    <row r="3" spans="1:2" ht="57.6">
       <c r="A3" s="22" t="s">
         <v>89</v>
       </c>
@@ -4721,7 +4826,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="58">
+    <row r="4" spans="1:2" ht="57.6">
       <c r="A4" s="22" t="s">
         <v>101</v>
       </c>
@@ -4729,7 +4834,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="43.5">
+    <row r="5" spans="1:2" ht="43.2">
       <c r="A5" s="22" t="s">
         <v>108</v>
       </c>
@@ -4737,7 +4842,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="58">
+    <row r="6" spans="1:2" ht="43.2">
       <c r="A6" s="22" t="s">
         <v>109</v>
       </c>
@@ -4745,7 +4850,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="58">
+    <row r="7" spans="1:2" ht="57.6">
       <c r="A7" s="22" t="s">
         <v>168</v>
       </c>
@@ -4753,7 +4858,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29">
+    <row r="8" spans="1:2" ht="28.8">
       <c r="A8" s="22" t="s">
         <v>226</v>
       </c>
@@ -4761,7 +4866,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58">
+    <row r="9" spans="1:2" ht="57.6">
       <c r="A9" s="33" t="s">
         <v>296</v>
       </c>
@@ -4769,7 +4874,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="29">
+    <row r="10" spans="1:2" ht="28.8">
       <c r="A10" s="33" t="s">
         <v>297</v>
       </c>
@@ -4777,7 +4882,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="87">
+    <row r="11" spans="1:2" ht="86.4">
       <c r="A11" s="22" t="s">
         <v>182</v>
       </c>
@@ -4785,7 +4890,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29">
+    <row r="12" spans="1:2" ht="28.8">
       <c r="A12" s="22" t="s">
         <v>179</v>
       </c>
@@ -4793,7 +4898,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="29">
+    <row r="13" spans="1:2" ht="28.8">
       <c r="A13" s="22" t="s">
         <v>180</v>
       </c>
@@ -4813,7 +4918,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29">
+    <row r="16" spans="1:2" ht="28.8">
       <c r="A16" s="22" t="s">
         <v>192</v>
       </c>
@@ -4821,7 +4926,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29">
+    <row r="17" spans="1:2" ht="28.8">
       <c r="A17" s="22" t="s">
         <v>194</v>
       </c>
@@ -4829,7 +4934,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="29">
+    <row r="18" spans="1:2" ht="28.8">
       <c r="A18" s="22" t="s">
         <v>195</v>
       </c>
@@ -4850,10 +4955,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4976,7 +5081,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="101.5">
+    <row r="16" spans="1:2" ht="86.4">
       <c r="A16" s="2" t="s">
         <v>270</v>
       </c>
@@ -4984,7 +5089,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29">
+    <row r="17" spans="1:2" ht="28.8">
       <c r="A17" s="2" t="s">
         <v>275</v>
       </c>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3909B61-A317-4A6B-A423-7E94372F3353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6EFED-1748-482E-8FAB-4E9E0F8440D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="330">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1079,9 +1079,6 @@
     <t>ahu_property_onpwrlvl_default</t>
   </si>
   <si>
-    <t>alarm8TestInputs</t>
-  </si>
-  <si>
     <t>rack_intial_tempF</t>
   </si>
   <si>
@@ -1101,6 +1098,21 @@
   </si>
   <si>
     <t>GroupCold</t>
+  </si>
+  <si>
+    <t>groupColdAlarmTestInputs</t>
+  </si>
+  <si>
+    <t>groupDeadSensorTestInputs</t>
+  </si>
+  <si>
+    <t>group_dead_sensor_alarm</t>
+  </si>
+  <si>
+    <t>GroupDeadSensor</t>
+  </si>
+  <si>
+    <t>num_minutes_past_default</t>
   </si>
 </sst>
 </file>
@@ -2798,10 +2810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213F30C-9986-413F-9139-B40DA43E91F9}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2812,9 +2824,12 @@
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
     <col min="5" max="5" width="29.88671875" style="7" customWidth="1"/>
     <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>310</v>
       </c>
@@ -2822,13 +2837,19 @@
         <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="19" t="s">
         <v>303</v>
       </c>
@@ -2841,8 +2862,14 @@
       <c r="E2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="G2" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="19" t="s">
         <v>304</v>
       </c>
@@ -2855,8 +2882,14 @@
       <c r="E3" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
         <v>305</v>
       </c>
@@ -2869,8 +2902,14 @@
       <c r="E4" s="4">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="19" t="s">
         <v>50</v>
       </c>
@@ -2883,8 +2922,14 @@
       <c r="E5" s="4">
         <v>64.400000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="19" t="s">
         <v>52</v>
       </c>
@@ -2892,13 +2937,19 @@
         <v>64.400000000000006</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E6" s="4">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4">
+        <v>64.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="19" t="s">
         <v>232</v>
       </c>
@@ -2911,8 +2962,14 @@
       <c r="E7" s="4">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" s="4">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="19" t="s">
         <v>150</v>
       </c>
@@ -2925,8 +2982,14 @@
       <c r="E8" s="4">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="19" t="s">
         <v>151</v>
       </c>
@@ -2934,13 +2997,19 @@
         <v>76</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="19" t="s">
         <v>306</v>
       </c>
@@ -2948,13 +3017,19 @@
         <v>0.1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E10" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
         <v>307</v>
       </c>
@@ -2962,13 +3037,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
         <v>308</v>
       </c>
@@ -2976,13 +3057,19 @@
         <v>309</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="19" t="s">
         <v>317</v>
       </c>
@@ -2990,21 +3077,33 @@
         <v>0.4</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="19" t="s">
         <v>312</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="19" t="s">
         <v>314</v>
       </c>
@@ -3012,7 +3111,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8">
+    <row r="16" spans="1:8" ht="28.8">
       <c r="A16" s="19" t="s">
         <v>315</v>
       </c>
@@ -3025,6 +3124,7 @@
       <c r="B17" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6EFED-1748-482E-8FAB-4E9E0F8440D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6796B871-06C3-42E8-ADF8-260B529642D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2812,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213F30C-9986-413F-9139-B40DA43E91F9}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2822,10 +2822,10 @@
     <col min="2" max="2" width="29.88671875" style="7" customWidth="1"/>
     <col min="3" max="3" width="2.88671875" style="14" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="2.88671875" style="14" customWidth="1"/>
     <col min="7" max="7" width="38.44140625" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16" style="7" customWidth="1"/>
     <col min="9" max="9" width="2.88671875" style="14" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Inputs/testInputs.xlsx
+++ b/Inputs/testInputs.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\fc\automation\AuQA\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7625EFB8-01AC-4056-9028-2E6AF2DD691E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857D857A-6D7D-4F33-8F3E-251E6C666667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="guardTest" sheetId="1" r:id="rId1"/>
     <sheet name="overrideTest" sheetId="7" r:id="rId2"/>
-    <sheet name="tuesdaysuite" sheetId="8" r:id="rId3"/>
-    <sheet name="wednesdaysuite" sheetId="4" r:id="rId4"/>
-    <sheet name="thursdaysuite" sheetId="2" r:id="rId5"/>
-    <sheet name="commandinputdata" sheetId="6" r:id="rId6"/>
-    <sheet name="testexecutioncommands" sheetId="9" r:id="rId7"/>
-    <sheet name="uitest" sheetId="10" r:id="rId8"/>
+    <sheet name="alarmTest" sheetId="11" r:id="rId3"/>
+    <sheet name="tuesdaysuite" sheetId="8" r:id="rId4"/>
+    <sheet name="wednesdaysuite" sheetId="4" r:id="rId5"/>
+    <sheet name="thursdaysuite" sheetId="2" r:id="rId6"/>
+    <sheet name="commandinputdata" sheetId="6" r:id="rId7"/>
+    <sheet name="testexecutioncommands" sheetId="9" r:id="rId8"/>
+    <sheet name="uitest" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="config37">commandinputdata!#REF!</definedName>
@@ -115,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="330">
   <si>
     <t>basicHotAbsoluteGuardInputs</t>
   </si>
@@ -1025,46 +1026,85 @@
     <t>pabot --pabotlib --processes 1</t>
   </si>
   <si>
-    <t>validation_error_popup_title</t>
-  </si>
-  <si>
-    <t>Validation Error</t>
-  </si>
-  <si>
-    <t>sfcmin_popup_message</t>
-  </si>
-  <si>
-    <t>SYSTEM.SFCMin: The value must not be blank.</t>
-  </si>
-  <si>
-    <t>save_popup_title</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>save_popup_message</t>
-  </si>
-  <si>
-    <t>Nothing to save.</t>
-  </si>
-  <si>
-    <t>turn_off_limit_24_hr_popup_message</t>
-  </si>
-  <si>
-    <t>DASHM.TurnOffLimit24H: The unsigned integer is below the minimum of 0</t>
-  </si>
-  <si>
-    <t>unsaved_changes_popup_title</t>
-  </si>
-  <si>
-    <t>Unsaved Changes</t>
-  </si>
-  <si>
-    <t>unsaved_changes_popup_message</t>
-  </si>
-  <si>
-    <t>Discard changes before closing this window?</t>
+    <t>allow_num_exceedences_guard</t>
+  </si>
+  <si>
+    <t>cat_guard_band_range</t>
+  </si>
+  <si>
+    <t>ahu_property_onpwrlvl</t>
+  </si>
+  <si>
+    <t>power_monitor_pwr1_kW</t>
+  </si>
+  <si>
+    <t>power_monitor_pwr2_kW</t>
+  </si>
+  <si>
+    <t>expected_ahu_state_off</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>alarm1TestInputs</t>
+  </si>
+  <si>
+    <t>AhuFailToTurnOff</t>
+  </si>
+  <si>
+    <t>alarm_ahu_failed_toturnoff</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>alarm_status</t>
+  </si>
+  <si>
+    <t>ahu_failed_to_turnoFF_alarm_message</t>
+  </si>
+  <si>
+    <t>in Control Group NoBindings is not turning OFF when commanded.</t>
+  </si>
+  <si>
+    <t>ahu_property_onpwrlvl_default</t>
+  </si>
+  <si>
+    <t>rack_intial_tempF</t>
+  </si>
+  <si>
+    <t>power_monitor_on_pwr_kW</t>
+  </si>
+  <si>
+    <t>rack_cold_tempF</t>
+  </si>
+  <si>
+    <t>alarm_off</t>
+  </si>
+  <si>
+    <t>alarm_on</t>
+  </si>
+  <si>
+    <t>group_cold_alarm</t>
+  </si>
+  <si>
+    <t>GroupCold</t>
+  </si>
+  <si>
+    <t>groupColdAlarmTestInputs</t>
+  </si>
+  <si>
+    <t>groupDeadSensorTestInputs</t>
+  </si>
+  <si>
+    <t>group_dead_sensor_alarm</t>
+  </si>
+  <si>
+    <t>GroupDeadSensor</t>
+  </si>
+  <si>
+    <t>num_minutes_past_default</t>
   </si>
   <si>
     <t>sudo pabot --pabotlib --processes 1 --name 'Popup' --reporttitle "Popups" --outputdir Reports --output uiPopup.xml --variable environment:config37 -v groupname:General-test -T /home/fc/automation/AuQA/Testcases/UITests/uiPopupTest.robot</t>
@@ -1190,7 +1230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1273,9 +1313,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2194,8 +2231,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2770,6 +2807,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1213F30C-9986-413F-9139-B40DA43E91F9}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.90625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="8" max="8" width="16" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.90625" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>50</v>
+  